--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="9825" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13065" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="simplepay_recharge_spend" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>Test suite名称</t>
   </si>
@@ -802,6 +802,9 @@
     <t>消费折扣券，ratio&lt;1</t>
   </si>
   <si>
+    <t>\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\</t>
+  </si>
+  <si>
     <t>会员红包券</t>
   </si>
 </sst>
@@ -810,11 +813,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -871,22 +874,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,8 +895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +905,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,7 +941,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,38 +949,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,9 +963,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,9 +978,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,7 +1049,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,31 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,19 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,13 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,31 +1145,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,43 +1211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,26 +1246,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,39 +1266,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,6 +1295,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1348,10 +1351,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1360,133 +1363,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3489,7 +3492,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3640,19 +3643,20 @@
         <v>193</v>
       </c>
       <c r="C8" s="17">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>2</v>
       </c>
       <c r="D8" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,9998)</f>
+        <v>2427</v>
       </c>
       <c r="E8" s="17">
-        <f ca="1" t="shared" ref="E8:E12" si="0">RANDBETWEEN(D8,10)</f>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(D8,9999)</f>
+        <v>5014</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1" t="shared" ref="F8:F12" si="1">ROUND(RAND(),2)</f>
-        <v>0.57</v>
+        <f ca="1" t="shared" ref="F8:F12" si="0">ROUND(RAND(),2)</f>
+        <v>0.02</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="17"/>
@@ -3661,7 +3665,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" t="s">
@@ -3676,19 +3680,20 @@
         <v>194</v>
       </c>
       <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
         <f ca="1">RANDBETWEEN(1,10)</f>
         <v>8</v>
       </c>
+      <c r="D9" s="17">
+        <f ca="1">RANDBETWEEN(1,9998)</f>
+        <v>2464</v>
+      </c>
       <c r="E9" s="17">
-        <f ca="1">RANDBETWEEN(D9+0.01,10)</f>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(D9,9999)</f>
+        <v>4432</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.86</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3696,8 +3701,8 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17">
-        <f ca="1" t="shared" ref="L8:L12" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f ca="1" t="shared" ref="L8:L12" si="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" t="s">
@@ -3712,19 +3717,20 @@
         <v>195</v>
       </c>
       <c r="C10" s="17">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>9</v>
       </c>
       <c r="D10" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,9998)</f>
+        <v>7954</v>
       </c>
       <c r="E10" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(D10,9999)</f>
+        <v>9049</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.42</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.97</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3732,7 +3738,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1" t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="17"/>
@@ -3748,19 +3754,20 @@
         <v>196</v>
       </c>
       <c r="C11" s="17">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>3</v>
       </c>
       <c r="D11" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,9998)</f>
+        <v>4520</v>
       </c>
       <c r="E11" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(D11,9999)</f>
+        <v>4953</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.38</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.81</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3768,8 +3775,8 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17">
-        <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" t="s">
@@ -3780,21 +3787,24 @@
       <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
       <c r="C12" s="17">
+        <f ca="1">RANDBETWEEN(1,10)</f>
         <v>1</v>
       </c>
       <c r="D12" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,9998)</f>
+        <v>5659</v>
       </c>
       <c r="E12" s="17">
+        <f ca="1">RANDBETWEEN(D12,9999)</f>
+        <v>5827</v>
+      </c>
+      <c r="F12" s="17">
         <f ca="1" t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F12" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3802,12 +3812,12 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17">
-        <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -813,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="27">
@@ -872,11 +872,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,9 +931,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,20 +946,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -933,23 +954,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,47 +994,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,6 +1003,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,7 +1037,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1085,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,43 +1157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,43 +1169,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,67 +1205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,49 +1249,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,11 +1279,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,6 +1323,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1351,10 +1351,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1363,133 +1363,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3492,7 +3492,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3643,20 +3643,19 @@
         <v>193</v>
       </c>
       <c r="C8" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="17">
-        <f ca="1">RANDBETWEEN(1,9998)</f>
-        <v>2427</v>
+        <f ca="1" t="shared" ref="D8:D12" si="0">RANDBETWEEN(1,9998)</f>
+        <v>7827</v>
       </c>
       <c r="E8" s="17">
-        <f ca="1">RANDBETWEEN(D8,9999)</f>
-        <v>5014</v>
+        <f ca="1" t="shared" ref="E8:E12" si="1">RANDBETWEEN(D8,9999)</f>
+        <v>8176</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1" t="shared" ref="F8:F12" si="0">ROUND(RAND(),2)</f>
-        <v>0.02</v>
+        <f ca="1" t="shared" ref="F8:F12" si="2">ROUND(RAND(),2)</f>
+        <v>0.18</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="17"/>
@@ -3665,7 +3664,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" t="s">
@@ -3680,20 +3679,19 @@
         <v>194</v>
       </c>
       <c r="C9" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="17">
-        <f ca="1">RANDBETWEEN(1,9998)</f>
-        <v>2464</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>1992</v>
       </c>
       <c r="E9" s="17">
-        <f ca="1">RANDBETWEEN(D9,9999)</f>
-        <v>4432</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>2405</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.25</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.46</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3701,8 +3699,8 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17">
-        <f ca="1" t="shared" ref="L8:L12" si="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f ca="1" t="shared" ref="L8:L12" si="3">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" t="s">
@@ -3717,20 +3715,19 @@
         <v>195</v>
       </c>
       <c r="C10" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="17">
-        <f ca="1">RANDBETWEEN(1,9998)</f>
-        <v>7954</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>5660</v>
       </c>
       <c r="E10" s="17">
-        <f ca="1">RANDBETWEEN(D10,9999)</f>
-        <v>9049</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>6081</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.97</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.32</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3738,8 +3735,8 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" t="s">
@@ -3754,20 +3751,19 @@
         <v>196</v>
       </c>
       <c r="C11" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="17">
-        <f ca="1">RANDBETWEEN(1,9998)</f>
-        <v>4520</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>8248</v>
       </c>
       <c r="E11" s="17">
-        <f ca="1">RANDBETWEEN(D11,9999)</f>
-        <v>4953</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>8263</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.81</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3775,8 +3771,8 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" t="s">
@@ -3791,20 +3787,19 @@
         <v>198</v>
       </c>
       <c r="C12" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
         <v>1</v>
       </c>
       <c r="D12" s="17">
-        <f ca="1">RANDBETWEEN(1,9998)</f>
-        <v>5659</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>8676</v>
       </c>
       <c r="E12" s="17">
-        <f ca="1">RANDBETWEEN(D12,9999)</f>
-        <v>5827</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>9523</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.84</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.9</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3812,8 +3807,8 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" t="s">

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -8,19 +8,17 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge_spend" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_direct" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_direct_bak" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_no_login" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_multi_vouchers" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_autosign" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_no_login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_multi_vouchers" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_autosign" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'simplepay_recharge_spend'!$A$6:$I$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'simplepay_direct'!$A$6:$I$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'simplepay_direct_bak'!$A$6:$I$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'simplepay_recharge'!$A$6:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'simplepay_no_login'!$A$6:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'simplepay_autosign'!$A$6:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'simplepay_recharge'!$A$6:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'simplepay_no_login'!$A$6:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'simplepay_autosign'!$A$6:$I$28</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
@@ -86,13 +84,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -100,14 +91,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,13 +122,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -136,8 +136,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,31 +175,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +198,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -223,7 +206,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -249,7 +247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +307,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,43 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,25 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,73 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +474,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -506,17 +495,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,11 +532,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -575,137 +573,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,9 +764,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3099,7 +3094,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3239,12 +3234,7 @@
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{
-  "baseresult": {
-    "code": "1013",
-    "msg": "\u8bf7\u6c42\u5931\u8d25\uff0c\u8bf7\u7a0d\u540e\u91cd\u8bd5"
-  }
-}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202104151527452076075925561212%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22obekPcYtwtae02%252FJgppdUKzb6pH1rbMbvrDTxs8FKvihpxy9%252FpJfzXrD73qBg1YuGBwKZTOKFtsv6%252Bzq8oxVZXOvQ2fS27q9uJJFE91iK6liaEulU962dvqRYsI2ODJOqqBUDlkWjxXNDbNs%252BjzuWZugc1UdMmKVgqc6JPz617g%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202104151527452076075925561212\"}"}, "payrequestid": "RM202104151527452076075925561212"}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -3257,7 +3247,7 @@
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
       <c r="I7" s="11" t="n"/>
@@ -3283,7 +3273,11 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n"/>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"bd9cafc7a0134533b56371ca88f8492d\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx15152745688660d7fb6075648d57e70000\",\"sign\":\"87DF263CEA518D27B7ABC1962E3ACFAB\",\"timestamp\":\"1618471665\"}"}, "payrequestid": "RM202104151527452076075925042712"}</t>
+        </is>
+      </c>
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
@@ -3292,7 +3286,11 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n"/>
+      <c r="H8" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
@@ -3316,7 +3314,11 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"04a8e50b3f08eb0f043c145f94803ed2\",\"pubAcc\":\"\",\"sig\":\"rn4Z1lWryYMfJ8AomeVngSTm+uM=\",\"tokenId\":\"6M6397a9a572633ea585c41bf6d6349c\"}"}, "payrequestid": "RM202104151527452076075925140162"}</t>
+        </is>
+      </c>
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
@@ -3325,7 +3327,11 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H9" s="11" t="n"/>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
@@ -3349,7 +3355,11 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"04a8e50b3f08eb0f043c145f94803ed2\",\"pubAcc\":\"\",\"sig\":\"RMTv+QXkI5/P24DBMyzGQMR4ghM=\",\"tokenId\":\"5M559cab9fe930881f7edf7620059585\"}"}, "payrequestid": "RM202104151527462076075925034162"}</t>
+        </is>
+      </c>
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
@@ -3358,7 +3368,11 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n"/>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="I10" s="11" t="n"/>
     </row>
   </sheetData>
@@ -3368,309 +3382,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="16" customWidth="1" style="1" min="1" max="1"/>
-    <col width="29.5" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
-    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
-    <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
-    <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
-    <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
-    <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
-    <col width="21.8916666666667" customWidth="1" style="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Test suite名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>simplepay下单接口测试用例集</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="22" customHeight="1" s="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>/plugin/post/simplepay</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="22" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>HTTP请求方式</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="22" customHeight="1" s="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>前置条件</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="22" customHeight="1" s="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>环境恢复</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" s="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>用例名称</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>用例标签</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>用例类型</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>请求报文体</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>响应状态码</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>期望结果</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>用例执行结果</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>直扣-支付宝</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D7" s="19" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E7" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000",
-  msg: "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202009291303592076075925486342%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22ofxsFQGB4zmJWtzN0l8HaHLpVRKr8KcAM8aX3O9P8pexs1quYj4kjDVw9jGPvQqxqqtqyLWC0kgVIns03WqzwQ1uuL2gxRuBczJzWGoTrDARVO8u38YgsC6%252BtW8SEdeufAHLEZ7lSBstDkYN8mhAKw3%252BuligJsZsz%252FDqu2n1%252BvM%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202009291303592076075925486342\"}"
-}
-payrequestid: "RM202009291303592076075925486342",
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H7" s="11" t="n"/>
-      <c r="I7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>直扣-微信</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D8" s="19" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E8" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"f6e46d85616e48de9e9dc25edc7c39b3\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx181746213278373ae75c17b520e2010000\",\"sign\":\"0F344463ECB75520458E43C003993098\",\"timestamp\":\"1600422381\"}"
-}
-payrequestid: "RM202009181746212076075925251802"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>直扣-qq钱包</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D9" s="19" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E9" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"4a6411d59d89cbef74826c938ba88949\",\"pubAcc\":\"\",\"sig\":\"+k2clWJVArF+DIZrodYSHvb+GG0=\",\"tokenId\":\"5Md4f05652fa1235d1f786384290a0fb\"}"
-}
-payrequestid: "RM202009181746212076075925358702"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="n"/>
-      <c r="I9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>直扣-oppopay</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D10" s="19" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"4a6411d59d89cbef74826c938ba88949\",\"pubAcc\":\"\",\"sig\":\"Jv3OozuoLtIJXN+TJTfE3XQLKBk=\",\"tokenId\":\"5M70a7b66d27a35b1fc305a2ee0b21fe\"}"
-}
-payrequestid: "RM202009181746212076075925114022"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H10" s="11" t="n"/>
-      <c r="I10" s="11" t="n"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A6:I10"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3801,7 +3512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3810,7 +3521,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="0"/>
@@ -3932,7 +3643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3941,7 +3652,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -4180,7 +3891,7 @@
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="n"/>
+      <c r="G8" s="22" t="n"/>
       <c r="H8" s="17" t="n"/>
       <c r="I8" s="17" t="n"/>
       <c r="J8" s="17" t="n"/>
@@ -4361,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28080" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28080" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge_spend" sheetId="1" state="visible" r:id="rId1"/>
@@ -91,7 +91,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -99,7 +105,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -121,39 +165,25 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,47 +212,17 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,7 +247,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,19 +331,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,79 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,61 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -467,30 +491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,31 +510,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +529,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3093,8 +3093,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202104151527452076075925561212%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22obekPcYtwtae02%252FJgppdUKzb6pH1rbMbvrDTxs8FKvihpxy9%252FpJfzXrD73qBg1YuGBwKZTOKFtsv6%252Bzq8oxVZXOvQ2fS27q9uJJFE91iK6liaEulU962dvqRYsI2ODJOqqBUDlkWjxXNDbNs%252BjzuWZugc1UdMmKVgqc6JPz617g%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202104151527452076075925561212\"}"}, "payrequestid": "RM202104151527452076075925561212"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202104251016222086776969164442%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22TsC7T0TLJj9HrqwjVdIS%252BXDctTWo9JZlMqnApD5AsjZCe7sioj31Vz%252Bqg975hCYK8v3qPkx4rtX7cEb2pMmwqZ7P%252BMYis4qwb2RIl3SCT%252Ftk3NxwlP%252FXoMrixv6aEiVrHaKDJ%252BgPtOP3TwThpXldDD3aDtVx5c8DYlbokv1ZxGA%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202104251016222086776969164442\"}"}, "payrequestid": "RM202104251016222086776969164442"}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"bd9cafc7a0134533b56371ca88f8492d\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx15152745688660d7fb6075648d57e70000\",\"sign\":\"87DF263CEA518D27B7ABC1962E3ACFAB\",\"timestamp\":\"1618471665\"}"}, "payrequestid": "RM202104151527452076075925042712"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"a5726a8635f3442aafda5828e38924cc\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx2510162291567098a390882fa14b120000\",\"sign\":\"F86874D5E9A17DF678C87E6DC1F32F5B\",\"timestamp\":\"1619316982\"}"}, "payrequestid": "RM202104251016222086776969061032"}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"04a8e50b3f08eb0f043c145f94803ed2\",\"pubAcc\":\"\",\"sig\":\"rn4Z1lWryYMfJ8AomeVngSTm+uM=\",\"tokenId\":\"6M6397a9a572633ea585c41bf6d6349c\"}"}, "payrequestid": "RM202104151527452076075925140162"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b1ef14ba5b462665b4214c936775802f\",\"pubAcc\":\"\",\"sig\":\"P7uBnZZDZZA0qdj6win1YD6AziM=\",\"tokenId\":\"6M901d38b23111778fdbcf8bc2aac06c\"}"}, "payrequestid": "RM202104251016232086776969537212"}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"04a8e50b3f08eb0f043c145f94803ed2\",\"pubAcc\":\"\",\"sig\":\"RMTv+QXkI5/P24DBMyzGQMR4ghM=\",\"tokenId\":\"5M559cab9fe930881f7edf7620059585\"}"}, "payrequestid": "RM202104151527462076075925034162"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b1ef14ba5b462665b4214c936775802f\",\"pubAcc\":\"\",\"sig\":\"IYzt/dR5xObGfnTOeTxQrk1wEYo=\",\"tokenId\":\"6Mabf08c5e44c2da3c3df8f1e0989029\"}"}, "payrequestid": "RM202104251016232086776969486272"}</t>
         </is>
       </c>
       <c r="F10" s="10" t="n">
@@ -3651,8 +3651,8 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="M7" s="15" t="inlineStr">
         <is>
-          <t>batchId</t>
+          <t>configId</t>
         </is>
       </c>
       <c r="N7" s="0" t="inlineStr">
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17">
-        <f>RANDBETWEEN(1,9998)</f>
+        <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
       <c r="E8" s="17">
@@ -3920,11 +3920,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="17">
-        <f>RANDBETWEEN(1,9998)</f>
+        <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
       <c r="E9" s="17">
-        <f>RANDBETWEEN(D9,9999)</f>
+        <f>RANDBETWEEN(D9,20)</f>
         <v/>
       </c>
       <c r="F9" s="17">
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="17">
-        <f>RANDBETWEEN(1,9998)</f>
+        <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
       <c r="E10" s="17">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="17">
-        <f>RANDBETWEEN(1,9998)</f>
+        <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
       <c r="E11" s="17">
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="17">
-        <f>RANDBETWEEN(1,9998)</f>
+        <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
       <c r="E12" s="17">

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28080" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27045" windowHeight="13665" tabRatio="973" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge_spend" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_no_login" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_multi_vouchers" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_autosign" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="get_link_info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="get_marketing_info" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="process_token" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="list_pay_types" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_autosign" sheetId="10" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'simplepay_recharge_spend'!$A$6:$I$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'simplepay_direct'!$A$6:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'simplepay_recharge'!$A$6:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'simplepay_no_login'!$A$6:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'simplepay_autosign'!$A$6:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'simplepay_autosign'!$A$6:$I$28</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
@@ -29,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -69,6 +73,24 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="9.75"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
       <color theme="1"/>
@@ -84,13 +106,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -98,29 +113,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -129,21 +122,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -172,18 +150,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +175,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -219,10 +219,32 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,13 +269,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,139 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,15 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,32 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +526,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -553,6 +551,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -561,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -573,137 +595,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,10 +761,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1317,7 +1366,7 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="20" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1407,7 +1456,7 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1450,7 +1499,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "szfpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1493,7 +1542,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "tenpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="20" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1536,7 +1585,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "xiaoyao","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="20" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1579,7 +1628,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "-0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="20" t="inlineStr">
+      <c r="E15" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1622,7 +1671,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="21" t="inlineStr">
+      <c r="E16" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "13"
@@ -1665,7 +1714,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "/xiaoyaoisasunshileman1997","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="20" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1708,7 +1757,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E18" s="20" t="inlineStr">
+      <c r="E18" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1779,7 +1828,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D20" s="19" t="inlineStr">
+      <c r="D20" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common","screenInfo":"FULL"}</t>
         </is>
@@ -1812,7 +1861,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D21" s="19" t="inlineStr">
+      <c r="D21" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common","screenInfo":"HALF"}</t>
         </is>
@@ -1845,7 +1894,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="D22" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "d446ee8ac87b478eb3cec6e2d609c705","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "1","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -1916,7 +1965,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "-1","oriAmount": "-1","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E24" s="20" t="inlineStr">
+      <c r="E24" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2189,7 +2238,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E32" s="20" t="inlineStr">
+      <c r="E32" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -2232,7 +2281,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E33" s="20" t="inlineStr">
+      <c r="E33" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2275,7 +2324,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E34" s="20" t="inlineStr">
+      <c r="E34" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2318,7 +2367,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E35" s="20" t="inlineStr">
+      <c r="E35" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2361,7 +2410,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E36" s="20" t="inlineStr">
+      <c r="E36" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2404,7 +2453,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E37" s="20" t="inlineStr">
+      <c r="E37" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -2447,7 +2496,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E38" s="20" t="inlineStr">
+      <c r="E38" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -2490,7 +2539,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E39" s="20" t="inlineStr">
+      <c r="E39" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2533,7 +2582,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E40" s="20" t="inlineStr">
+      <c r="E40" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -2576,7 +2625,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E41" s="20" t="inlineStr">
+      <c r="E41" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2619,7 +2668,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E42" s="20" t="inlineStr">
+      <c r="E42" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2662,7 +2711,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E43" s="20" t="inlineStr">
+      <c r="E43" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2750,7 +2799,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E45" s="20" t="inlineStr">
+      <c r="E45" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2882,7 +2931,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E48" s="20" t="inlineStr">
+      <c r="E48" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2992,7 +3041,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E51" s="20" t="inlineStr">
+      <c r="E51" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -3081,6 +3130,1048 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:I53"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="49.1583333333333" customWidth="1" style="1" min="1" max="1"/>
+    <col width="29.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
+    <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
+    <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
+    <col width="21.8916666666667" customWidth="1" style="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Test suite名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>simplepay下单接口测试用例集</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1" s="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>/plugin/post/simplepay</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>HTTP请求方式</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="1" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" s="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>环境恢复</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" s="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>用例类型</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>请求报文体</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>响应状态码</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>用例执行结果</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>云服务微信签约信息查询</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "W001"
+  msg: "{\"CONTRACT_TERMINATED_TIME\":\"2019-11-11 20:59:56\",\"CONTRACT_TERMINATION_REMARK\":\"user deleted\",\"CONTRACT_TERMINATION_MODE\":\"2\",\"CONTRACT_ID\":\"201911115961483605\",\"contract_state\":\"1\"}"
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"W001"}</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>云服务微信签约</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "https://api.mch.weixin.qq.com/papay/entrustweb?appid=wx403b14e11691b402&amp;contract_code=e1ff94c343c32d597bb6b72085a167d1&amp;contract_display_account=HeyTap \344\272\221\346\234\215\345\212\241&amp;mch_id=1502416961&amp;notify_url=http%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Fwxpaysignnotify&amp;outerid=2076075925&amp;plan_id=120877&amp;request_serial=160042238387021653&amp;return_app=3&amp;return_web=1&amp;sign=98DA06662C832858149D1634E478BDD4&amp;timestamp=1600422383&amp;version=1.0"
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000"}</t>
+        </is>
+      </c>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>云服务微信解约(不解约)</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "5003"
+  msg: "\345\217\202\346\225\260\345\274\202\345\270\270"
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000"}</t>
+        </is>
+      </c>
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>云服务微信支付</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E10" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "{\"appid\":\"wx403b14e11691b402\",\"noncestr\":\"38fca8ecdfdd4f0da8ca4222288516a8\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1502416961\",\"prepayid\":\"wx1817462424780906c0cb1135cb9ee50000\",\"sign\":\"8023AD2978C037FDE4A8F885D86BDCAA\",\"timestamp\":\"1600422384\"}"
+}
+payrequestid: "RM202009181746242076075925038182"
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20"}</t>
+        </is>
+      </c>
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>云服务微信首次签约并支付</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E11" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "{\"appid\":\"wx403b14e11691b402\",\"noncestr\":\"f24b6f010ebc434a9e682de6d593987a\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1502416961\",\"prepayid\":\"wx18174624665571394d19f4080a392c0000\",\"sign\":\"E6BCAFF8A20765B88647694487397CBF\",\"timestamp\":\"1600422384\"}"
+}
+payrequestid: "RM202009181746242076075925822872"
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20"}</t>
+        </is>
+      </c>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="11" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>云服务支付宝签约查询</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E12" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "A001"
+  msg: "\346\234\252\347\255\276\347\272\246"
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"A001"}</t>
+        </is>
+      </c>
+      <c r="H12" s="11" t="n"/>
+      <c r="I12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>云服务支付宝是否免密</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E13" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: ""
+  msg: ""
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>{"code":""}</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="11" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>云服务支付宝签约</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E14" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "{\"url\":\"https%3A%2F%2Fmapi.alipay.com%2Fgateway.do%3Fpartner%3D2088311951685799%26service%3Dalipay.dut.customer.agreement.page.sign%26_input_charset%3Dutf-8%26sign%3D9976fc4de6768b2c63ed0f3d9e4cebb7%26return_url%3Dkekepay%3A%2F%2Fcallback%2Faliautorenew%26access_info%3D%7B%22channel%22%3A%22ALIPAYAPP%22%7D%26product_code%3DGENERAL_WITHHOLDING_P%26notify_url%3Dhttp%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Falipaysignnotify%26external_sign_no%3De1ff94c343c32d597bb6b72085a167d1%26sign_type%3DMD5%26scene%3DINDUSTRY%7CGAME_CHARGE\",\"appId\":\"2088311951685799\"}"
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000"}</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>云服务支付宝解约（不解约）</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E15" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "1100"
+  msg: "\344\270\200\350\210\254\351\224\231\350\257\257\357\274\214\346\234\252\347\237\245\351\224\231\350\257\257"
+}
+payrequestid: ""
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000"}</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="11" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="1">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>云服务支付宝支付</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E16" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202009181746252076075925865072%22%26subject%3D%22OPPO+%E4%BA%91%E6%9C%8D%E5%8A%A1%22%26body%3D%22OPPO+%E4%BA%91%E6%9C%8D%E5%8A%A1%22%26total_fee%3D%220.06%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22m9J1Pd0%252FGDLQS7YqA7jtYFe9jBvRQSOI8q9C2haVaq%252B7D1W1OJtlmPPP9cwLOZFyWdVk8AxnhfHTE%252F3r05cZ1dJvUPkbPGsrj51KJNTpu32Mxxpse3p1Ls2wAdtlqPuR9b6pT43AbkvmCC52xOsyJfrRIuPa3BKR%252FgG45HVaIWU%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202009181746252076075925865072\"}"
+}
+payrequestid: "RM202009181746252076075925865072"
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20"}</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>云服务支付宝自动续费</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
+        </is>
+      </c>
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "{\"url\":\"https://mapi.alipay.com/gateway.do?agreement_sign_parameters={\\\"productCode\\\":\\\"GENERAL_WITHHOLDING_P\\\",\\\"externalUserId\\\":\\\"RM202009181746262076075925703452\\\",\\\"notifyUrl\\\":\\\"http://opaycenter-secure-test2.wanyol.com/opaycenter/alipaysignnotify\\\",\\\"scene\\\":\\\"INDUSTRY|GAME_CHARGE\\\",\\\"externalAgreementNo\\\":\\\"e1ff94c343c32d597bb6b72085a167d1\\\"}&amp;_input_charset=utf-8&amp;subject=OPPO \344\272\221\346\234\215\345\212\241&amp;sign=58be4303a84fac607bc722277775e7cf&amp;request_from_url=kekepay://callback/aliautorenew&amp;product_code=GENERAL_WITHHOLDING&amp;integration_type=ALIAPP&amp;notify_url=http://opaycenter-secure-test2.wanyol.com/opaycenter/alipayavoidnotify&amp;out_trade_no=RM202009181746262076075925703452&amp;partner=2088311951685799&amp;service=alipay.acquire.page.createandpay&amp;total_fee=0.06&amp;return_url=kekepay://callback/aliautorenew&amp;sign_type=MD5&amp;seller_id=2088311951685799\",\"appId\":\"2088311951685799\"}"
+}
+payrequestid: "RM202009181746262076075925703452"
+model: ""
+</t>
+        </is>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20"}</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="11" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="1">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>带券带可币签约并支付支付宝(未验证券信息)</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
+        </is>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202009181745596065312034446364%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522%25E5%259E%259A%25E5%25A7%25A6%25E9%25B1%25BB%25E7%25BE%25B4%25E7%258A%2587%25E7%258C%258B%25E9%25BA%25A4%25E9%25AA%2589%25E6%25AF%25B3%25E8%25A0%25B1%25E6%258E%25B1%25E8%25B5%2591%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522KB202009181745592076075925540732%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522%25E6%2594%25AF%25E4%25BB%2598Demo%25E6%25B5%258B%25E8%25AF%2595%25E5%2595%2586%25E5%2593%2581%2522%252C%2522total_amount%2522%253A%252245.1%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test2.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DTUYftRn8oGBG3Nn6fWBlgB3l1FWKKQxs1PwJT6gcOKgPlbaWUXe82gujr5KfF%252B8qflHHjnz3z3Fz0iM7IEPV6ruZTv1Gi0V8TobKYdMJPE3DkLE%252B%252BAKTyR4pY1hO4bnImdO967JKQtPV11nFXHQEUizjZhdPZqnym1lJWmxEN%252BEdyoTXEuylDvn5z7p3sEJGV6G39UjKn9%252BJMOl10HHD%252FZPRuW003tpFo4S7mi0viOiU5P509cNNetJWofrDTozvPMeyVIiMoUGfPSzlqzU6B5lJXTqst5ppl2BbqNc8qJO7KlfculYPefqjbB73OriiiPecTGpXsEzaW%252Fwo7Qwcog%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-09-18%2B17%253A45%253A59%26version%3D1.0"
+},
+payrequestid: "KB202009181745592076075925540732",
+transType: "SIGNANDPAY",
+signType: "APP"
+</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"KB20","transType":"SIGNANDPAY","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>仅签约支付宝</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult {
+  code: "0000"
+  msg: "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202009181745598827345377537568%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test2.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3Demc9GZdUMgWJ4TfRbdy0n5CYLTHc2k4rO7AUb7nt7nexmsYnIJzdP%252B7KNt4js8SQsCa3lm5PNo%252F31yz7xKr2Fzzr8B9LqwaMIE%252BluS66IrA5p4p4ScE3BMEc5%252FPpcdx9jXTs0YiWOCHwJfjJ%252FFX3%252FmHm4fX5zitmdDQy%252BTMV3PxzcFOnKI1cviB303RT%252BkQhCA0OGSTQyja7Dh6m8uIqV8mmO%252FdrdmNGxUMDZP%252BOwtBgiuqpVlQ1Zc9IMS5lXsGfVx9L4e9uA0uoHeEsXl6%252Bku6DFlo0qM6wRp0%252BuUnx4kR8cOV2NloIig4%252BXjtAKaIiK9zpx92OEIPrwTag3apXGQ%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-09-18%2B17%253A45%253A59%26version%3D1.0"
+}
+payrequestid: "SN202009181745590738781067746188"
+transType: "SIGN"
+signType: "APP"
+</t>
+        </is>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="11" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>仅签约微信</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E20" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "42686d521791c67380b17b0af1f31ee455a3e9d1d842014cf8e54d5add75b1b7160042236016BuPJd3HfkFq1IGcF3es59cmBspPHDQ"
+}
+payrequestid: "SN202009181745590455740832337408"
+transType: "SIGN"
+signType: "APP"
+</t>
+        </is>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"H5"}</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="11" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="1">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>仅签约传入支付宝的金额不为0（后台未验证）</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "10.0","oriAmount": "10.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult {
+  code: "0000"
+  msg: "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-4.7.11.ALL%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202002192032122824666862122324%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%252C%2522sub_merchant%2522%253A%257B%2522sub_merchant_service_description%2522%253A%2522HeyTap%25E8%2587%25AA%25E5%258A%25A8%25E7%25BB%25AD%25E8%25B4%25B9%2522%252C%2522sub_merchant_service_name%2522%253A%2522HeyTap%25E8%2587%25AA%25E5%258A%25A8%25E7%25BB%25AD%25E8%25B4%25B9%2522%257D%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter.pay-test.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DJwi7Rwnu3%252B1tGCKFO%252B1p%252BbHhsob90Odh7XIeRkn9w7IAyySYZbVp722rugfXsesMJOY7TcZ1cxjNKmFLzf27SWsy4SSDDP%252BAD7xOjZz2W%252F13RusBYrF9n8aw%252BF7HpoiVf%252BcqeEG%252B7VDuk%252FG4ra6E7WZkHnf7d2TSNCzQVenYvDtOUegsqdbtbplM1AuHQSgjU8JlGsp%252FuzR296CW6hkQQMy2ZE5k%252BxlF0ssxbhlrEhSsW72LXPTWT3zSjT1VjZL4aFCgpvkFCEREpw3xmD0A4g812XFQUEN7W6BeI%252FeCcU%252Fz6QUu%252BsVOMoySX0rPspMhDSLPBfc%252FaJVBLBgQUT1h0w%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-02-19%2B20%253A14%253A58%26version%3D1.0"
+}
+payrequestid: "SN202002192032124744328150624385"
+transType: "SIGN"
+signType: "APP"
+</t>
+        </is>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"5003","payrequestid":"","transType":"","signType":""}</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="11" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>无券无可币签约并支付支付宝</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult {
+  code: "0000"
+  msg: "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202009181746007565201707224411%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522%25E5%259E%259A%25E5%25A7%25A6%25E9%25B1%25BB%25E7%25BE%25B4%25E7%258A%2587%25E7%258C%258B%25E9%25BA%25A4%25E9%25AA%2589%25E6%25AF%25B3%25E8%25A0%25B1%25E6%258E%25B1%25E8%25B5%2591%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM202009181746002076075925644142%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522%25E6%2594%25AF%25E4%25BB%2598Demo%25E6%25B5%258B%25E8%25AF%2595%25E5%2595%2586%25E5%2593%2581%2522%252C%2522total_amount%2522%253A%2522100.0%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test2.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DQQvSmNxN7mK9p22VXeRiYzO4wbxvua8d68chiMwi%252BDMTM%252BL4XXPkscmCj4IDaQOqqMqu%252BAb1NgBazSZhZdndmf%252FFcHKW%252FHzeEK%252B0ueusN9YQfNjTSW%252F8La2r79W2h1GR6aCWEciykwUJUFXyLSVikbymCfJp1VjlIsQLniZJx7XK8ZAInoQDxaSMB6ChCzs889JCen%252F3ag43E7V99DZhNuHocv%252FlL1JoJMp%252FLK%252F%252FXmixns%252FYMdwNrsOcwL6kEHeBecRESpq2u5dVlwN8bNSBh4Gg4od713slFdAok5s6yDVrHiny7tYg4FF3meBWHLMGCxbpbrE53bDgpTyf3yVd9Q%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-09-18%2B17%253A46%253A00%26version%3D1.0"
+}
+payrequestid: "RM202009181746002076075925644142"
+transType: "SIGNANDPAY"
+signType: "APP"
+</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>无券无可币签约并支付微信</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E23" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "0000"
+  msg: "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"1f8b633742d948bb9de6c070272c6180\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx181746008380913962eb7597c2b0fd0000\",\"sign\":\"BCF96CD6CE7B924D3D3F08477BF1ABE1\",\"timestamp\":\"1600422360\"}"
+}
+payrequestid: "RM202009181746002076075925233712"
+transType: "SIGNANDPAY"
+signType: "APP"
+</t>
+        </is>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="11" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" s="1">
+      <c r="A24" s="12" t="inlineStr">
+        <is>
+          <t>仅签约,传入不可签约的支付渠道</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "qqwallet","amount": "0.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr"/>
+      <c r="F24" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="1">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>签约并支付，传入不存在的签约方式</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "XIAOYAO","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr"/>
+      <c r="F25" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000"}</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="1">
+      <c r="A26" s="12" t="inlineStr">
+        <is>
+          <t>无券无可币签约并支付微信,是否消费标志位传入不正确</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">baseresult': {
+  code: "1200"
+  msg: "SIGNATURE ERROR"
+}
+payrequestid: ""
+</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"1200"}</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" s="1">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>签约并支付-半屏</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "VtKBsip26VFHNmOswuUbFfiAS7Ee03i00V00AOxfDoi2PGabkez3Lc0msSEk/lGH8YwPjdXP50RK\n/byxi/dLZvAPtsSTikGVqh7w2b1i8jXKypZCXNIW6fLjtB2NZSG7ufXIQ1rS34TkKBKIRLg6iTOO\nAMPmsxzFPUO+hvWtETM=\n","model": "PAAM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 240,"country": "CN","currency": "CNY","openId": "E28C3DF751C14EFAB2D9893DC83058B6c7ab335d8d6d240bca10fdf35c0be85e","brandType": "OPPO","mobileos": "12","androidVersion": "28"},"transType": "SIGNANDPAY","renewProductCode": "727243240001","signPartnerOrder": "","type": "alipay","amount": "0.01","oriAmount": "0.01","ip": "58.252.5.69","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "","notifyurl": "http://pay.pay-test.wanyol.com/notify/receiver","productName": "签约并支付测试","productDesc": "签约并支付测试","partnercode": "72724324","appversion": "240","currencyName": "可币","rate": 1.0,"partnerorder": ""},"screenInfo": "FULL"}</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="11" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="1">
+      <c r="A28" s="12" t="inlineStr">
+        <is>
+          <t>签约并支付-全屏</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>{"header": {"version": "1.0","t_p": "","imei": "VtKBsip26VFHNmOswuUbFfiAS7Ee03i00V00AOxfDoi2PGabkez3Lc0msSEk/lGH8YwPjdXP50RK\n/byxi/dLZvAPtsSTikGVqh7w2b1i8jXKypZCXNIW6fLjtB2NZSG7ufXIQ1rS34TkKBKIRLg6iTOO\nAMPmsxzFPUO+hvWtETM=\n","model": "PAAM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 240,"country": "CN","currency": "CNY","openId": "E28C3DF751C14EFAB2D9893DC83058B6c7ab335d8d6d240bca10fdf35c0be85e","brandType": "OPPO","mobileos": "12","androidVersion": "28"},"transType": "SIGNANDPAY","renewProductCode": "727243240001","signPartnerOrder": "","type": "alipay","amount": "0.01","oriAmount": "0.01","ip": "58.252.5.69","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "","notifyurl": "http://pay.pay-test.wanyol.com/notify/receiver","productName": "签约并支付测试","productDesc": "签约并支付测试","partnercode": "72724324","appversion": "240","currencyName": "可币","rate": 1.0,"partnerorder": ""},"screenInfo": "HALF"}</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
+        </is>
+      </c>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="11" t="n"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:I28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
 </worksheet>
 </file>
@@ -3094,7 +4185,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A1" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3227,14 +4318,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="19" t="inlineStr">
+      <c r="D7" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202104251016222086776969164442%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22TsC7T0TLJj9HrqwjVdIS%252BXDctTWo9JZlMqnApD5AsjZCe7sioj31Vz%252Bqg975hCYK8v3qPkx4rtX7cEb2pMmwqZ7P%252BMYis4qwb2RIl3SCT%252Ftk3NxwlP%252FXoMrixv6aEiVrHaKDJ%252BgPtOP3TwThpXldDD3aDtVx5c8DYlbokv1ZxGA%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202104251016222086776969164442\"}"}, "payrequestid": "RM202104251016222086776969164442"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202105141531282086776969068242%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22nESxQM0%252B68z4OmiH6MQQWcFyMKYRLu4xh740y84YtFhZVFn2A5%252FpBj3GKS4WfNu17h8wpY5HZQL5rU%252BhZHA%252BezzqF3J2qFFS7K9uym2ZXqazmAN1uFVi9hlkbBaaGkhRJhnSM4q7FPtSFPFDXxW60pzy0bSFsimLmPq3CjhA%252FK4%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202105141531282086776969068242\"}"}, "payrequestid": "RM202105141531282086776969068242"}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -3268,14 +4359,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="19" t="inlineStr">
+      <c r="D8" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"a5726a8635f3442aafda5828e38924cc\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx2510162291567098a390882fa14b120000\",\"sign\":\"F86874D5E9A17DF678C87E6DC1F32F5B\",\"timestamp\":\"1619316982\"}"}, "payrequestid": "RM202104251016222086776969061032"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"63f958f023d5452ab147ca71f9fc1956\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx1415312879265359873312883b68b10000\",\"sign\":\"9835400DEAAE9D3AE88C3EB0354417ED\",\"timestamp\":\"1620977488\"}"}, "payrequestid": "RM202105141531282086776969810772"}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
@@ -3309,14 +4400,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="19" t="inlineStr">
+      <c r="D9" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b1ef14ba5b462665b4214c936775802f\",\"pubAcc\":\"\",\"sig\":\"P7uBnZZDZZA0qdj6win1YD6AziM=\",\"tokenId\":\"6M901d38b23111778fdbcf8bc2aac06c\"}"}, "payrequestid": "RM202104251016232086776969537212"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b70742479bbac554e07deda9d6194a68\",\"pubAcc\":\"\",\"sig\":\"++adfJ3ye5dpyNKbAHqrU/hPWZc=\",\"tokenId\":\"6M0d34dfb700b5d569977bbacbf17c66\"}"}, "payrequestid": "RM202105141531292086776969762372"}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
@@ -3350,14 +4441,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="19" t="inlineStr">
+      <c r="D10" s="28" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b1ef14ba5b462665b4214c936775802f\",\"pubAcc\":\"\",\"sig\":\"IYzt/dR5xObGfnTOeTxQrk1wEYo=\",\"tokenId\":\"6Mabf08c5e44c2da3c3df8f1e0989029\"}"}, "payrequestid": "RM202104251016232086776969486272"}</t>
+          <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b70742479bbac554e07deda9d6194a68\",\"pubAcc\":\"\",\"sig\":\"Md1/ptuPZcwHXLXm3wONcb/+n/M=\",\"tokenId\":\"6M5efc6a6619cb9dc9a29f35c522f2aa\"}"}, "payrequestid": "RM202105141531292086776969441052"}</t>
         </is>
       </c>
       <c r="F10" s="10" t="n">
@@ -3390,7 +4481,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="0"/>
@@ -3651,8 +4742,8 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3677,7 +4768,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>批量发放优惠券测试用例集</t>
         </is>
@@ -3689,7 +4780,7 @@
           <t>URL</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="22" t="inlineStr">
         <is>
           <t>/voucher/grantMultiVoucher</t>
         </is>
@@ -3701,7 +4792,7 @@
           <t>HTTP请求方式</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -3713,7 +4804,7 @@
           <t>前置条件</t>
         </is>
       </c>
-      <c r="B4" s="14" t="n"/>
+      <c r="B4" s="23" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1" s="1">
       <c r="A5" s="2" t="inlineStr">
@@ -3721,7 +4812,7 @@
           <t>环境恢复</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n"/>
+      <c r="B5" s="23" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1" s="1">
       <c r="A6" s="6" t="inlineStr">
@@ -3796,67 +4887,67 @@
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="24" t="inlineStr">
         <is>
           <t>vouType</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="24" t="inlineStr">
         <is>
           <t>vouName</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>grantCount</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="24" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
         <is>
           <t>maxAmount</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="24" t="inlineStr">
         <is>
           <t>ratio</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="24" t="inlineStr">
         <is>
           <t>beginTime</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="24" t="inlineStr">
         <is>
           <t>expireTime</t>
         </is>
       </c>
-      <c r="I7" s="15" t="inlineStr">
+      <c r="I7" s="24" t="inlineStr">
         <is>
           <t>scopeId</t>
         </is>
       </c>
-      <c r="J7" s="15" t="inlineStr">
+      <c r="J7" s="24" t="inlineStr">
         <is>
           <t>subScopeId</t>
         </is>
       </c>
-      <c r="K7" s="15" t="inlineStr">
+      <c r="K7" s="24" t="inlineStr">
         <is>
           <t>blackScopeId</t>
         </is>
       </c>
-      <c r="L7" s="15" t="inlineStr">
+      <c r="L7" s="24" t="inlineStr">
         <is>
           <t>settleType</t>
         </is>
       </c>
-      <c r="M7" s="15" t="inlineStr">
+      <c r="M7" s="24" t="inlineStr">
         <is>
           <t>configId</t>
         </is>
@@ -3868,7 +4959,7 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="25" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -3876,31 +4967,31 @@
           <t>消费券</t>
         </is>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="26">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="26">
         <f>RANDBETWEEN(D8,9999)</f>
         <v/>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="26">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G8" s="22" t="n"/>
-      <c r="H8" s="17" t="n"/>
-      <c r="I8" s="17" t="n"/>
-      <c r="J8" s="17" t="n"/>
-      <c r="K8" s="17" t="n"/>
-      <c r="L8" s="17">
+      <c r="G8" s="31" t="n"/>
+      <c r="H8" s="26" t="n"/>
+      <c r="I8" s="26" t="n"/>
+      <c r="J8" s="26" t="n"/>
+      <c r="K8" s="26" t="n"/>
+      <c r="L8" s="26">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="n"/>
+      <c r="M8" s="26" t="n"/>
       <c r="N8" s="0" t="inlineStr">
         <is>
           <t>消费券</t>
@@ -3908,7 +4999,7 @@
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="25" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -3916,31 +5007,31 @@
           <t>抵扣券(满maxAmount，减amount)</t>
         </is>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="26">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="26">
         <f>RANDBETWEEN(D9,20)</f>
         <v/>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="26">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G9" s="17" t="n"/>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="17" t="n"/>
-      <c r="J9" s="17" t="n"/>
-      <c r="K9" s="17" t="n"/>
-      <c r="L9" s="17">
+      <c r="G9" s="26" t="n"/>
+      <c r="H9" s="26" t="n"/>
+      <c r="I9" s="26" t="n"/>
+      <c r="J9" s="26" t="n"/>
+      <c r="K9" s="26" t="n"/>
+      <c r="L9" s="26">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M9" s="17" t="n"/>
+      <c r="M9" s="26" t="n"/>
       <c r="N9" s="0" t="inlineStr">
         <is>
           <t>抵扣券(满maxAmount，减amount)</t>
@@ -3948,7 +5039,7 @@
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="25" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -3956,31 +5047,31 @@
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
         </is>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="26">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="26">
         <f>RANDBETWEEN(D10,9999)</f>
         <v/>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="26">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G10" s="17" t="n"/>
-      <c r="H10" s="17" t="n"/>
-      <c r="I10" s="17" t="n"/>
-      <c r="J10" s="17" t="n"/>
-      <c r="K10" s="17" t="n"/>
-      <c r="L10" s="17">
+      <c r="G10" s="26" t="n"/>
+      <c r="H10" s="26" t="n"/>
+      <c r="I10" s="26" t="n"/>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="26" t="n"/>
+      <c r="L10" s="26">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M10" s="17" t="n"/>
+      <c r="M10" s="26" t="n"/>
       <c r="N10" s="0" t="inlineStr">
         <is>
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
@@ -3988,7 +5079,7 @@
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="25" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -3996,31 +5087,31 @@
           <t>消费折扣券</t>
         </is>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="26">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="26">
         <f>RANDBETWEEN(D11,9999)</f>
         <v/>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="26">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G11" s="17" t="n"/>
-      <c r="H11" s="17" t="n"/>
-      <c r="I11" s="17" t="n"/>
-      <c r="J11" s="17" t="n"/>
-      <c r="K11" s="17" t="n"/>
-      <c r="L11" s="17">
+      <c r="G11" s="26" t="n"/>
+      <c r="H11" s="26" t="n"/>
+      <c r="I11" s="26" t="n"/>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="26" t="n"/>
+      <c r="L11" s="26">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M11" s="17" t="n"/>
+      <c r="M11" s="26" t="n"/>
       <c r="N11" s="0" t="inlineStr">
         <is>
           <t>消费折扣券，ratio&lt;1</t>
@@ -4028,7 +5119,7 @@
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="25" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -4036,31 +5127,31 @@
           <t>\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\</t>
         </is>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="26">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="26">
         <f>RANDBETWEEN(D12,9999)</f>
         <v/>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="26">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G12" s="17" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="17" t="n"/>
-      <c r="J12" s="17" t="n"/>
-      <c r="K12" s="17" t="n"/>
-      <c r="L12" s="17">
+      <c r="G12" s="26" t="n"/>
+      <c r="H12" s="26" t="n"/>
+      <c r="I12" s="26" t="n"/>
+      <c r="J12" s="26" t="n"/>
+      <c r="K12" s="26" t="n"/>
+      <c r="L12" s="26">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M12" s="17" t="n"/>
+      <c r="M12" s="26" t="n"/>
       <c r="N12" s="0" t="inlineStr">
         <is>
           <t>会员红包券</t>
@@ -4078,16 +5169,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="49.1583333333333" customWidth="1" style="1" min="1" max="1"/>
-    <col width="29.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="26.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.625" customWidth="1" style="1" min="2" max="2"/>
     <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
     <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
     <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
@@ -4095,22 +5186,21 @@
     <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
     <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
     <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
-    <col width="21.8916666666667" customWidth="1" style="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" s="1">
+    <row r="1" ht="18" customHeight="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>simplepay下单接口测试用例集</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="22" customHeight="1" s="1">
+      <c r="B1" s="20" t="inlineStr">
+        <is>
+          <t>营销信息-获取跳转链接信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>URL</t>
@@ -4118,11 +5208,11 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>/plugin/post/simplepay</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="22" customHeight="1" s="1">
+          <t>/api/marketing/v290/get-link-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>HTTP请求方式</t>
@@ -4134,7 +5224,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1" s="1">
+    <row r="4" ht="18" customHeight="1" s="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>前置条件</t>
@@ -4142,7 +5232,7 @@
       </c>
       <c r="B4" s="5" t="n"/>
     </row>
-    <row r="5" ht="22" customHeight="1" s="1">
+    <row r="5" ht="18" customHeight="1" s="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>环境恢复</t>
@@ -4150,7 +5240,7 @@
       </c>
       <c r="B5" s="5" t="n"/>
     </row>
-    <row r="6" ht="22" customHeight="1" s="1">
+    <row r="6" ht="18" customHeight="1" s="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>用例名称</t>
@@ -4197,15 +5287,15 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="1">
+    <row r="7" ht="27" customHeight="1" s="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>云服务微信签约信息查询</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
+          <t>配置信息有加购位</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -4213,42 +5303,36 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "W001"
-  msg: "{\"CONTRACT_TERMINATED_TIME\":\"2019-11-11 20:59:56\",\"CONTRACT_TERMINATION_REMARK\":\"user deleted\",\"CONTRACT_TERMINATION_MODE\":\"2\",\"CONTRACT_ID\":\"201911115961483605\",\"contract_state\":\"1\"}"
-}
-payrequestid: ""
-model: ""
-</t>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925"}</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"vipRights": [{"description": "鏇村鍙竵鍒�", "imgUrl": "https://fast-wallet-test.wanyol.com/file/pay/20201120/0031cf18-8223-40ae-b130-154a939cbe9e.jpg", "name": "蹇幓棰嗗彇鏇村鍙竵鍒�", "redirectUrl": "uc://platform.usercenter.com/innerbrowser?min_version=523&amp;url=https%3A%2F%2Fuc3-h5-test.wanyol.com%2Fvip%2fvip_gamePrivilege.html%3fisGradualToolbar%3dtrue%26isTranslucentBar%3dtrue%26LoadInCurrentPage%3dfalse%26source%3dusercenter_message_link_zz"}]}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"W001"}</t>
-        </is>
-      </c>
-      <c r="H7" s="11" t="n"/>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="I7" s="11" t="n"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="1">
+    <row r="8" ht="27" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>云服务微信签约</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
+          <t>配置信息无加购位</t>
+        </is>
+      </c>
+      <c r="B8" s="21" t="inlineStr">
+        <is>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -4256,40 +5340,33 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "https://api.mch.weixin.qq.com/papay/entrustweb?appid=wx403b14e11691b402&amp;contract_code=e1ff94c343c32d597bb6b72085a167d1&amp;contract_display_account=HeyTap \344\272\221\346\234\215\345\212\241&amp;mch_id=1502416961&amp;notify_url=http%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Fwxpaysignnotify&amp;outerid=2076075925&amp;plan_id=120877&amp;request_serial=160042238387021653&amp;return_app=3&amp;return_web=1&amp;sign=98DA06662C832858149D1634E478BDD4&amp;timestamp=1600422383&amp;version=1.0"
-}
-payrequestid: ""
-model: ""
-</t>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "2031"}</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"vipRights": []}, "success": true}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000"}</t>
-        </is>
-      </c>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>云服务微信解约(不解约)</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
+          <t>processToken不传</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -4299,37 +5376,318 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "5003"
-  msg: "\345\217\202\346\225\260\345\274\202\345\270\270"
-}
-payrequestid: ""
-model: ""
-</t>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "2031"}</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"vipRights": []}, "success": true}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000"}</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="n"/>
-      <c r="I9" s="11" t="n"/>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>云服务微信支付</t>
+          <t>processToken不正确</t>
+        </is>
+      </c>
+      <c r="B10" s="21" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "error_token","partnerId": "2031"}</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"vipRights": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>partnerId不传</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": ""}</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="25.875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
+    <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
+    <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Test suite名称</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>营销信息-获取营销信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>/api/marketing/v290/get-marketing-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>HTTP请求方式</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>环境恢复</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" s="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>用例类型</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>请求报文体</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>响应状态码</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>用例执行结果</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" s="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>正常拉取会员加购位</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925","orderAmount": "100", "factor": ""</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" s="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>金额传入负数</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925","orderAmount": "-100", "factor": ""</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="18" t="n"/>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="19" t="n"/>
+      <c r="I8" s="19" t="n"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>金额传入-</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925","orderAmount": "0", "factor": ""</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="n"/>
+      <c r="F9" s="18" t="n"/>
+      <c r="G9" s="17" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="19" t="n"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>passToken不正确</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -4342,42 +5700,614 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"appid\":\"wx403b14e11691b402\",\"noncestr\":\"38fca8ecdfdd4f0da8ca4222288516a8\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1502416961\",\"prepayid\":\"wx1817462424780906c0cb1135cb9ee50000\",\"sign\":\"8023AD2978C037FDE4A8F885D86BDCAA\",\"timestamp\":\"1600422384\"}"
-}
-payrequestid: "RM202009181746242076075925038182"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H10" s="11" t="n"/>
-      <c r="I10" s="11" t="n"/>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "error_token","partnerId": "5456925","orderAmount": "100", "factor": ""</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="n"/>
+      <c r="F10" s="18" t="n"/>
+      <c r="G10" s="17" t="n"/>
+      <c r="H10" s="19" t="n"/>
+      <c r="I10" s="19" t="n"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>业务线不传</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "","orderAmount": "100", "factor": ""</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="n"/>
+      <c r="F11" s="18" t="n"/>
+      <c r="G11" s="17" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="19" t="n"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" s="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>传入不支持的业务线</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "99999","orderAmount": "", "factor": ""</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="20.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
+    <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
+    <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Test suite名称</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>支付流程-获取流程凭证</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>/api/api/pay-flow/v290/get-process-token</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>HTTP请求方式</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>环境恢复</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" s="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>用例类型</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>请求报文体</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>响应状态码</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>用例执行结果</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40.5" customHeight="1" s="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>支付apk获取凭证</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="40.5" customHeight="1" s="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>msp获取凭证</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="40.5" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>apk无账号获取凭证</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="40.5" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>msp无账号获取凭证</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="40.5" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>msp获取凭证不传appId</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40.5" customHeight="1" s="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>token传入不正确</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="40.5" customHeight="1" s="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>partnerCode不传</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1" s="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>appPackage不传</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="32.25" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
+    <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
+    <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Test suite名称</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>支付流程-获取支付渠道列表</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>/api/pay-flow/v290/list-pay-types</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>HTTP请求方式</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>环境恢复</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" s="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>用例类型</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>请求报文体</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>响应状态码</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>用例执行结果</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40.5" customHeight="1" s="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>有账号+自动续费+全屏</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "8ANvbRE2Zi7mAZQSehpjA9",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "N", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="40.5" customHeight="1" s="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>有账号+自动续费+半屏</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>{"processToken": "8ANvbRE2Zi7mAZQSehpjA9",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "N", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>有账号+自动续费+横屏(目前不支持)</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>有账号+普通支付+全屏</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>云服务微信首次签约并支付</t>
+          <t>有账号+普通支付+半屏</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
@@ -4385,42 +6315,16 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"appid\":\"wx403b14e11691b402\",\"noncestr\":\"f24b6f010ebc434a9e682de6d593987a\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1502416961\",\"prepayid\":\"wx18174624665571394d19f4080a392c0000\",\"sign\":\"E6BCAFF8A20765B88647694487397CBF\",\"timestamp\":\"1600422384\"}"
-}
-payrequestid: "RM202009181746242076075925822872"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H11" s="11" t="n"/>
-      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>云服务支付宝签约查询</t>
+          <t>有账号+普通支付+横屏</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -4428,42 +6332,16 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "A001"
-  msg: "\346\234\252\347\255\276\347\272\246"
-}
-payrequestid: ""
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"A001"}</t>
-        </is>
-      </c>
-      <c r="H12" s="11" t="n"/>
-      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>云服务支付宝是否免密</t>
+          <t>无账号+普通支付+全屏</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
@@ -4471,42 +6349,16 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E13" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: ""
-  msg: ""
-}
-payrequestid: ""
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>{"code":""}</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="n"/>
-      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>云服务支付宝签约</t>
+          <t>无账号+普通支付+半屏</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
@@ -4514,37 +6366,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E14" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"url\":\"https%3A%2F%2Fmapi.alipay.com%2Fgateway.do%3Fpartner%3D2088311951685799%26service%3Dalipay.dut.customer.agreement.page.sign%26_input_charset%3Dutf-8%26sign%3D9976fc4de6768b2c63ed0f3d9e4cebb7%26return_url%3Dkekepay%3A%2F%2Fcallback%2Faliautorenew%26access_info%3D%7B%22channel%22%3A%22ALIPAYAPP%22%7D%26product_code%3DGENERAL_WITHHOLDING_P%26notify_url%3Dhttp%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Falipaysignnotify%26external_sign_no%3De1ff94c343c32d597bb6b72085a167d1%26sign_type%3DMD5%26scene%3DINDUSTRY%7CGAME_CHARGE\",\"appId\":\"2088311951685799\"}"
-}
-payrequestid: ""
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000"}</t>
-        </is>
-      </c>
-      <c r="H14" s="11" t="n"/>
-      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>云服务支付宝解约（不解约）</t>
+          <t>无账号+普通支付+横屏(目前不支持)</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -4557,37 +6383,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "1100"
-  msg: "\344\270\200\350\210\254\351\224\231\350\257\257\357\274\214\346\234\252\347\237\245\351\224\231\350\257\257"
-}
-payrequestid: ""
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000"}</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="n"/>
-      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>云服务支付宝支付</t>
+          <t>无账号+自动续费+全屏(目前不支持)</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -4600,37 +6400,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E16" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202009181746252076075925865072%22%26subject%3D%22OPPO+%E4%BA%91%E6%9C%8D%E5%8A%A1%22%26body%3D%22OPPO+%E4%BA%91%E6%9C%8D%E5%8A%A1%22%26total_fee%3D%220.06%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test2.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22m9J1Pd0%252FGDLQS7YqA7jtYFe9jBvRQSOI8q9C2haVaq%252B7D1W1OJtlmPPP9cwLOZFyWdVk8AxnhfHTE%252F3r05cZ1dJvUPkbPGsrj51KJNTpu32Mxxpse3p1Ls2wAdtlqPuR9b6pT43AbkvmCC52xOsyJfrRIuPa3BKR%252FgG45HVaIWU%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202009181746252076075925865072\"}"
-}
-payrequestid: "RM202009181746252076075925865072"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="11" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>云服务支付宝自动续费</t>
+          <t>无账号+自动续费+半屏(目前不支持)</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -4643,42 +6417,16 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
-        </is>
-      </c>
-      <c r="E17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"url\":\"https://mapi.alipay.com/gateway.do?agreement_sign_parameters={\\\"productCode\\\":\\\"GENERAL_WITHHOLDING_P\\\",\\\"externalUserId\\\":\\\"RM202009181746262076075925703452\\\",\\\"notifyUrl\\\":\\\"http://opaycenter-secure-test2.wanyol.com/opaycenter/alipaysignnotify\\\",\\\"scene\\\":\\\"INDUSTRY|GAME_CHARGE\\\",\\\"externalAgreementNo\\\":\\\"e1ff94c343c32d597bb6b72085a167d1\\\"}&amp;_input_charset=utf-8&amp;subject=OPPO \344\272\221\346\234\215\345\212\241&amp;sign=58be4303a84fac607bc722277775e7cf&amp;request_from_url=kekepay://callback/aliautorenew&amp;product_code=GENERAL_WITHHOLDING&amp;integration_type=ALIAPP&amp;notify_url=http://opaycenter-secure-test2.wanyol.com/opaycenter/alipayavoidnotify&amp;out_trade_no=RM202009181746262076075925703452&amp;partner=2088311951685799&amp;service=alipay.acquire.page.createandpay&amp;total_fee=0.06&amp;return_url=kekepay://callback/aliautorenew&amp;sign_type=MD5&amp;seller_id=2088311951685799\",\"appId\":\"2088311951685799\"}"
-}
-payrequestid: "RM202009181746262076075925703452"
-model: ""
-</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20"}</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="11" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="1">
-      <c r="A18" s="12" t="inlineStr">
-        <is>
-          <t>带券带可币签约并支付支付宝(未验证券信息)</t>
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>无账号+自动续费+横屏(目前不支持)</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
@@ -4686,430 +6434,43 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
-        </is>
-      </c>
-      <c r="E18" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202009181745596065312034446364%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522%25E5%259E%259A%25E5%25A7%25A6%25E9%25B1%25BB%25E7%25BE%25B4%25E7%258A%2587%25E7%258C%258B%25E9%25BA%25A4%25E9%25AA%2589%25E6%25AF%25B3%25E8%25A0%25B1%25E6%258E%25B1%25E8%25B5%2591%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522KB202009181745592076075925540732%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522%25E6%2594%25AF%25E4%25BB%2598Demo%25E6%25B5%258B%25E8%25AF%2595%25E5%2595%2586%25E5%2593%2581%2522%252C%2522total_amount%2522%253A%252245.1%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test2.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DTUYftRn8oGBG3Nn6fWBlgB3l1FWKKQxs1PwJT6gcOKgPlbaWUXe82gujr5KfF%252B8qflHHjnz3z3Fz0iM7IEPV6ruZTv1Gi0V8TobKYdMJPE3DkLE%252B%252BAKTyR4pY1hO4bnImdO967JKQtPV11nFXHQEUizjZhdPZqnym1lJWmxEN%252BEdyoTXEuylDvn5z7p3sEJGV6G39UjKn9%252BJMOl10HHD%252FZPRuW003tpFo4S7mi0viOiU5P509cNNetJWofrDTozvPMeyVIiMoUGfPSzlqzU6B5lJXTqst5ppl2BbqNc8qJO7KlfculYPefqjbB73OriiiPecTGpXsEzaW%252Fwo7Qwcog%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-09-18%2B17%253A45%253A59%26version%3D1.0"
-},
-payrequestid: "KB202009181745592076075925540732",
-transType: "SIGNANDPAY",
-signType: "APP"
-</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"KB20","transType":"SIGNANDPAY","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="11" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>仅签约支付宝</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult {
-  code: "0000"
-  msg: "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202009181745598827345377537568%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test2.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3Demc9GZdUMgWJ4TfRbdy0n5CYLTHc2k4rO7AUb7nt7nexmsYnIJzdP%252B7KNt4js8SQsCa3lm5PNo%252F31yz7xKr2Fzzr8B9LqwaMIE%252BluS66IrA5p4p4ScE3BMEc5%252FPpcdx9jXTs0YiWOCHwJfjJ%252FFX3%252FmHm4fX5zitmdDQy%252BTMV3PxzcFOnKI1cviB303RT%252BkQhCA0OGSTQyja7Dh6m8uIqV8mmO%252FdrdmNGxUMDZP%252BOwtBgiuqpVlQ1Zc9IMS5lXsGfVx9L4e9uA0uoHeEsXl6%252Bku6DFlo0qM6wRp0%252BuUnx4kR8cOV2NloIig4%252BXjtAKaIiK9zpx92OEIPrwTag3apXGQ%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-09-18%2B17%253A45%253A59%26version%3D1.0"
-}
-payrequestid: "SN202009181745590738781067746188"
-transType: "SIGN"
-signType: "APP"
-</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="11" t="n"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>仅签约微信</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E20" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "42686d521791c67380b17b0af1f31ee455a3e9d1d842014cf8e54d5add75b1b7160042236016BuPJd3HfkFq1IGcF3es59cmBspPHDQ"
-}
-payrequestid: "SN202009181745590455740832337408"
-transType: "SIGN"
-signType: "APP"
-</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"H5"}</t>
-        </is>
-      </c>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="11" t="n"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="1">
-      <c r="A21" s="12" t="inlineStr">
-        <is>
-          <t>仅签约传入支付宝的金额不为0（后台未验证）</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "10.0","oriAmount": "10.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult {
-  code: "0000"
-  msg: "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-4.7.11.ALL%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202002192032122824666862122324%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%252C%2522sub_merchant%2522%253A%257B%2522sub_merchant_service_description%2522%253A%2522HeyTap%25E8%2587%25AA%25E5%258A%25A8%25E7%25BB%25AD%25E8%25B4%25B9%2522%252C%2522sub_merchant_service_name%2522%253A%2522HeyTap%25E8%2587%25AA%25E5%258A%25A8%25E7%25BB%25AD%25E8%25B4%25B9%2522%257D%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter.pay-test.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DJwi7Rwnu3%252B1tGCKFO%252B1p%252BbHhsob90Odh7XIeRkn9w7IAyySYZbVp722rugfXsesMJOY7TcZ1cxjNKmFLzf27SWsy4SSDDP%252BAD7xOjZz2W%252F13RusBYrF9n8aw%252BF7HpoiVf%252BcqeEG%252B7VDuk%252FG4ra6E7WZkHnf7d2TSNCzQVenYvDtOUegsqdbtbplM1AuHQSgjU8JlGsp%252FuzR296CW6hkQQMy2ZE5k%252BxlF0ssxbhlrEhSsW72LXPTWT3zSjT1VjZL4aFCgpvkFCEREpw3xmD0A4g812XFQUEN7W6BeI%252FeCcU%252Fz6QUu%252BsVOMoySX0rPspMhDSLPBfc%252FaJVBLBgQUT1h0w%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-02-19%2B20%253A14%253A58%26version%3D1.0"
-}
-payrequestid: "SN202002192032124744328150624385"
-transType: "SIGN"
-signType: "APP"
-</t>
-        </is>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"5003","payrequestid":"","transType":"","signType":""}</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="11" t="n"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>无券无可币签约并支付支付宝</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult {
-  code: "0000"
-  msg: "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202009181746007565201707224411%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522%25E5%259E%259A%25E5%25A7%25A6%25E9%25B1%25BB%25E7%25BE%25B4%25E7%258A%2587%25E7%258C%258B%25E9%25BA%25A4%25E9%25AA%2589%25E6%25AF%25B3%25E8%25A0%25B1%25E6%258E%25B1%25E8%25B5%2591%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM202009181746002076075925644142%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522%25E6%2594%25AF%25E4%25BB%2598Demo%25E6%25B5%258B%25E8%25AF%2595%25E5%2595%2586%25E5%2593%2581%2522%252C%2522total_amount%2522%253A%2522100.0%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test2.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DQQvSmNxN7mK9p22VXeRiYzO4wbxvua8d68chiMwi%252BDMTM%252BL4XXPkscmCj4IDaQOqqMqu%252BAb1NgBazSZhZdndmf%252FFcHKW%252FHzeEK%252B0ueusN9YQfNjTSW%252F8La2r79W2h1GR6aCWEciykwUJUFXyLSVikbymCfJp1VjlIsQLniZJx7XK8ZAInoQDxaSMB6ChCzs889JCen%252F3ag43E7V99DZhNuHocv%252FlL1JoJMp%252FLK%252F%252FXmixns%252FYMdwNrsOcwL6kEHeBecRESpq2u5dVlwN8bNSBh4Gg4od713slFdAok5s6yDVrHiny7tYg4FF3meBWHLMGCxbpbrE53bDgpTyf3yVd9Q%253D%253D%26sign_type%3DRSA2%26timestamp%3D2020-09-18%2B17%253A46%253A00%26version%3D1.0"
-}
-payrequestid: "RM202009181746002076075925644142"
-transType: "SIGNANDPAY"
-signType: "APP"
-</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="11" t="n"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" s="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>无券无可币签约并支付微信</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E23" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "0000"
-  msg: "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"1f8b633742d948bb9de6c070272c6180\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx181746008380913962eb7597c2b0fd0000\",\"sign\":\"BCF96CD6CE7B924D3D3F08477BF1ABE1\",\"timestamp\":\"1600422360\"}"
-}
-payrequestid: "RM202009181746002076075925233712"
-transType: "SIGNANDPAY"
-signType: "APP"
-</t>
-        </is>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="11" t="n"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" s="1">
-      <c r="A24" s="12" t="inlineStr">
-        <is>
-          <t>仅签约,传入不可签约的支付渠道</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "qqwallet","amount": "0.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="10" t="n">
-        <v>500</v>
-      </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="11" t="n"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" s="1">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>签约并支付，传入不存在的签约方式</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "XIAOYAO","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr"/>
-      <c r="F25" s="10" t="n">
-        <v>500</v>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000"}</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="11" t="n"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" s="1">
-      <c r="A26" s="12" t="inlineStr">
-        <is>
-          <t>无券无可币签约并支付微信,是否消费标志位传入不正确</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
-        </is>
-      </c>
-      <c r="E26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">baseresult': {
-  code: "1200"
-  msg: "SIGNATURE ERROR"
-}
-payrequestid: ""
-</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"1200"}</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="11" t="n"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" s="1">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>签约并支付-半屏</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "VtKBsip26VFHNmOswuUbFfiAS7Ee03i00V00AOxfDoi2PGabkez3Lc0msSEk/lGH8YwPjdXP50RK\n/byxi/dLZvAPtsSTikGVqh7w2b1i8jXKypZCXNIW6fLjtB2NZSG7ufXIQ1rS34TkKBKIRLg6iTOO\nAMPmsxzFPUO+hvWtETM=\n","model": "PAAM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 240,"country": "CN","currency": "CNY","openId": "E28C3DF751C14EFAB2D9893DC83058B6c7ab335d8d6d240bca10fdf35c0be85e","brandType": "OPPO","mobileos": "12","androidVersion": "28"},"transType": "SIGNANDPAY","renewProductCode": "727243240001","signPartnerOrder": "","type": "alipay","amount": "0.01","oriAmount": "0.01","ip": "58.252.5.69","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "","notifyurl": "http://pay.pay-test.wanyol.com/notify/receiver","productName": "签约并支付测试","productDesc": "签约并支付测试","partnercode": "72724324","appversion": "240","currencyName": "可币","rate": 1.0,"partnerorder": ""},"screenInfo": "FULL"}</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="n"/>
-      <c r="F27" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="n"/>
-      <c r="I27" s="11" t="n"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" s="1">
-      <c r="A28" s="12" t="inlineStr">
-        <is>
-          <t>签约并支付-全屏</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>{"header": {"version": "1.0","t_p": "","imei": "VtKBsip26VFHNmOswuUbFfiAS7Ee03i00V00AOxfDoi2PGabkez3Lc0msSEk/lGH8YwPjdXP50RK\n/byxi/dLZvAPtsSTikGVqh7w2b1i8jXKypZCXNIW6fLjtB2NZSG7ufXIQ1rS34TkKBKIRLg6iTOO\nAMPmsxzFPUO+hvWtETM=\n","model": "PAAM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 240,"country": "CN","currency": "CNY","openId": "E28C3DF751C14EFAB2D9893DC83058B6c7ab335d8d6d240bca10fdf35c0be85e","brandType": "OPPO","mobileos": "12","androidVersion": "28"},"transType": "SIGNANDPAY","renewProductCode": "727243240001","signPartnerOrder": "","type": "alipay","amount": "0.01","oriAmount": "0.01","ip": "58.252.5.69","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "","notifyurl": "http://pay.pay-test.wanyol.com/notify/receiver","productName": "签约并支付测试","productDesc": "签约并支付测试","partnercode": "72724324","appversion": "240","currencyName": "可币","rate": 1.0,"partnerorder": ""},"screenInfo": "HALF"}</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="n"/>
-      <c r="F28" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
-        </is>
-      </c>
-      <c r="H28" s="11" t="n"/>
-      <c r="I28" s="11" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>proceessToken不传</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>proceessToken传入不正确</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>partnerId不传</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>partnerId不存在</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" s="1">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>accountExist renewal acrossScreen不传？</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:I28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
 </worksheet>
 </file>
--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -106,22 +106,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,8 +128,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -153,6 +152,37 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -174,8 +204,23 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -189,14 +234,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
@@ -205,45 +242,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -269,19 +269,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,31 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +359,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,97 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,6 +530,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -516,65 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -583,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -595,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5172,7 +5172,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"vipRights": []}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "楠岀澶辫触"}, "success": false}</t>
         </is>
       </c>
       <c r="F10" s="10" t="n">
@@ -6090,7 +6090,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -106,7 +106,105 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -128,45 +226,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,71 +241,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +269,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +353,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,127 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,39 +474,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,16 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +523,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -575,6 +560,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -583,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -595,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5169,10 +5169,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D20:D21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>{"processToken": "","partnerId": "5456925"}</t>
+          <t>{"partnerId": "5456925"}</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>{"processToken": "","partnerId": "2031"}</t>
+          <t>{"partnerId": "888888"}</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="1">
+    <row r="9" ht="27" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>processToken不传</t>
+          <t>partnerId不传</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>{"processToken": "","partnerId": "2031"}</t>
+          <t>{"partnerId": ""}</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"vipRights": []}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
@@ -5391,78 +5391,6 @@
       </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>processToken不正确</t>
-        </is>
-      </c>
-      <c r="B10" s="21" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "error_token","partnerId": "2031"}</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>{"error": {"code": "101", "message": "楠岀澶辫触"}, "success": false}</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1" s="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>partnerId不传</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "","partnerId": ""}</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27045" windowHeight="13665" tabRatio="973" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27045" windowHeight="13665" tabRatio="973" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge_spend" sheetId="1" state="visible" r:id="rId1"/>
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -79,12 +79,6 @@
       <sz val="9.75"/>
     </font>
     <font>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
@@ -106,15 +100,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +169,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -167,14 +184,14 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -204,28 +221,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -234,17 +229,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,13 +263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +281,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,31 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,25 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +468,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,29 +537,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +559,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -595,137 +589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,34 +758,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1366,7 +1345,7 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1456,7 +1435,7 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="29" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1499,7 +1478,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "szfpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="29" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1542,7 +1521,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "tenpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="29" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1585,7 +1564,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "xiaoyao","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="29" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1628,7 +1607,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "-0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="29" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1671,7 +1650,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="30" t="inlineStr">
+      <c r="E16" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "13"
@@ -1714,7 +1693,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "/xiaoyaoisasunshileman1997","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="29" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1757,7 +1736,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E18" s="29" t="inlineStr">
+      <c r="E18" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1828,7 +1807,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D20" s="28" t="inlineStr">
+      <c r="D20" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common","screenInfo":"FULL"}</t>
         </is>
@@ -1861,7 +1840,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D21" s="28" t="inlineStr">
+      <c r="D21" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common","screenInfo":"HALF"}</t>
         </is>
@@ -1894,7 +1873,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D22" s="28" t="inlineStr">
+      <c r="D22" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "d446ee8ac87b478eb3cec6e2d609c705","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "1","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -1965,7 +1944,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "-1","oriAmount": "-1","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E24" s="29" t="inlineStr">
+      <c r="E24" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2238,7 +2217,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E32" s="29" t="inlineStr">
+      <c r="E32" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -2281,7 +2260,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E33" s="29" t="inlineStr">
+      <c r="E33" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2324,7 +2303,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E34" s="29" t="inlineStr">
+      <c r="E34" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2367,7 +2346,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E35" s="29" t="inlineStr">
+      <c r="E35" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2410,7 +2389,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E36" s="29" t="inlineStr">
+      <c r="E36" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2453,7 +2432,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E37" s="29" t="inlineStr">
+      <c r="E37" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -2496,7 +2475,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E38" s="29" t="inlineStr">
+      <c r="E38" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -2539,7 +2518,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E39" s="29" t="inlineStr">
+      <c r="E39" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2582,7 +2561,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E40" s="29" t="inlineStr">
+      <c r="E40" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -2625,7 +2604,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E41" s="29" t="inlineStr">
+      <c r="E41" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2668,7 +2647,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E42" s="29" t="inlineStr">
+      <c r="E42" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2711,7 +2690,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E43" s="29" t="inlineStr">
+      <c r="E43" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2799,7 +2778,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E45" s="29" t="inlineStr">
+      <c r="E45" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2931,7 +2910,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E48" s="29" t="inlineStr">
+      <c r="E48" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3041,7 +3020,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E51" s="29" t="inlineStr">
+      <c r="E51" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -3280,7 +3259,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E7" s="29" t="inlineStr">
+      <c r="E7" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -3323,7 +3302,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3366,7 +3345,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E9" s="29" t="inlineStr">
+      <c r="E9" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -3409,7 +3388,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3452,7 +3431,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E11" s="29" t="inlineStr">
+      <c r="E11" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3495,7 +3474,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="29" t="inlineStr">
+      <c r="E12" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -3538,7 +3517,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="29" t="inlineStr">
+      <c r="E13" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -3581,7 +3560,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="29" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3624,7 +3603,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="29" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -3667,7 +3646,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="29" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3710,7 +3689,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="29" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3753,7 +3732,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E18" s="29" t="inlineStr">
+      <c r="E18" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3841,7 +3820,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E20" s="29" t="inlineStr">
+      <c r="E20" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3973,7 +3952,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E23" s="29" t="inlineStr">
+      <c r="E23" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -4083,7 +4062,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E26" s="29" t="inlineStr">
+      <c r="E26" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -4185,7 +4164,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -4318,7 +4297,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="28" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4359,7 +4338,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="28" t="inlineStr">
+      <c r="D8" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4400,7 +4379,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="28" t="inlineStr">
+      <c r="D9" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4441,7 +4420,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="28" t="inlineStr">
+      <c r="D10" s="23" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4768,7 +4747,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>批量发放优惠券测试用例集</t>
         </is>
@@ -4780,7 +4759,7 @@
           <t>URL</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>/voucher/grantMultiVoucher</t>
         </is>
@@ -4792,7 +4771,7 @@
           <t>HTTP请求方式</t>
         </is>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -4804,7 +4783,7 @@
           <t>前置条件</t>
         </is>
       </c>
-      <c r="B4" s="23" t="n"/>
+      <c r="B4" s="18" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1" s="1">
       <c r="A5" s="2" t="inlineStr">
@@ -4812,7 +4791,7 @@
           <t>环境恢复</t>
         </is>
       </c>
-      <c r="B5" s="23" t="n"/>
+      <c r="B5" s="18" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1" s="1">
       <c r="A6" s="6" t="inlineStr">
@@ -4887,67 +4866,67 @@
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
-      <c r="A7" s="24" t="inlineStr">
+      <c r="A7" s="19" t="inlineStr">
         <is>
           <t>vouType</t>
         </is>
       </c>
-      <c r="B7" s="24" t="inlineStr">
+      <c r="B7" s="19" t="inlineStr">
         <is>
           <t>vouName</t>
         </is>
       </c>
-      <c r="C7" s="24" t="inlineStr">
+      <c r="C7" s="19" t="inlineStr">
         <is>
           <t>grantCount</t>
         </is>
       </c>
-      <c r="D7" s="24" t="inlineStr">
+      <c r="D7" s="19" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="E7" s="24" t="inlineStr">
+      <c r="E7" s="19" t="inlineStr">
         <is>
           <t>maxAmount</t>
         </is>
       </c>
-      <c r="F7" s="24" t="inlineStr">
+      <c r="F7" s="19" t="inlineStr">
         <is>
           <t>ratio</t>
         </is>
       </c>
-      <c r="G7" s="24" t="inlineStr">
+      <c r="G7" s="19" t="inlineStr">
         <is>
           <t>beginTime</t>
         </is>
       </c>
-      <c r="H7" s="24" t="inlineStr">
+      <c r="H7" s="19" t="inlineStr">
         <is>
           <t>expireTime</t>
         </is>
       </c>
-      <c r="I7" s="24" t="inlineStr">
+      <c r="I7" s="19" t="inlineStr">
         <is>
           <t>scopeId</t>
         </is>
       </c>
-      <c r="J7" s="24" t="inlineStr">
+      <c r="J7" s="19" t="inlineStr">
         <is>
           <t>subScopeId</t>
         </is>
       </c>
-      <c r="K7" s="24" t="inlineStr">
+      <c r="K7" s="19" t="inlineStr">
         <is>
           <t>blackScopeId</t>
         </is>
       </c>
-      <c r="L7" s="24" t="inlineStr">
+      <c r="L7" s="19" t="inlineStr">
         <is>
           <t>settleType</t>
         </is>
       </c>
-      <c r="M7" s="24" t="inlineStr">
+      <c r="M7" s="19" t="inlineStr">
         <is>
           <t>configId</t>
         </is>
@@ -4959,7 +4938,7 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="20" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -4967,31 +4946,31 @@
           <t>消费券</t>
         </is>
       </c>
-      <c r="C8" s="26" t="n">
+      <c r="C8" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <f>RANDBETWEEN(D8,9999)</f>
         <v/>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="21">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G8" s="31" t="n"/>
-      <c r="H8" s="26" t="n"/>
-      <c r="I8" s="26" t="n"/>
-      <c r="J8" s="26" t="n"/>
-      <c r="K8" s="26" t="n"/>
-      <c r="L8" s="26">
+      <c r="G8" s="26" t="n"/>
+      <c r="H8" s="21" t="n"/>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="21" t="n"/>
+      <c r="L8" s="21">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M8" s="26" t="n"/>
+      <c r="M8" s="21" t="n"/>
       <c r="N8" s="0" t="inlineStr">
         <is>
           <t>消费券</t>
@@ -4999,7 +4978,7 @@
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="20" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -5007,31 +4986,31 @@
           <t>抵扣券(满maxAmount，减amount)</t>
         </is>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="21">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
         <f>RANDBETWEEN(D9,20)</f>
         <v/>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="21">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="n"/>
-      <c r="H9" s="26" t="n"/>
-      <c r="I9" s="26" t="n"/>
-      <c r="J9" s="26" t="n"/>
-      <c r="K9" s="26" t="n"/>
-      <c r="L9" s="26">
+      <c r="G9" s="21" t="n"/>
+      <c r="H9" s="21" t="n"/>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="21">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M9" s="26" t="n"/>
+      <c r="M9" s="21" t="n"/>
       <c r="N9" s="0" t="inlineStr">
         <is>
           <t>抵扣券(满maxAmount，减amount)</t>
@@ -5039,7 +5018,7 @@
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
-      <c r="A10" s="25" t="n">
+      <c r="A10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -5047,31 +5026,31 @@
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
         </is>
       </c>
-      <c r="C10" s="26" t="n">
+      <c r="C10" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <f>RANDBETWEEN(D10,9999)</f>
         <v/>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="21">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G10" s="26" t="n"/>
-      <c r="H10" s="26" t="n"/>
-      <c r="I10" s="26" t="n"/>
-      <c r="J10" s="26" t="n"/>
-      <c r="K10" s="26" t="n"/>
-      <c r="L10" s="26">
+      <c r="G10" s="21" t="n"/>
+      <c r="H10" s="21" t="n"/>
+      <c r="I10" s="21" t="n"/>
+      <c r="J10" s="21" t="n"/>
+      <c r="K10" s="21" t="n"/>
+      <c r="L10" s="21">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M10" s="26" t="n"/>
+      <c r="M10" s="21" t="n"/>
       <c r="N10" s="0" t="inlineStr">
         <is>
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
@@ -5079,7 +5058,7 @@
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="20" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -5087,31 +5066,31 @@
           <t>消费折扣券</t>
         </is>
       </c>
-      <c r="C11" s="26" t="n">
+      <c r="C11" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="21">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="21">
         <f>RANDBETWEEN(D11,9999)</f>
         <v/>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="21">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G11" s="26" t="n"/>
-      <c r="H11" s="26" t="n"/>
-      <c r="I11" s="26" t="n"/>
-      <c r="J11" s="26" t="n"/>
-      <c r="K11" s="26" t="n"/>
-      <c r="L11" s="26">
+      <c r="G11" s="21" t="n"/>
+      <c r="H11" s="21" t="n"/>
+      <c r="I11" s="21" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="21">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M11" s="26" t="n"/>
+      <c r="M11" s="21" t="n"/>
       <c r="N11" s="0" t="inlineStr">
         <is>
           <t>消费折扣券，ratio&lt;1</t>
@@ -5119,7 +5098,7 @@
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="20" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -5127,31 +5106,31 @@
           <t>\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\</t>
         </is>
       </c>
-      <c r="C12" s="26" t="n">
+      <c r="C12" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="21">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="21">
         <f>RANDBETWEEN(D12,9999)</f>
         <v/>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="21">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G12" s="26" t="n"/>
-      <c r="H12" s="26" t="n"/>
-      <c r="I12" s="26" t="n"/>
-      <c r="J12" s="26" t="n"/>
-      <c r="K12" s="26" t="n"/>
-      <c r="L12" s="26">
+      <c r="G12" s="21" t="n"/>
+      <c r="H12" s="21" t="n"/>
+      <c r="I12" s="21" t="n"/>
+      <c r="J12" s="21" t="n"/>
+      <c r="K12" s="21" t="n"/>
+      <c r="L12" s="21">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M12" s="26" t="n"/>
+      <c r="M12" s="21" t="n"/>
       <c r="N12" s="0" t="inlineStr">
         <is>
           <t>会员红包券</t>
@@ -5171,8 +5150,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5180,7 +5159,7 @@
     <col width="26.125" customWidth="1" style="1" min="1" max="1"/>
     <col width="27.625" customWidth="1" style="1" min="2" max="2"/>
     <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
-    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="25.5" customWidth="1" style="1" min="4" max="4"/>
     <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
     <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
     <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
@@ -5194,7 +5173,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>营销信息-获取跳转链接信息</t>
         </is>
@@ -5293,7 +5272,7 @@
           <t>配置信息有加购位</t>
         </is>
       </c>
-      <c r="B7" s="21" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5303,7 +5282,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>{"partnerId": "5456925"}</t>
         </is>
@@ -5316,7 +5295,11 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="n"/>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"True"}</t>
+        </is>
+      </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
           <t>passed</t>
@@ -5330,7 +5313,7 @@
           <t>配置信息无加购位</t>
         </is>
       </c>
-      <c r="B8" s="21" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5340,7 +5323,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>{"partnerId": "888888"}</t>
         </is>
@@ -5353,7 +5336,11 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="7" t="n"/>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"True"}</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
           <t>passed</t>
@@ -5366,7 +5353,7 @@
           <t>partnerId不传</t>
         </is>
       </c>
-      <c r="B9" s="21" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -5376,7 +5363,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>{"partnerId": ""}</t>
         </is>
@@ -5389,7 +5376,11 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="n"/>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"False"}</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
           <t>passed</t>
@@ -5541,12 +5532,16 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "","partnerId": "5456925","orderAmount": "100", "factor": ""</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="n"/>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"buyPlaceList": []}, "success": true}</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
@@ -5574,16 +5569,26 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "","partnerId": "5456925","orderAmount": "-100", "factor": ""</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="18" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="19" t="n"/>
-      <c r="I8" s="19" t="n"/>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925","orderAmount": "-100", "factor": ""}</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"buyPlaceList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
     </row>
     <row r="9" ht="27" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -5601,16 +5606,26 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "","partnerId": "5456925","orderAmount": "0", "factor": ""</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="17" t="n"/>
-      <c r="H9" s="19" t="n"/>
-      <c r="I9" s="19" t="n"/>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "5456925","orderAmount": "0", "factor": ""}</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"buyPlaceList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
     </row>
     <row r="10" ht="27" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -5628,16 +5643,26 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "error_token","partnerId": "5456925","orderAmount": "100", "factor": ""</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="n"/>
-      <c r="F10" s="18" t="n"/>
-      <c r="G10" s="17" t="n"/>
-      <c r="H10" s="19" t="n"/>
-      <c r="I10" s="19" t="n"/>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "error_token","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="n"/>
     </row>
     <row r="11" ht="27" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5655,16 +5680,26 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "","partnerId": "","orderAmount": "100", "factor": ""</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="n"/>
-      <c r="F11" s="18" t="n"/>
-      <c r="G11" s="17" t="n"/>
-      <c r="H11" s="19" t="n"/>
-      <c r="I11" s="19" t="n"/>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "","orderAmount": "100", "factor": ""}</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="n"/>
     </row>
     <row r="12" ht="27" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -5682,11 +5717,26 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "","partnerId": "99999","orderAmount": "", "factor": ""</t>
-        </is>
-      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "99999","orderAmount": "", "factor": ""}</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"buyPlaceList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5833,7 +5883,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
@@ -5866,7 +5916,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
@@ -5888,7 +5938,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
@@ -5910,7 +5960,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
@@ -5932,7 +5982,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
@@ -5954,7 +6004,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
@@ -5976,7 +6026,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
         </is>
@@ -5998,7 +6048,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
@@ -6015,18 +6065,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="32.25" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18" customWidth="1" style="1" min="2" max="2"/>
     <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
-    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="48.375" customWidth="1" style="1" min="4" max="4"/>
     <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
     <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
     <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
@@ -6133,13 +6183,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="40.5" customHeight="1" s="1">
+    <row r="7" ht="40" customHeight="1" s="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>有账号+自动续费+全屏</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -6149,110 +6199,193 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "8ANvbRE2Zi7mAZQSehpjA9",
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "2031","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="40" customHeight="1" s="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>有账号+自动续费+横屏(目前不支持)</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "Y"}</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="n"/>
+    </row>
+    <row r="9" ht="40" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>有账号+普通支付+全屏</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
 "partnerId": "2031","accountExist": "Y",
 "renewal": "N", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="40.5" customHeight="1" s="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>有账号+自动续费+半屏</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="I9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="40" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>有账号+普通支付+横屏</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>{"processToken": "8ANvbRE2Zi7mAZQSehpjA9",
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
 "partnerId": "2031","accountExist": "Y",
+"renewal": "N", "acrossScreen": "Y"}</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="40" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>无账号+普通支付+全屏</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
 "renewal": "N", "acrossScreen": "N"}</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>有账号+自动续费+横屏(目前不支持)</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D9" s="15" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>有账号+普通支付+全屏</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>有账号+普通支付+半屏</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="1">
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="n"/>
+    </row>
+    <row r="12" ht="40" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>有账号+普通支付+横屏</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
+          <t>无账号+普通支付+横屏(目前不支持)</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>full</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -6260,16 +6393,38 @@
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="1">
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "N", "acrossScreen": "Y"}</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="40" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>无账号+普通支付+全屏</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
+          <t>无账号+自动续费+全屏(目前不支持)</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>full</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
@@ -6277,16 +6432,38 @@
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="1">
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "Y", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n"/>
+    </row>
+    <row r="14" ht="40" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>无账号+普通支付+半屏</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>smoke</t>
+          <t>无账号+自动续费+横屏(目前不支持)</t>
+        </is>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>full</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
@@ -6294,14 +6471,36 @@
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="1">
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "Y", "acrossScreen": "Y"}</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="40" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>无账号+普通支付+横屏(目前不支持)</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
+          <t>proceessToken传入不正确</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -6311,14 +6510,36 @@
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="1">
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "ERROR_TOKEN",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="n"/>
+    </row>
+    <row r="16" ht="40" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>无账号+自动续费+全屏(目前不支持)</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
+          <t>partnerId不传</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -6328,14 +6549,35 @@
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="1">
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="n"/>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n"/>
+    </row>
+    <row r="17" ht="40" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>无账号+自动续费+半屏(目前不支持)</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
+          <t>partnerId不存在</t>
+        </is>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -6345,58 +6587,27 @@
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>无账号+自动续费+横屏(目前不支持)</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>proceessToken不传</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>proceessToken传入不正确</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>partnerId不传</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>partnerId不存在</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" s="1">
-      <c r="A23" s="16" t="inlineStr">
-        <is>
-          <t>accountExist renewal acrossScreen不传？</t>
-        </is>
-      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>{"processToken": "","partnerId": "88888888888888","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"payTypeList": []}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I17" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27045" windowHeight="13665" tabRatio="973" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27045" windowHeight="13665" tabRatio="973" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge_spend" sheetId="1" state="visible" r:id="rId1"/>
@@ -100,7 +100,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -121,6 +143,28 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -130,8 +174,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -169,29 +220,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -209,36 +239,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,133 +263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +287,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +395,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,54 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,6 +483,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +520,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -569,6 +545,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -577,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -589,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5401,7 +5401,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5751,8 +5751,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5888,7 +5888,11 @@
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n"/>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621241493314, "processToken": "Qe4aS3p5Z9KZVyGap8Roax"}, "success": true}</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
@@ -5921,6 +5925,21 @@
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621241493430, "processToken": "4pE5JFvy9vdtznPhjo39MW"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="40.5" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -5943,6 +5962,21 @@
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621241493759, "processToken": "Tqi6sz97eRojqRp9H2c1ws"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="40.5" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -5965,6 +5999,21 @@
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621241493878, "processToken": "6Ni2tMy9qDjQCjj6PkNLme"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="40.5" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5987,6 +6036,21 @@
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621241493994, "processToken": "74atS5NUk8F9PSHm15vVRF"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="40.5" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -6009,6 +6073,21 @@
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "20000", "message": "閴存潈澶辫触"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="40.5" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
@@ -6031,6 +6110,21 @@
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
         </is>
       </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="27" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
@@ -6053,6 +6147,21 @@
           <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6067,7 +6176,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -100,29 +100,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -144,13 +122,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -158,8 +129,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -174,15 +152,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +183,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -228,17 +221,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,6 +263,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,97 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,49 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +407,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,21 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -498,24 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,20 +509,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +545,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -577,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -589,137 +589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +763,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -1345,7 +1354,7 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="24" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1435,7 +1444,7 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="24" t="inlineStr">
+      <c r="E11" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1478,7 +1487,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "szfpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="24" t="inlineStr">
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1521,7 +1530,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "tenpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="24" t="inlineStr">
+      <c r="E13" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1564,7 +1573,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "xiaoyao","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="24" t="inlineStr">
+      <c r="E14" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1607,7 +1616,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "-0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="24" t="inlineStr">
+      <c r="E15" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1650,7 +1659,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="25" t="inlineStr">
+      <c r="E16" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "13"
@@ -1693,7 +1702,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "/xiaoyaoisasunshileman1997","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="24" t="inlineStr">
+      <c r="E17" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1736,7 +1745,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E18" s="24" t="inlineStr">
+      <c r="E18" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1807,7 +1816,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D20" s="23" t="inlineStr">
+      <c r="D20" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common","screenInfo":"FULL"}</t>
         </is>
@@ -1840,7 +1849,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D21" s="23" t="inlineStr">
+      <c r="D21" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common","screenInfo":"HALF"}</t>
         </is>
@@ -1873,7 +1882,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D22" s="23" t="inlineStr">
+      <c r="D22" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "d446ee8ac87b478eb3cec6e2d609c705","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "1","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -1944,7 +1953,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "-1","oriAmount": "-1","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E24" s="24" t="inlineStr">
+      <c r="E24" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2217,7 +2226,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E32" s="24" t="inlineStr">
+      <c r="E32" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -2260,7 +2269,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E33" s="24" t="inlineStr">
+      <c r="E33" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2303,7 +2312,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E34" s="24" t="inlineStr">
+      <c r="E34" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2346,7 +2355,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E35" s="24" t="inlineStr">
+      <c r="E35" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2389,7 +2398,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E36" s="24" t="inlineStr">
+      <c r="E36" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2432,7 +2441,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E37" s="24" t="inlineStr">
+      <c r="E37" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -2475,7 +2484,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E38" s="24" t="inlineStr">
+      <c r="E38" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -2518,7 +2527,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E39" s="24" t="inlineStr">
+      <c r="E39" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2561,7 +2570,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E40" s="24" t="inlineStr">
+      <c r="E40" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -2604,7 +2613,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E41" s="24" t="inlineStr">
+      <c r="E41" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2647,7 +2656,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E42" s="24" t="inlineStr">
+      <c r="E42" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2690,7 +2699,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E43" s="24" t="inlineStr">
+      <c r="E43" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2778,7 +2787,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E45" s="24" t="inlineStr">
+      <c r="E45" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2910,7 +2919,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E48" s="24" t="inlineStr">
+      <c r="E48" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3020,7 +3029,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E51" s="24" t="inlineStr">
+      <c r="E51" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -3259,7 +3268,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E7" s="24" t="inlineStr">
+      <c r="E7" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -3302,7 +3311,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E8" s="24" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3345,7 +3354,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E9" s="24" t="inlineStr">
+      <c r="E9" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -3388,7 +3397,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E10" s="24" t="inlineStr">
+      <c r="E10" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3431,7 +3440,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E11" s="24" t="inlineStr">
+      <c r="E11" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3474,7 +3483,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="24" t="inlineStr">
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -3517,7 +3526,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="24" t="inlineStr">
+      <c r="E13" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -3560,7 +3569,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="24" t="inlineStr">
+      <c r="E14" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3603,7 +3612,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="24" t="inlineStr">
+      <c r="E15" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -3646,7 +3655,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="24" t="inlineStr">
+      <c r="E16" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3689,7 +3698,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="24" t="inlineStr">
+      <c r="E17" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3732,7 +3741,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E18" s="24" t="inlineStr">
+      <c r="E18" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3820,7 +3829,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E20" s="24" t="inlineStr">
+      <c r="E20" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -3952,7 +3961,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
+      <c r="E23" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -4062,7 +4071,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E26" s="24" t="inlineStr">
+      <c r="E26" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -4297,7 +4306,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="23" t="inlineStr">
+      <c r="D7" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4338,7 +4347,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="23" t="inlineStr">
+      <c r="D8" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4379,7 +4388,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="23" t="inlineStr">
+      <c r="D9" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4420,7 +4429,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="23" t="inlineStr">
+      <c r="D10" s="26" t="inlineStr">
         <is>
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
@@ -4747,7 +4756,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>批量发放优惠券测试用例集</t>
         </is>
@@ -4759,7 +4768,7 @@
           <t>URL</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>/voucher/grantMultiVoucher</t>
         </is>
@@ -4771,7 +4780,7 @@
           <t>HTTP请求方式</t>
         </is>
       </c>
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -4783,7 +4792,7 @@
           <t>前置条件</t>
         </is>
       </c>
-      <c r="B4" s="18" t="n"/>
+      <c r="B4" s="21" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1" s="1">
       <c r="A5" s="2" t="inlineStr">
@@ -4791,7 +4800,7 @@
           <t>环境恢复</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n"/>
+      <c r="B5" s="21" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1" s="1">
       <c r="A6" s="6" t="inlineStr">
@@ -4866,67 +4875,67 @@
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
-      <c r="A7" s="19" t="inlineStr">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>vouType</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="22" t="inlineStr">
         <is>
           <t>vouName</t>
         </is>
       </c>
-      <c r="C7" s="19" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>grantCount</t>
         </is>
       </c>
-      <c r="D7" s="19" t="inlineStr">
+      <c r="D7" s="22" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
+      <c r="E7" s="22" t="inlineStr">
         <is>
           <t>maxAmount</t>
         </is>
       </c>
-      <c r="F7" s="19" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>ratio</t>
         </is>
       </c>
-      <c r="G7" s="19" t="inlineStr">
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>beginTime</t>
         </is>
       </c>
-      <c r="H7" s="19" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>expireTime</t>
         </is>
       </c>
-      <c r="I7" s="19" t="inlineStr">
+      <c r="I7" s="22" t="inlineStr">
         <is>
           <t>scopeId</t>
         </is>
       </c>
-      <c r="J7" s="19" t="inlineStr">
+      <c r="J7" s="22" t="inlineStr">
         <is>
           <t>subScopeId</t>
         </is>
       </c>
-      <c r="K7" s="19" t="inlineStr">
+      <c r="K7" s="22" t="inlineStr">
         <is>
           <t>blackScopeId</t>
         </is>
       </c>
-      <c r="L7" s="19" t="inlineStr">
+      <c r="L7" s="22" t="inlineStr">
         <is>
           <t>settleType</t>
         </is>
       </c>
-      <c r="M7" s="19" t="inlineStr">
+      <c r="M7" s="22" t="inlineStr">
         <is>
           <t>configId</t>
         </is>
@@ -4938,7 +4947,7 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="23" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -4946,31 +4955,31 @@
           <t>消费券</t>
         </is>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="24">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="24">
         <f>RANDBETWEEN(D8,9999)</f>
         <v/>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="24">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G8" s="26" t="n"/>
-      <c r="H8" s="21" t="n"/>
-      <c r="I8" s="21" t="n"/>
-      <c r="J8" s="21" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="21">
+      <c r="G8" s="29" t="n"/>
+      <c r="H8" s="24" t="n"/>
+      <c r="I8" s="24" t="n"/>
+      <c r="J8" s="24" t="n"/>
+      <c r="K8" s="24" t="n"/>
+      <c r="L8" s="24">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M8" s="21" t="n"/>
+      <c r="M8" s="24" t="n"/>
       <c r="N8" s="0" t="inlineStr">
         <is>
           <t>消费券</t>
@@ -4978,7 +4987,7 @@
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="23" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -4986,31 +4995,31 @@
           <t>抵扣券(满maxAmount，减amount)</t>
         </is>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="24">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="24">
         <f>RANDBETWEEN(D9,20)</f>
         <v/>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="24">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="n"/>
-      <c r="H9" s="21" t="n"/>
-      <c r="I9" s="21" t="n"/>
-      <c r="J9" s="21" t="n"/>
-      <c r="K9" s="21" t="n"/>
-      <c r="L9" s="21">
+      <c r="G9" s="24" t="n"/>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="24" t="n"/>
+      <c r="J9" s="24" t="n"/>
+      <c r="K9" s="24" t="n"/>
+      <c r="L9" s="24">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M9" s="21" t="n"/>
+      <c r="M9" s="24" t="n"/>
       <c r="N9" s="0" t="inlineStr">
         <is>
           <t>抵扣券(满maxAmount，减amount)</t>
@@ -5018,7 +5027,7 @@
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="23" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -5026,31 +5035,31 @@
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
         </is>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="24">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="24">
         <f>RANDBETWEEN(D10,9999)</f>
         <v/>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="24">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G10" s="21" t="n"/>
-      <c r="H10" s="21" t="n"/>
-      <c r="I10" s="21" t="n"/>
-      <c r="J10" s="21" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="21">
+      <c r="G10" s="24" t="n"/>
+      <c r="H10" s="24" t="n"/>
+      <c r="I10" s="24" t="n"/>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
+      <c r="L10" s="24">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M10" s="21" t="n"/>
+      <c r="M10" s="24" t="n"/>
       <c r="N10" s="0" t="inlineStr">
         <is>
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
@@ -5058,7 +5067,7 @@
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="23" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -5066,31 +5075,31 @@
           <t>消费折扣券</t>
         </is>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="24">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="24">
         <f>RANDBETWEEN(D11,9999)</f>
         <v/>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="24">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G11" s="21" t="n"/>
-      <c r="H11" s="21" t="n"/>
-      <c r="I11" s="21" t="n"/>
-      <c r="J11" s="21" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="21">
+      <c r="G11" s="24" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
+      <c r="L11" s="24">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M11" s="21" t="n"/>
+      <c r="M11" s="24" t="n"/>
       <c r="N11" s="0" t="inlineStr">
         <is>
           <t>消费折扣券，ratio&lt;1</t>
@@ -5098,7 +5107,7 @@
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
-      <c r="A12" s="20" t="n">
+      <c r="A12" s="23" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -5106,31 +5115,31 @@
           <t>\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\</t>
         </is>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="24">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="24">
         <f>RANDBETWEEN(D12,9999)</f>
         <v/>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="24">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G12" s="21" t="n"/>
-      <c r="H12" s="21" t="n"/>
-      <c r="I12" s="21" t="n"/>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="21" t="n"/>
-      <c r="L12" s="21">
+      <c r="G12" s="24" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M12" s="21" t="n"/>
+      <c r="M12" s="24" t="n"/>
       <c r="N12" s="0" t="inlineStr">
         <is>
           <t>会员红包券</t>
@@ -5151,7 +5160,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5173,7 +5182,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>营销信息-获取跳转链接信息</t>
         </is>
@@ -5282,7 +5291,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>{"partnerId": "5456925"}</t>
         </is>
@@ -5323,7 +5332,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="17" t="inlineStr">
         <is>
           <t>{"partnerId": "888888"}</t>
         </is>
@@ -5346,6 +5355,7 @@
           <t>passed</t>
         </is>
       </c>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="27" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -5363,7 +5373,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>{"partnerId": ""}</t>
         </is>
@@ -5386,6 +5396,7 @@
           <t>passed</t>
         </is>
       </c>
+      <c r="I9" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5401,13 +5412,13 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="25.875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.25" customWidth="1" style="1" min="2" max="2"/>
     <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
     <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
     <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
@@ -5516,13 +5527,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1" s="1">
+    <row r="7" ht="50" customHeight="1" s="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>正常拉取会员加购位</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5532,12 +5543,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="16" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -5545,21 +5556,25 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"True"}</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I7" s="11" t="n"/>
     </row>
-    <row r="8" ht="27" customHeight="1" s="1">
+    <row r="8" ht="50" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>金额传入负数</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -5569,12 +5584,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "5456925","orderAmount": "-100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -5582,21 +5597,25 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"True"}</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I8" s="7" t="n"/>
     </row>
-    <row r="9" ht="27" customHeight="1" s="1">
+    <row r="9" ht="50" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>金额传入-</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -5606,12 +5625,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "5456925","orderAmount": "0", "factor": ""}</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -5619,21 +5638,25 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"True"}</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I9" s="7" t="n"/>
     </row>
-    <row r="10" ht="27" customHeight="1" s="1">
+    <row r="10" ht="50" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
           <t>passToken不正确</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -5643,12 +5666,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>{"processToken": "error_token","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
         </is>
@@ -5656,21 +5679,25 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"False"}</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I10" s="7" t="n"/>
     </row>
-    <row r="11" ht="27" customHeight="1" s="1">
+    <row r="11" ht="50" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>业务线不传</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -5680,12 +5707,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "","orderAmount": "100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
         </is>
@@ -5693,21 +5720,25 @@
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"False"}</t>
+        </is>
+      </c>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I11" s="7" t="n"/>
     </row>
-    <row r="12" ht="27" customHeight="1" s="1">
+    <row r="12" ht="50" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
           <t>传入不支持的业务线</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -5717,12 +5748,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "99999","orderAmount": "", "factor": ""}</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -5730,8 +5761,12 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>{"success":"True"}</t>
+        </is>
+      </c>
+      <c r="H12" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -5752,18 +5787,18 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="20.5" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33" customWidth="1" style="1" min="2" max="2"/>
+    <col width="19" customWidth="1" style="1" min="2" max="2"/>
     <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
-    <col width="54.1083333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="50" customWidth="1" style="1" min="4" max="4"/>
     <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
     <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
-    <col width="24.775" customWidth="1" style="1" min="7" max="7"/>
+    <col width="33.625" customWidth="1" style="1" min="7" max="7"/>
     <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
     <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
   </cols>
@@ -5867,13 +5902,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="40.5" customHeight="1" s="1">
+    <row r="7" ht="50" customHeight="1" s="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>支付apk获取凭证</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5888,29 +5923,33 @@
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1621241493314, "processToken": "Qe4aS3p5Z9KZVyGap8Roax"}, "success": true}</t>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621243514755, "processToken": "2nzYJhTZ6aQ3pC2b5xMUJm"}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="G7" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I7" s="11" t="n"/>
     </row>
-    <row r="8" ht="40.5" customHeight="1" s="1">
+    <row r="8" ht="50" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>msp获取凭证</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5925,29 +5964,33 @@
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1621241493430, "processToken": "4pE5JFvy9vdtznPhjo39MW"}, "success": true}</t>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621243514887, "processToken": "CeLec6zAuJwa6TtuhYwUw1"}, "success": true}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I8" s="11" t="n"/>
     </row>
-    <row r="9" ht="40.5" customHeight="1" s="1">
+    <row r="9" ht="50" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>apk无账号获取凭证</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5962,29 +6005,33 @@
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1621241493759, "processToken": "Tqi6sz97eRojqRp9H2c1ws"}, "success": true}</t>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621243515005, "processToken": "B3vBN2z8LXyM22fiwCqbEf"}, "success": true}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="G9" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H9" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I9" s="11" t="n"/>
     </row>
-    <row r="10" ht="40.5" customHeight="1" s="1">
+    <row r="10" ht="50" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
           <t>msp无账号获取凭证</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -5999,29 +6046,33 @@
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1621241493878, "processToken": "6Ni2tMy9qDjQCjj6PkNLme"}, "success": true}</t>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621243515122, "processToken": "8vuWJ1kgwcnM1cuq75bfM9"}, "success": true}</t>
         </is>
       </c>
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="G10" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H10" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I10" s="11" t="n"/>
     </row>
-    <row r="11" ht="40.5" customHeight="1" s="1">
+    <row r="11" ht="50" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>msp获取凭证不传appId</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -6036,29 +6087,33 @@
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1621241493994, "processToken": "74atS5NUk8F9PSHm15vVRF"}, "success": true}</t>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1621243515238, "processToken": "HabxCfQrgYtuYFeEKTAAJz"}, "success": true}</t>
         </is>
       </c>
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="G11" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H11" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I11" s="11" t="n"/>
     </row>
-    <row r="12" ht="40.5" customHeight="1" s="1">
+    <row r="12" ht="50" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
           <t>token传入不正确</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -6073,7 +6128,7 @@
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>{"error": {"code": "20000", "message": "閴存潈澶辫触"}, "success": false}</t>
         </is>
@@ -6081,21 +6136,25 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="G12" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "False"}</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I12" s="11" t="n"/>
     </row>
-    <row r="13" ht="40.5" customHeight="1" s="1">
+    <row r="13" ht="50" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>partnerCode不传</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -6110,7 +6169,7 @@
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
@@ -6118,21 +6177,25 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="G13" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "False"}</t>
+        </is>
+      </c>
+      <c r="H13" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I13" s="11" t="n"/>
     </row>
-    <row r="14" ht="27" customHeight="1" s="1">
+    <row r="14" ht="50" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
           <t>appPackage不传</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -6142,12 +6205,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D14" s="15" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="16" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
@@ -6155,8 +6218,12 @@
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="11" t="inlineStr">
+      <c r="G14" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "False"}</t>
+        </is>
+      </c>
+      <c r="H14" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -6177,7 +6244,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -6292,7 +6359,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="40" customHeight="1" s="1">
+    <row r="7" ht="50" customHeight="1" s="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>有账号+自动续费+全屏</t>
@@ -6314,7 +6381,7 @@
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -6322,15 +6389,19 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="G7" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I7" s="11" t="n"/>
     </row>
-    <row r="8" ht="40" customHeight="1" s="1">
+    <row r="8" ht="50" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>有账号+自动续费+横屏(目前不支持)</t>
@@ -6353,7 +6424,7 @@
 "renewal": "Y", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -6361,15 +6432,19 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I8" s="11" t="n"/>
     </row>
-    <row r="9" ht="40" customHeight="1" s="1">
+    <row r="9" ht="50" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>有账号+普通支付+全屏</t>
@@ -6392,7 +6467,7 @@
 "renewal": "N", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -6400,15 +6475,19 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="G9" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H9" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I9" s="11" t="n"/>
     </row>
-    <row r="10" ht="40" customHeight="1" s="1">
+    <row r="10" ht="50" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
           <t>有账号+普通支付+横屏</t>
@@ -6431,7 +6510,7 @@
 "renewal": "N", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -6439,15 +6518,19 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="G10" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H10" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I10" s="11" t="n"/>
     </row>
-    <row r="11" ht="40" customHeight="1" s="1">
+    <row r="11" ht="50" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>无账号+普通支付+全屏</t>
@@ -6470,7 +6553,7 @@
 "renewal": "N", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -6478,15 +6561,19 @@
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="G11" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H11" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I11" s="11" t="n"/>
     </row>
-    <row r="12" ht="40" customHeight="1" s="1">
+    <row r="12" ht="50" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
           <t>无账号+普通支付+横屏(目前不支持)</t>
@@ -6509,7 +6596,7 @@
 "renewal": "N", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -6517,15 +6604,19 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="G12" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I12" s="11" t="n"/>
     </row>
-    <row r="13" ht="40" customHeight="1" s="1">
+    <row r="13" ht="50" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>无账号+自动续费+全屏(目前不支持)</t>
@@ -6548,7 +6639,7 @@
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -6556,15 +6647,19 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="G13" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H13" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I13" s="11" t="n"/>
     </row>
-    <row r="14" ht="40" customHeight="1" s="1">
+    <row r="14" ht="50" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
           <t>无账号+自动续费+横屏(目前不支持)</t>
@@ -6587,7 +6682,7 @@
 "renewal": "Y", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -6595,15 +6690,19 @@
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="inlineStr">
+      <c r="G14" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I14" s="11" t="n"/>
     </row>
-    <row r="15" ht="40" customHeight="1" s="1">
+    <row r="15" ht="50" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>proceessToken传入不正确</t>
@@ -6626,7 +6725,7 @@
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="16" t="inlineStr">
         <is>
           <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
         </is>
@@ -6634,15 +6733,19 @@
       <c r="F15" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "False"}</t>
+        </is>
+      </c>
+      <c r="H15" s="18" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
     </row>
-    <row r="16" ht="40" customHeight="1" s="1">
+    <row r="16" ht="50" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
         <is>
           <t>partnerId不传</t>
@@ -6664,7 +6767,7 @@
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="E16" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -6672,15 +6775,19 @@
       <c r="F16" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="inlineStr">
+      <c r="G16" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H16" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
       <c r="I16" s="11" t="n"/>
     </row>
-    <row r="17" ht="40" customHeight="1" s="1">
+    <row r="17" ht="50" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>partnerId不存在</t>
@@ -6702,7 +6809,7 @@
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="16" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -6710,8 +6817,12 @@
       <c r="F17" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>{"success": "True"}</t>
+        </is>
+      </c>
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="simplepay_recharge_spend" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
     <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202104251016222086776969164442%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22TsC7T0TLJj9HrqwjVdIS%252BXDctTWo9JZlMqnApD5AsjZCe7sioj31Vz%252Bqg975hCYK8v3qPkx4rtX7cEb2pMmwqZ7P%252BMYis4qwb2RIl3SCT%252Ftk3NxwlP%252FXoMrixv6aEiVrHaKDJ%252BgPtOP3TwThpXldDD3aDtVx5c8DYlbokv1ZxGA%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202104251016222086776969164442\"}"}, "payrequestid": "RM202104251016222086776969164442"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202105081607362086780423436812%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22rQPTrh%252B%252B9Ek6k9ymEvo%252FRsMAjmHzq5GvUxeASYa5D7NNvi6OGys%252Be7bPy26BFDP7Nu49SBIlqw48RvZoe3bTXOepQ2BENbQ8Bs57g8h43s5YtG%252Fr7BHDHVzFLJrBQFSW%252B%252Bt6PfrLp05fyjvxnGeeMSE283FIksXKuEu%252BKoR1YDc%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202105081607362086780423436812\"}"}, "payrequestid": "RM202105081607362086780423436812"}</t>
   </si>
   <si>
     <t>passed</t>
@@ -661,7 +661,7 @@
     <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"a5726a8635f3442aafda5828e38924cc\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx2510162291567098a390882fa14b120000\",\"sign\":\"F86874D5E9A17DF678C87E6DC1F32F5B\",\"timestamp\":\"1619316982\"}"}, "payrequestid": "RM202104251016222086776969061032"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"ce0add29b2a94ae7b93d13638787e409\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx081607375399685afa268f43ae53720000\",\"sign\":\"BDA76E2B716CBB2B26B8B7C5B619FCB0\",\"timestamp\":\"1620461257\"}"}, "payrequestid": "RM202105081607372086780423628842"}</t>
   </si>
   <si>
     <t>直扣-qq钱包</t>
@@ -670,13 +670,13 @@
     <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b1ef14ba5b462665b4214c936775802f\",\"pubAcc\":\"\",\"sig\":\"P7uBnZZDZZA0qdj6win1YD6AziM=\",\"tokenId\":\"6M901d38b23111778fdbcf8bc2aac06c\"}"}, "payrequestid": "RM202104251016232086776969537212"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"802c2e989cf93c6cb52b808a3e1c9cee\",\"pubAcc\":\"\",\"sig\":\"K5vmwVnY+DE/2Gd5mlVe25PqFZs=\",\"tokenId\":\"6M3c58144a48c43a1abcc93ae86a8936\"}"}, "payrequestid": "RM202105081607372086780423777302"}</t>
   </si>
   <si>
     <t>直扣-oppopay</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b1ef14ba5b462665b4214c936775802f\",\"pubAcc\":\"\",\"sig\":\"IYzt/dR5xObGfnTOeTxQrk1wEYo=\",\"tokenId\":\"6Mabf08c5e44c2da3c3df8f1e0989029\"}"}, "payrequestid": "RM202104251016232086776969486272"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"61e26fc612d46bb584a9c25c66d9476d\",\"pubAcc\":\"\",\"sig\":\"BdDlDdRw4oKq+Wu44omG/BaE+pQ=\",\"tokenId\":\"6M85ad9556285189a83d07e6e3bd2f73\"}"}, "payrequestid": "RM202105081607392086780423207652"}</t>
   </si>
   <si>
     <t>批量发放优惠券测试用例集</t>
@@ -792,11 +792,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -865,75 +865,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -965,10 +896,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,7 +957,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,7 +965,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,25 +1016,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,25 +1070,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,61 +1124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,37 +1154,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,41 +1221,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,6 +1258,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1304,6 +1278,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,6 +1311,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1330,145 +1330,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3082,8 +3082,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -3476,8 +3476,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD38"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3631,16 +3631,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="17">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <f ca="1" t="shared" ref="D8:D12" si="0">RANDBETWEEN(1,10)</f>
+        <v>3</v>
       </c>
       <c r="E8" s="17">
-        <f ca="1" t="shared" ref="E8:E12" si="0">RANDBETWEEN(D8,9999)</f>
-        <v>1929</v>
+        <f ca="1" t="shared" ref="E8:E12" si="1">RANDBETWEEN(D8,9999)</f>
+        <v>1231</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1" t="shared" ref="F8:F12" si="1">ROUND(RAND(),2)</f>
-        <v>0.65</v>
+        <f ca="1" t="shared" ref="F8:F12" si="2">ROUND(RAND(),2)</f>
+        <v>0.16</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="17"/>
@@ -3648,7 +3648,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17">
-        <f ca="1" t="shared" ref="L8:L12" si="2">RANDBETWEEN(0,1)</f>
+        <f ca="1" t="shared" ref="L8:L12" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="M8" s="17"/>
@@ -3667,16 +3667,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="17">
-        <f ca="1" t="shared" ref="D8:D12" si="3">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E9" s="17">
         <f ca="1">RANDBETWEEN(D9,20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.97</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.6</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3684,8 +3684,8 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17">
-        <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" t="s">
@@ -3703,16 +3703,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="17">
-        <f ca="1" t="shared" si="3"/>
-        <v>8</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E10" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>6658</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>9550</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.1</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.82</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3720,7 +3720,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1" t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="17"/>
@@ -3739,16 +3739,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="17">
-        <f ca="1" t="shared" si="3"/>
-        <v>8</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E11" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>4381</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>5214</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.8</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.17</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3756,8 +3756,8 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17">
-        <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" t="s">
@@ -3775,16 +3775,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="17">
-        <f ca="1" t="shared" si="3"/>
-        <v>6</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E12" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>8744</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>2710</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.11</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3792,7 +3792,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1" t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="17"/>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="973" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="simplepay_recharge_spend" sheetId="1" r:id="rId1"/>
@@ -12,21 +12,26 @@
     <sheet name="simplepay_recharge" sheetId="3" r:id="rId3"/>
     <sheet name="simplepay_no_login" sheetId="4" r:id="rId4"/>
     <sheet name="grant_multi_vouchers" sheetId="5" r:id="rId5"/>
-    <sheet name="simplepay_autosign" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="get_link_info" sheetId="6" r:id="rId6"/>
+    <sheet name="get_marketing_info" sheetId="7" r:id="rId7"/>
+    <sheet name="process_token" sheetId="8" r:id="rId8"/>
+    <sheet name="list_pay_types" sheetId="9" r:id="rId9"/>
+    <sheet name="get_pay_result_activity" sheetId="11" r:id="rId10"/>
+    <sheet name="simplepay_autosign" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">simplepay_recharge_spend!$A$6:$I$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">simplepay_direct!$A$6:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplepay_recharge!$A$6:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">simplepay_no_login!$A$6:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">simplepay_autosign!$A$6:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">simplepay_autosign!$A$6:$I$28</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282">
   <si>
     <t>Test suite名称</t>
   </si>
@@ -649,7 +654,7 @@
     <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202105081607362086780423436812%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22rQPTrh%252B%252B9Ek6k9ymEvo%252FRsMAjmHzq5GvUxeASYa5D7NNvi6OGys%252Be7bPy26BFDP7Nu49SBIlqw48RvZoe3bTXOepQ2BENbQ8Bs57g8h43s5YtG%252Fr7BHDHVzFLJrBQFSW%252B%252Bt6PfrLp05fyjvxnGeeMSE283FIksXKuEu%252BKoR1YDc%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202105081607362086780423436812\"}"}, "payrequestid": "RM202105081607362086780423436812"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM202105141531282086776969068242%22%26subject%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26body%3D%22%E6%94%AF%E4%BB%98Demo%E6%B5%8B%E8%AF%95%E5%95%86%E5%93%81%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22nESxQM0%252B68z4OmiH6MQQWcFyMKYRLu4xh740y84YtFhZVFn2A5%252FpBj3GKS4WfNu17h8wpY5HZQL5rU%252BhZHA%252BezzqF3J2qFFS7K9uym2ZXqazmAN1uFVi9hlkbBaaGkhRJhnSM4q7FPtSFPFDXxW60pzy0bSFsimLmPq3CjhA%252FK4%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM202105141531282086776969068242\"}"}, "payrequestid": "RM202105141531282086776969068242"}</t>
   </si>
   <si>
     <t>passed</t>
@@ -661,7 +666,7 @@
     <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.136.248","isNeedExpend":"0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"ce0add29b2a94ae7b93d13638787e409\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx081607375399685afa268f43ae53720000\",\"sign\":\"BDA76E2B716CBB2B26B8B7C5B619FCB0\",\"timestamp\":\"1620461257\"}"}, "payrequestid": "RM202105081607372086780423628842"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"63f958f023d5452ab147ca71f9fc1956\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx1415312879265359873312883b68b10000\",\"sign\":\"9835400DEAAE9D3AE88C3EB0354417ED\",\"timestamp\":\"1620977488\"}"}, "payrequestid": "RM202105141531282086776969810772"}</t>
   </si>
   <si>
     <t>直扣-qq钱包</t>
@@ -670,13 +675,13 @@
     <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "qqwallet","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"802c2e989cf93c6cb52b808a3e1c9cee\",\"pubAcc\":\"\",\"sig\":\"K5vmwVnY+DE/2Gd5mlVe25PqFZs=\",\"tokenId\":\"6M3c58144a48c43a1abcc93ae86a8936\"}"}, "payrequestid": "RM202105081607372086780423777302"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b70742479bbac554e07deda9d6194a68\",\"pubAcc\":\"\",\"sig\":\"++adfJ3ye5dpyNKbAHqrU/hPWZc=\",\"tokenId\":\"6M0d34dfb700b5d569977bbacbf17c66\"}"}, "payrequestid": "RM202105141531292086776969762372"}</t>
   </si>
   <si>
     <t>直扣-oppopay</t>
   </si>
   <si>
-    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"61e26fc612d46bb584a9c25c66d9476d\",\"pubAcc\":\"\",\"sig\":\"BdDlDdRw4oKq+Wu44omG/BaE+pQ=\",\"tokenId\":\"6M85ad9556285189a83d07e6e3bd2f73\"}"}, "payrequestid": "RM202105081607392086780423207652"}</t>
+    <t>{"baseresult": {"code": "0000", "msg": "{\"appId\":\"1104946420\",\"bargainorId\":\"1282256301\",\"nonce\":\"b70742479bbac554e07deda9d6194a68\",\"pubAcc\":\"\",\"sig\":\"Md1/ptuPZcwHXLXm3wONcb/+n/M=\",\"tokenId\":\"6M5efc6a6619cb9dc9a29f35c522f2aa\"}"}, "payrequestid": "RM202105141531292086776969441052"}</t>
   </si>
   <si>
     <t>批量发放优惠券测试用例集</t>
@@ -785,6 +790,268 @@
   </si>
   <si>
     <t>会员红包券</t>
+  </si>
+  <si>
+    <t>营销信息-获取跳转链接信息</t>
+  </si>
+  <si>
+    <t>/api/marketing/v290/get-link-info</t>
+  </si>
+  <si>
+    <t>配置信息有加购位</t>
+  </si>
+  <si>
+    <t>{"partnerId": "5456925"}</t>
+  </si>
+  <si>
+    <t>{"data": {"vipRights": [{"description": "鏇村鍙竵鍒�", "imgUrl": "https://fast-wallet-test.wanyol.com/file/pay/20201120/0031cf18-8223-40ae-b130-154a939cbe9e.jpg", "name": "蹇幓棰嗗彇鏇村鍙竵鍒�", "redirectUrl": "uc://platform.usercenter.com/innerbrowser?min_version=523&amp;url=https%3A%2F%2Fuc3-h5-test.wanyol.com%2Fvip%2fvip_gamePrivilege.html%3fisGradualToolbar%3dtrue%26isTranslucentBar%3dtrue%26LoadInCurrentPage%3dfalse%26source%3dusercenter_message_link_zz"}]}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success":"True"}</t>
+  </si>
+  <si>
+    <t>配置信息无加购位</t>
+  </si>
+  <si>
+    <t>{"partnerId": "888888"}</t>
+  </si>
+  <si>
+    <t>{"data": {"vipRights": []}, "success": true}</t>
+  </si>
+  <si>
+    <t>partnerId不传</t>
+  </si>
+  <si>
+    <t>{"partnerId": ""}</t>
+  </si>
+  <si>
+    <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
+  </si>
+  <si>
+    <t>{"success":"False"}</t>
+  </si>
+  <si>
+    <t>营销信息-获取营销信息</t>
+  </si>
+  <si>
+    <t>/api/marketing/v290/get-marketing-info</t>
+  </si>
+  <si>
+    <t>正常拉取会员加购位</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
+  </si>
+  <si>
+    <t>{"data": {"buyPlaceList": []}, "success": true}</t>
+  </si>
+  <si>
+    <t>金额传入负数</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "5456925","orderAmount": "-100", "factor": ""}</t>
+  </si>
+  <si>
+    <t>金额传入-</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "5456925","orderAmount": "0", "factor": ""}</t>
+  </si>
+  <si>
+    <t>passToken不正确</t>
+  </si>
+  <si>
+    <t>{"processToken": "error_token","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
+  </si>
+  <si>
+    <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
+  </si>
+  <si>
+    <t>业务线不传</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "","orderAmount": "100", "factor": ""}</t>
+  </si>
+  <si>
+    <t>传入不支持的业务线</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "99999","orderAmount": "", "factor": ""}</t>
+  </si>
+  <si>
+    <t>支付流程-获取流程凭证</t>
+  </si>
+  <si>
+    <t>/api/api/pay-flow/v290/get-process-token</t>
+  </si>
+  <si>
+    <t>支付apk获取凭证</t>
+  </si>
+  <si>
+    <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
+  </si>
+  <si>
+    <t>{"data": {"expireTime": 1621243514755, "processToken": "2nzYJhTZ6aQ3pC2b5xMUJm"}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success": "True"}</t>
+  </si>
+  <si>
+    <t>msp获取凭证</t>
+  </si>
+  <si>
+    <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+  </si>
+  <si>
+    <t>{"data": {"expireTime": 1621243514887, "processToken": "CeLec6zAuJwa6TtuhYwUw1"}, "success": true}</t>
+  </si>
+  <si>
+    <t>apk无账号获取凭证</t>
+  </si>
+  <si>
+    <t>{"data": {"expireTime": 1621243515005, "processToken": "B3vBN2z8LXyM22fiwCqbEf"}, "success": true}</t>
+  </si>
+  <si>
+    <t>msp无账号获取凭证</t>
+  </si>
+  <si>
+    <t>{"data": {"expireTime": 1621243515122, "processToken": "8vuWJ1kgwcnM1cuq75bfM9"}, "success": true}</t>
+  </si>
+  <si>
+    <t>msp获取凭证不传appId</t>
+  </si>
+  <si>
+    <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+  </si>
+  <si>
+    <t>{"data": {"expireTime": 1621243515238, "processToken": "HabxCfQrgYtuYFeEKTAAJz"}, "success": true}</t>
+  </si>
+  <si>
+    <t>token传入不正确</t>
+  </si>
+  <si>
+    <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
+  </si>
+  <si>
+    <t>{"error": {"code": "20000", "message": "閴存潈澶辫触"}, "success": false}</t>
+  </si>
+  <si>
+    <t>{"success": "False"}</t>
+  </si>
+  <si>
+    <t>partnerCode不传</t>
+  </si>
+  <si>
+    <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
+  </si>
+  <si>
+    <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
+  </si>
+  <si>
+    <t>appPackage不传</t>
+  </si>
+  <si>
+    <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
+  </si>
+  <si>
+    <t>支付流程-获取支付渠道列表</t>
+  </si>
+  <si>
+    <t>/api/pay-flow/v290/list-pay-types</t>
+  </si>
+  <si>
+    <t>有账号+自动续费+全屏</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "2031","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+  </si>
+  <si>
+    <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
+  </si>
+  <si>
+    <t>有账号+自动续费+横屏(目前不支持)</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "Y"}</t>
+  </si>
+  <si>
+    <t>{"data": {"payTypeList": []}, "success": true}</t>
+  </si>
+  <si>
+    <t>有账号+普通支付+全屏</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "N", "acrossScreen": "N"}</t>
+  </si>
+  <si>
+    <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
+  </si>
+  <si>
+    <t>有账号+普通支付+横屏</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "N", "acrossScreen": "Y"}</t>
+  </si>
+  <si>
+    <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
+  </si>
+  <si>
+    <t>无账号+普通支付+全屏</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "N", "acrossScreen": "N"}</t>
+  </si>
+  <si>
+    <t>无账号+普通支付+横屏(目前不支持)</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "N", "acrossScreen": "Y"}</t>
+  </si>
+  <si>
+    <t>无账号+自动续费+全屏(目前不支持)</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "Y", "acrossScreen": "N"}</t>
+  </si>
+  <si>
+    <t>无账号+自动续费+横屏(目前不支持)</t>
+  </si>
+  <si>
+    <t>{"processToken": "",
+"partnerId": "2031","accountExist": "N",
+"renewal": "Y", "acrossScreen": "Y"}</t>
+  </si>
+  <si>
+    <t>proceessToken传入不正确</t>
+  </si>
+  <si>
+    <t>{"processToken": "ERROR_TOKEN",
+"partnerId": "2031","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
+  </si>
+  <si>
+    <t>partnerId不存在</t>
+  </si>
+  <si>
+    <t>{"processToken": "","partnerId": "88888888888888","accountExist": "Y",
+"renewal": "Y", "acrossScreen": "N"}</t>
   </si>
 </sst>
 </file>
@@ -792,13 +1059,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +1105,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -848,13 +1127,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,21 +1145,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -919,58 +1220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -987,9 +1236,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,7 +1295,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,55 +1355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1385,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,73 +1463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,19 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,15 +1522,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1262,7 +1532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,6 +1567,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1311,17 +1601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1330,10 +1609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1342,137 +1621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1508,10 +1787,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,7 +2263,7 @@
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="10">
@@ -2022,7 +2322,7 @@
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="27" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="10">
@@ -2047,7 +2347,7 @@
       <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10">
@@ -2072,7 +2372,7 @@
       <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="10">
@@ -2097,7 +2397,7 @@
       <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="10">
@@ -2122,7 +2422,7 @@
       <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="27" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="10">
@@ -2147,7 +2447,7 @@
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="28" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="10">
@@ -2172,7 +2472,7 @@
       <c r="D17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="10">
@@ -2197,7 +2497,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="10">
@@ -2244,7 +2544,7 @@
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="5"/>
@@ -2267,7 +2567,7 @@
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="26" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="5"/>
@@ -2290,7 +2590,7 @@
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="5"/>
@@ -2341,7 +2641,7 @@
       <c r="D24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="10">
@@ -2537,7 +2837,7 @@
       <c r="D32" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="10">
@@ -2562,7 +2862,7 @@
       <c r="D33" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="10">
@@ -2587,7 +2887,7 @@
       <c r="D34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="27" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="10">
@@ -2612,7 +2912,7 @@
       <c r="D35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F35" s="10">
@@ -2637,7 +2937,7 @@
       <c r="D36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="27" t="s">
         <v>101</v>
       </c>
       <c r="F36" s="10">
@@ -2662,7 +2962,7 @@
       <c r="D37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="27" t="s">
         <v>104</v>
       </c>
       <c r="F37" s="10">
@@ -2687,7 +2987,7 @@
       <c r="D38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="10">
@@ -2712,7 +3012,7 @@
       <c r="D39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="27" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="10">
@@ -2737,7 +3037,7 @@
       <c r="D40" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F40" s="10">
@@ -2762,7 +3062,7 @@
       <c r="D41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="27" t="s">
         <v>116</v>
       </c>
       <c r="F41" s="10">
@@ -2787,7 +3087,7 @@
       <c r="D42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="27" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="10">
@@ -2812,7 +3112,7 @@
       <c r="D43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F43" s="10">
@@ -2862,7 +3162,7 @@
       <c r="D45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="27" t="s">
         <v>130</v>
       </c>
       <c r="F45" s="10">
@@ -2937,7 +3237,7 @@
       <c r="D48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="27" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="10">
@@ -3012,7 +3312,7 @@
       <c r="D51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="27" t="s">
         <v>148</v>
       </c>
       <c r="F51" s="10">
@@ -3072,6 +3372,663 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:I53"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="49.1583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.8916666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="10">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="10">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="10">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="10">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="10">
+        <v>200</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="10">
+        <v>200</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="10">
+        <v>200</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="10">
+        <v>200</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="10">
+        <v>200</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="10">
+        <v>200</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="10">
+        <v>500</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A25" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="10">
+        <v>500</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="10">
+        <v>200</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10">
+        <v>200</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <v>200</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:I28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3082,8 +4039,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -3176,7 +4133,7 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="26" t="s">
         <v>154</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3203,7 +4160,7 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="26" t="s">
         <v>158</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -3230,7 +4187,7 @@
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>161</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3257,7 +4214,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>161</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -3287,7 +4244,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3477,7 +4434,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3500,7 +4457,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3508,7 +4465,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3516,7 +4473,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3524,13 +4481,13 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:14">
       <c r="A6" s="6" t="s">
@@ -3577,43 +4534,43 @@
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="22" t="s">
         <v>192</v>
       </c>
       <c r="N7" t="s">
@@ -3621,181 +4578,181 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A8" s="16">
+      <c r="A8" s="23">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="24">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="24">
         <f ca="1" t="shared" ref="D8:D12" si="0">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="17">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24">
         <f ca="1" t="shared" ref="E8:E12" si="1">RANDBETWEEN(D8,9999)</f>
-        <v>1231</v>
-      </c>
-      <c r="F8" s="17">
+        <v>4233</v>
+      </c>
+      <c r="F8" s="24">
         <f ca="1" t="shared" ref="F8:F12" si="2">ROUND(RAND(),2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24">
         <f ca="1" t="shared" ref="L8:L12" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="24"/>
       <c r="N8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A9" s="16">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E9" s="17">
+        <v>8</v>
+      </c>
+      <c r="E9" s="24">
         <f ca="1">RANDBETWEEN(D9,20)</f>
-        <v>7</v>
-      </c>
-      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="F9" s="24">
         <f ca="1" t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24">
         <f ca="1" t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="24"/>
       <c r="N9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A10" s="16">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="24">
         <f ca="1" t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E10" s="17">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24">
         <f ca="1" t="shared" si="1"/>
-        <v>9550</v>
-      </c>
-      <c r="F10" s="17">
+        <v>8523</v>
+      </c>
+      <c r="F10" s="24">
         <f ca="1" t="shared" si="2"/>
-        <v>0.82</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" spans="1:14">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="24">
+        <f ca="1" t="shared" si="1"/>
+        <v>8593</v>
+      </c>
+      <c r="F11" s="24">
+        <f ca="1" t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24">
         <f ca="1" t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A11" s="16">
+      <c r="M11" s="24"/>
+      <c r="N11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" spans="1:14">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <f ca="1" t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="E12" s="24">
         <f ca="1" t="shared" si="1"/>
-        <v>5214</v>
-      </c>
-      <c r="F11" s="17">
+        <v>1895</v>
+      </c>
+      <c r="F12" s="24">
         <f ca="1" t="shared" si="2"/>
-        <v>0.17</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24">
         <f ca="1" t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A12" s="16">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <f ca="1" t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E12" s="17">
-        <f ca="1" t="shared" si="1"/>
-        <v>2710</v>
-      </c>
-      <c r="F12" s="17">
-        <f ca="1" t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17">
-        <f ca="1" t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="24"/>
       <c r="N12" t="s">
         <v>200</v>
       </c>
@@ -3809,16 +4766,190 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.1583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
@@ -3826,26 +4957,25 @@
     <col min="7" max="7" width="24.775" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.8916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:2">
+    <row r="1" ht="18" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="22" customHeight="1" spans="1:2">
+      <c r="B1" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="22" customHeight="1" spans="1:2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3853,19 +4983,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1" spans="1:2">
+    <row r="4" ht="18" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" ht="22" customHeight="1" spans="1:2">
+    <row r="5" ht="18" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" ht="22" customHeight="1" spans="1:9">
+    <row r="6" ht="18" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -3894,554 +5024,868 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:9">
+    <row r="7" ht="50" customHeight="1" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>216</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>87</v>
+      <c r="D7" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="F7" s="10">
         <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:9">
+    <row r="8" ht="50" customHeight="1" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>91</v>
+      <c r="D8" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="F8" s="10">
         <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:9">
+    <row r="9" ht="50" customHeight="1" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>239</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>94</v>
+      <c r="D9" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="F9" s="10">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="G9" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:9">
+    <row r="10" ht="50" customHeight="1" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>241</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>97</v>
+      <c r="D10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="F10" s="10">
         <v>200</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="G10" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:9">
+    <row r="11" ht="50" customHeight="1" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>243</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>101</v>
+      <c r="D11" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F11" s="10">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="11"/>
+      <c r="G11" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:9">
+    <row r="12" ht="50" customHeight="1" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>104</v>
+      <c r="D12" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="F12" s="10">
         <v>200</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="G12" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:9">
+    <row r="13" ht="50" customHeight="1" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>33</v>
+      <c r="D13" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="11"/>
+      <c r="G13" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:9">
+    <row r="14" ht="50" customHeight="1" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>110</v>
+      <c r="D14" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="F14" s="10">
         <v>200</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="11"/>
+      <c r="G14" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:9">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1083333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="10">
+        <v>200</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>113</v>
+      <c r="D15" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="F15" s="10">
         <v>200</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="11"/>
+      <c r="G15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:9">
+    <row r="16" ht="24" customHeight="1" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>116</v>
+      <c r="D16" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="F16" s="10">
         <v>200</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="11"/>
+      <c r="G16" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:9">
+    <row r="17" ht="24" customHeight="1" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>119</v>
+      <c r="D17" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="F17" s="10">
         <v>200</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="G17" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A18" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="10">
-        <v>200</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="10">
-        <v>200</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="10">
-        <v>200</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A21" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="10">
-        <v>200</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="10">
-        <v>200</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="10">
-        <v>200</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="10">
-        <v>500</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A25" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="10">
-        <v>500</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="10">
-        <v>200</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A27" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10">
-        <v>200</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A28" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10">
-        <v>200</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A6:I28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -130,39 +130,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -176,8 +153,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,17 +183,69 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,45 +259,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -286,7 +286,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +328,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,151 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,15 +529,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -569,26 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -612,19 +612,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -633,116 +633,116 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,9 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -1364,8 +1361,8 @@
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="10" t="n"/>
       <c r="G7" s="7" t="n"/>
-      <c r="H7" s="17" t="n"/>
-      <c r="I7" s="17" t="n"/>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -1389,7 +1386,7 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
+      <c r="E8" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1408,8 +1405,8 @@
           <t>{"code":"0000","payrequestid":"KB20"}</t>
         </is>
       </c>
-      <c r="H8" s="17" t="n"/>
-      <c r="I8" s="17" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -1431,8 +1428,8 @@
       <c r="E9" s="5" t="n"/>
       <c r="F9" s="10" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="17" t="n"/>
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -1454,8 +1451,8 @@
       <c r="E10" s="5" t="n"/>
       <c r="F10" s="10" t="n"/>
       <c r="G10" s="7" t="n"/>
-      <c r="H10" s="17" t="n"/>
-      <c r="I10" s="17" t="n"/>
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -1479,7 +1476,7 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
+      <c r="E11" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1498,8 +1495,8 @@
           <t>{"code":"0000","payrequestid":"KB20"}</t>
         </is>
       </c>
-      <c r="H11" s="17" t="n"/>
-      <c r="I11" s="17" t="n"/>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -1522,7 +1519,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "szfpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
+      <c r="E12" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1541,8 +1538,8 @@
           <t>{"code":"1088"}</t>
         </is>
       </c>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="17" t="n"/>
+      <c r="H12" s="11" t="n"/>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
@@ -1565,7 +1562,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "tenpay","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
+      <c r="E13" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -1584,8 +1581,8 @@
           <t>{"code":""}</t>
         </is>
       </c>
-      <c r="H13" s="17" t="n"/>
-      <c r="I13" s="17" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
@@ -1608,7 +1605,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "xiaoyao","amount": "100.0","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.193","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
+      <c r="E14" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1627,8 +1624,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H14" s="17" t="n"/>
-      <c r="I14" s="17" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
@@ -1651,7 +1648,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "-0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
+      <c r="E15" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1670,8 +1667,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H15" s="17" t="n"/>
-      <c r="I15" s="17" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
@@ -1694,7 +1691,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="32" t="inlineStr">
+      <c r="E16" s="31" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "13"
@@ -1713,8 +1710,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H16" s="17" t="n"/>
-      <c r="I16" s="17" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
@@ -1737,7 +1734,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "/xiaoyaoisasunshileman1997","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="31" t="inlineStr">
+      <c r="E17" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -1756,8 +1753,8 @@
           <t>{"code":"1200"}</t>
         </is>
       </c>
-      <c r="H17" s="17" t="n"/>
-      <c r="I17" s="17" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="11" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="1">
       <c r="A18" s="7" t="inlineStr">
@@ -1780,7 +1777,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "","amount": "0.01","cardno": "","cardpwd":"","ext": "","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "3.1.5","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"sign": "","ip": "112.97.217.16","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E18" s="31" t="inlineStr">
+      <c r="E18" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -1799,8 +1796,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H18" s="17" t="n"/>
-      <c r="I18" s="17" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="11" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="1">
       <c r="A19" s="7" t="inlineStr">
@@ -1832,8 +1829,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H19" s="17" t="n"/>
-      <c r="I19" s="17" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="11" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="1">
       <c r="A20" s="7" t="inlineStr">
@@ -1865,8 +1862,8 @@
           <t>{"resCode":"0000","order":"RM20"}</t>
         </is>
       </c>
-      <c r="H20" s="17" t="n"/>
-      <c r="I20" s="17" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="11" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="1">
       <c r="A21" s="7" t="inlineStr">
@@ -1898,8 +1895,8 @@
           <t>{"resCode":"0000","order":"RM20"}</t>
         </is>
       </c>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="17" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="11" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="1">
       <c r="A22" s="7" t="inlineStr">
@@ -1931,8 +1928,8 @@
           <t>{"resCode":"0000","order":"RM20"}</t>
         </is>
       </c>
-      <c r="H22" s="17" t="n"/>
-      <c r="I22" s="17" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="1">
       <c r="A23" s="5" t="inlineStr">
@@ -1964,8 +1961,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H23" s="17" t="n"/>
-      <c r="I23" s="17" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="11" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="1">
       <c r="A24" s="5" t="inlineStr">
@@ -1988,7 +1985,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "-1","oriAmount": "-1","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E24" s="31" t="inlineStr">
+      <c r="E24" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2006,8 +2003,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H24" s="17" t="n"/>
-      <c r="I24" s="17" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="1">
       <c r="A25" s="5" t="inlineStr">
@@ -2039,8 +2036,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H25" s="17" t="n"/>
-      <c r="I25" s="17" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="1">
       <c r="A26" s="5" t="inlineStr">
@@ -2072,8 +2069,8 @@
           <t>{"code":"5003"}</t>
         </is>
       </c>
-      <c r="H26" s="17" t="n"/>
-      <c r="I26" s="17" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="1">
       <c r="A27" s="12" t="inlineStr">
@@ -2105,8 +2102,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H27" s="17" t="n"/>
-      <c r="I27" s="17" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="11" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="1">
       <c r="A28" s="12" t="inlineStr">
@@ -2138,8 +2135,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H28" s="17" t="n"/>
-      <c r="I28" s="17" t="n"/>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="11" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="1">
       <c r="A29" s="12" t="inlineStr">
@@ -2171,8 +2168,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H29" s="17" t="n"/>
-      <c r="I29" s="17" t="n"/>
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="11" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="1">
       <c r="A30" s="5" t="inlineStr">
@@ -2204,8 +2201,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H30" s="17" t="n"/>
-      <c r="I30" s="17" t="n"/>
+      <c r="H30" s="11" t="n"/>
+      <c r="I30" s="11" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="1">
       <c r="A31" s="5" t="inlineStr">
@@ -2237,8 +2234,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H31" s="17" t="n"/>
-      <c r="I31" s="17" t="n"/>
+      <c r="H31" s="11" t="n"/>
+      <c r="I31" s="11" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="1">
       <c r="A32" s="7" t="inlineStr">
@@ -2261,7 +2258,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E32" s="31" t="inlineStr">
+      <c r="E32" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -2280,8 +2277,8 @@
           <t>{"code":"W001"}</t>
         </is>
       </c>
-      <c r="H32" s="17" t="n"/>
-      <c r="I32" s="17" t="n"/>
+      <c r="H32" s="11" t="n"/>
+      <c r="I32" s="11" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="1">
       <c r="A33" s="7" t="inlineStr">
@@ -2304,7 +2301,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E33" s="31" t="inlineStr">
+      <c r="E33" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2323,8 +2320,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H33" s="17" t="n"/>
-      <c r="I33" s="17" t="n"/>
+      <c r="H33" s="11" t="n"/>
+      <c r="I33" s="11" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="1">
       <c r="A34" s="7" t="inlineStr">
@@ -2347,7 +2344,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E34" s="31" t="inlineStr">
+      <c r="E34" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -2366,8 +2363,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H34" s="17" t="n"/>
-      <c r="I34" s="17" t="n"/>
+      <c r="H34" s="11" t="n"/>
+      <c r="I34" s="11" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="1">
       <c r="A35" s="7" t="inlineStr">
@@ -2390,7 +2387,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E35" s="31" t="inlineStr">
+      <c r="E35" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2409,8 +2406,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H35" s="17" t="n"/>
-      <c r="I35" s="17" t="n"/>
+      <c r="H35" s="11" t="n"/>
+      <c r="I35" s="11" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="1">
       <c r="A36" s="7" t="inlineStr">
@@ -2433,7 +2430,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E36" s="31" t="inlineStr">
+      <c r="E36" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2452,8 +2449,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H36" s="17" t="n"/>
-      <c r="I36" s="17" t="n"/>
+      <c r="H36" s="11" t="n"/>
+      <c r="I36" s="11" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="1">
       <c r="A37" s="7" t="inlineStr">
@@ -2476,7 +2473,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E37" s="31" t="inlineStr">
+      <c r="E37" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -2495,8 +2492,8 @@
           <t>{"code":"A001"}</t>
         </is>
       </c>
-      <c r="H37" s="17" t="n"/>
-      <c r="I37" s="17" t="n"/>
+      <c r="H37" s="11" t="n"/>
+      <c r="I37" s="11" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="1">
       <c r="A38" s="7" t="inlineStr">
@@ -2519,7 +2516,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E38" s="31" t="inlineStr">
+      <c r="E38" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -2538,8 +2535,8 @@
           <t>{"code":""}</t>
         </is>
       </c>
-      <c r="H38" s="17" t="n"/>
-      <c r="I38" s="17" t="n"/>
+      <c r="H38" s="11" t="n"/>
+      <c r="I38" s="11" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="1">
       <c r="A39" s="7" t="inlineStr">
@@ -2562,7 +2559,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E39" s="31" t="inlineStr">
+      <c r="E39" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2581,8 +2578,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H39" s="17" t="n"/>
-      <c r="I39" s="17" t="n"/>
+      <c r="H39" s="11" t="n"/>
+      <c r="I39" s="11" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="1">
       <c r="A40" s="7" t="inlineStr">
@@ -2605,7 +2602,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E40" s="31" t="inlineStr">
+      <c r="E40" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -2624,8 +2621,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H40" s="17" t="n"/>
-      <c r="I40" s="17" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="11" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="1">
       <c r="A41" s="7" t="inlineStr">
@@ -2648,7 +2645,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E41" s="31" t="inlineStr">
+      <c r="E41" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2667,8 +2664,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H41" s="17" t="n"/>
-      <c r="I41" s="17" t="n"/>
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="11" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="1">
       <c r="A42" s="7" t="inlineStr">
@@ -2691,7 +2688,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E42" s="31" t="inlineStr">
+      <c r="E42" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2710,8 +2707,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H42" s="17" t="n"/>
-      <c r="I42" s="17" t="n"/>
+      <c r="H42" s="11" t="n"/>
+      <c r="I42" s="11" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="1">
       <c r="A43" s="12" t="inlineStr">
@@ -2734,7 +2731,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E43" s="31" t="inlineStr">
+      <c r="E43" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2754,8 +2751,8 @@
           <t>{"code":"0000","payrequestid":"KB20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H43" s="17" t="n"/>
-      <c r="I43" s="17" t="n"/>
+      <c r="H43" s="11" t="n"/>
+      <c r="I43" s="11" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="1">
       <c r="A44" s="5" t="inlineStr">
@@ -2798,8 +2795,8 @@
           <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H44" s="17" t="n"/>
-      <c r="I44" s="17" t="n"/>
+      <c r="H44" s="11" t="n"/>
+      <c r="I44" s="11" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="1">
       <c r="A45" s="5" t="inlineStr">
@@ -2822,7 +2819,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E45" s="31" t="inlineStr">
+      <c r="E45" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2842,8 +2839,8 @@
           <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"H5"}</t>
         </is>
       </c>
-      <c r="H45" s="17" t="n"/>
-      <c r="I45" s="17" t="n"/>
+      <c r="H45" s="11" t="n"/>
+      <c r="I45" s="11" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="1">
       <c r="A46" s="12" t="inlineStr">
@@ -2886,8 +2883,8 @@
           <t>{"code":"5003","payrequestid":"","transType":"","signType":""}</t>
         </is>
       </c>
-      <c r="H46" s="17" t="n"/>
-      <c r="I46" s="17" t="n"/>
+      <c r="H46" s="11" t="n"/>
+      <c r="I46" s="11" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="1">
       <c r="A47" s="5" t="inlineStr">
@@ -2930,8 +2927,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H47" s="17" t="n"/>
-      <c r="I47" s="17" t="n"/>
+      <c r="H47" s="11" t="n"/>
+      <c r="I47" s="11" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="1">
       <c r="A48" s="5" t="inlineStr">
@@ -2954,7 +2951,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E48" s="31" t="inlineStr">
+      <c r="E48" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -2974,8 +2971,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H48" s="17" t="n"/>
-      <c r="I48" s="17" t="n"/>
+      <c r="H48" s="11" t="n"/>
+      <c r="I48" s="11" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="1">
       <c r="A49" s="12" t="inlineStr">
@@ -3007,8 +3004,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H49" s="17" t="n"/>
-      <c r="I49" s="17" t="n"/>
+      <c r="H49" s="11" t="n"/>
+      <c r="I49" s="11" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="1">
       <c r="A50" s="12" t="inlineStr">
@@ -3040,8 +3037,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H50" s="17" t="n"/>
-      <c r="I50" s="17" t="n"/>
+      <c r="H50" s="11" t="n"/>
+      <c r="I50" s="11" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="1">
       <c r="A51" s="12" t="inlineStr">
@@ -3064,7 +3061,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E51" s="31" t="inlineStr">
+      <c r="E51" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -3082,8 +3079,8 @@
           <t>{"code":"1200"}</t>
         </is>
       </c>
-      <c r="H51" s="17" t="n"/>
-      <c r="I51" s="17" t="n"/>
+      <c r="H51" s="11" t="n"/>
+      <c r="I51" s="11" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="1">
       <c r="A52" s="12" t="inlineStr">
@@ -3115,8 +3112,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H52" s="17" t="n"/>
-      <c r="I52" s="17" t="n"/>
+      <c r="H52" s="11" t="n"/>
+      <c r="I52" s="11" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="1">
       <c r="A53" s="12" t="inlineStr">
@@ -3148,8 +3145,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H53" s="17" t="n"/>
-      <c r="I53" s="17" t="n"/>
+      <c r="H53" s="11" t="n"/>
+      <c r="I53" s="11" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:I53"/>
@@ -3188,7 +3185,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>支付流程-获取支付渠道列表</t>
         </is>
@@ -3287,7 +3284,7 @@
           <t>有账号+自动续费+全屏</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -3297,13 +3294,13 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="20" t="inlineStr">
+      <c r="D7" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "2031","accountExist": "Y",
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E7" s="21" t="inlineStr">
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -3311,17 +3308,17 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H7" s="23" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="24" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -3329,7 +3326,7 @@
           <t>有账号+自动续费+横屏(目前不支持)</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3339,14 +3336,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "Y",
 "renewal": "Y", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E8" s="21" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -3354,17 +3351,17 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H8" s="23" t="inlineStr">
+      <c r="H8" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="24" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -3372,7 +3369,7 @@
           <t>有账号+普通支付+全屏</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -3382,14 +3379,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "Y",
 "renewal": "N", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E9" s="21" t="inlineStr">
+      <c r="E9" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -3397,17 +3394,17 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="22" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H9" s="23" t="inlineStr">
+      <c r="H9" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="24" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -3415,7 +3412,7 @@
           <t>有账号+普通支付+横屏</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -3425,14 +3422,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="20" t="inlineStr">
+      <c r="D10" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "Y",
 "renewal": "N", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E10" s="21" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -3440,17 +3437,17 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="22" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H10" s="23" t="inlineStr">
+      <c r="H10" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="24" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -3458,7 +3455,7 @@
           <t>无账号+普通支付+全屏</t>
         </is>
       </c>
-      <c r="B11" s="19" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -3468,14 +3465,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "N",
 "renewal": "N", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E11" s="21" t="inlineStr">
+      <c r="E11" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "10", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "绉嬭礉濂藉垎鏈焅t", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/finzpay_icon.png", "index": "0", "lastPayType": "N", "payType": "finzpay", "prompt": "finzpay", "smallIcon": "", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "9", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "0", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "4", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "7", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "8", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "6", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "3", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鑺卞憲鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/huabei.png", "index": "7", "lastPayType": "N", "payType": "alipay_hb", "prompt": "alipay_hb", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "3", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "娓告垙鐐瑰崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_game_default.png", "index": "5", "lastPayType": "N", "payType": "heepay", "prompt": "鏀寔楠忕綉涓�鍗￠�氥�佸彲甯佸崱", "subscripts": []}, {"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鎵嬫満鍏呭�煎崱", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_charge.png", "index": "4", "lastPayType": "N", "payType": "szfpay", "prompt": "鏀寔绉诲姩銆佽仈閫氥�佺數淇＄殑鍏呭�煎崱", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -3483,17 +3480,17 @@
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H11" s="23" t="inlineStr">
+      <c r="H11" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I11" s="17" t="n"/>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="24" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -3501,7 +3498,7 @@
           <t>无账号+普通支付+横屏(目前不支持)</t>
         </is>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3511,14 +3508,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="20" t="inlineStr">
+      <c r="D12" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "N",
 "renewal": "N", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E12" s="21" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "OPPO Pay 锛堟帹鑽愶級", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/oppopay.png", "index": "6", "lastPayType": "N", "payType": "oppopay", "prompt": "OPPO Pay", "smallIcon": "https://opayfs.nearme.com.cn/images/insidepay/images/union-small.png", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "QQ閽卞寘", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/qqwallet_icon.png", "index": "2", "lastPayType": "N", "payType": "qqwallet", "prompt": "鎺ㄨ崘鏈夎储浠橀�氳处鍙枫�丵Q璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "鎺ㄨ崘鏈夋敮浠樺疂璐﹀彿鐨勭敤鎴蜂娇鐢�", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -3526,17 +3523,17 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="22" t="inlineStr">
+      <c r="G12" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H12" s="23" t="inlineStr">
+      <c r="H12" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="17" t="n"/>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="24" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
@@ -3544,7 +3541,7 @@
           <t>无账号+自动续费+全屏(目前不支持)</t>
         </is>
       </c>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3554,14 +3551,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D13" s="20" t="inlineStr">
+      <c r="D13" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "N",
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E13" s="21" t="inlineStr">
+      <c r="E13" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": [{"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "1", "lastPayType": "N", "payType": "alipay", "prompt": "鏀粯瀹濆鎵樹唬鎵�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "寰俊濮旀墭浠ｆ墸", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "11", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "2", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "wxpay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "閾惰鍗�", "icon": "https://opayfs.nearme.com.cn/insidepay/images/near-me-y-v3.png", "index": "20", "lastPayType": "N", "payType": "bankplatform", "prompt": "鎺ㄨ崘鍌ㄨ搫鍗°�佷俊鐢ㄥ崱鎸佹湁鑰呬娇鐢�", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}, {"frontName": "鏀粯瀹�", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/alipay2.png", "index": "0", "lastPayType": "N", "payType": "alipay", "prompt": "alipay", "smallIcon": "", "subscripts": []}, {"frontName": "寰俊鏀粯", "icon": "https://opayfs.nearme.com.cn/images/insidepay/images/icon_nowpay.png", "index": "1", "lastPayType": "N", "payType": "wxpay", "prompt": "鎺ㄨ崘寰俊缁戝崱鐢ㄦ埛浣跨敤", "subscripts": []}]}, "success": true}</t>
         </is>
@@ -3569,17 +3566,17 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H13" s="23" t="inlineStr">
+      <c r="H13" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I13" s="17" t="n"/>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="24" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
@@ -3587,7 +3584,7 @@
           <t>无账号+自动续费+横屏(目前不支持)</t>
         </is>
       </c>
-      <c r="B14" s="19" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3597,14 +3594,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D14" s="20" t="inlineStr">
+      <c r="D14" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "",
 "partnerId": "2031","accountExist": "N",
 "renewal": "Y", "acrossScreen": "Y"}</t>
         </is>
       </c>
-      <c r="E14" s="21" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -3612,7 +3609,7 @@
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="22" t="inlineStr">
+      <c r="G14" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
@@ -3622,7 +3619,7 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I14" s="17" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15" ht="24" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
@@ -3630,7 +3627,7 @@
           <t>proceessToken传入不正确</t>
         </is>
       </c>
-      <c r="B15" s="19" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3640,14 +3637,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D15" s="20" t="inlineStr">
+      <c r="D15" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "ERROR_TOKEN",
 "partnerId": "2031","accountExist": "Y",
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E15" s="21" t="inlineStr">
+      <c r="E15" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
         </is>
@@ -3655,17 +3652,17 @@
       <c r="F15" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="22" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>{"success": "False"}</t>
         </is>
       </c>
-      <c r="H15" s="23" t="inlineStr">
+      <c r="H15" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I15" s="17" t="n"/>
+      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16" ht="24" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
@@ -3673,7 +3670,7 @@
           <t>partnerId不传</t>
         </is>
       </c>
-      <c r="B16" s="19" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3683,13 +3680,13 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D16" s="20" t="inlineStr">
+      <c r="D16" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "","accountExist": "Y",
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E16" s="21" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -3697,7 +3694,7 @@
       <c r="F16" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G16" s="22" t="inlineStr">
+      <c r="G16" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
@@ -3707,7 +3704,7 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I16" s="17" t="n"/>
+      <c r="I16" s="11" t="n"/>
     </row>
     <row r="17" ht="24" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
@@ -3715,7 +3712,7 @@
           <t>partnerId不存在</t>
         </is>
       </c>
-      <c r="B17" s="19" t="inlineStr">
+      <c r="B17" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -3725,13 +3722,13 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="19" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "88888888888888","accountExist": "Y",
 "renewal": "Y", "acrossScreen": "N"}</t>
         </is>
       </c>
-      <c r="E17" s="21" t="inlineStr">
+      <c r="E17" s="20" t="inlineStr">
         <is>
           <t>{"data": {"payTypeList": []}, "success": true}</t>
         </is>
@@ -3739,7 +3736,7 @@
       <c r="F17" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G17" s="22" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
@@ -3749,7 +3746,7 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I17" s="17" t="n"/>
+      <c r="I17" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3909,17 +3906,17 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4083,17 +4080,17 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -4124,17 +4121,17 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -4165,17 +4162,17 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -4206,17 +4203,17 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="17" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4361,7 +4358,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4494,28 +4491,28 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "aUeYZq9Dt7hVJE642KnPCSwTRvdyHsj1", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "53438bdb9a86f26c889f9ba1c2777fa8", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "SWngK5Xd2Fv98jKt6sdBuN", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "PTsvpZ19BHF6ozS4mCWilRxE70gjd2nf", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "2069d49e01f9aadc611f8bb80bd249f5", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"b44beccacd9642d7971a7cceeba79be6\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0220544818465144badec36833de2a0000\",\"sign\":\"F62DCFC939ADB5FDFF793ADF0A1E951D\",\"timestamp\":\"1625230488\"}", "payRequestId": "RM20210702205447208677696965188t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"242f25b311b942ae87af5f0420378097\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211534428058e915a0599b17b5c10000\",\"sign\":\"05E9B1060897A84414E0E7AC77DFF40B\",\"timestamp\":\"1625577334\"}", "payRequestId": "RM20210706211534208677696912422t"}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n">
+      <c r="I7" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,28 +4534,28 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "fiKgIMsmYH3aQzbycLrqT567tkGplNdW", "amount": 9999999, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 9999999, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "5106503c2f83f42e287051a60ff44c1e", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "GaGG6Ga8Mxt6X6Pcz8xioU", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "LXIQS6EqFROVciKpDBo1ZeawrAMst3Wn", "amount": 9999999, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 9999999, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "b7ac1958ea82a14add8e01dfbe81a1c0", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM20210702205448208677696913841t%22%26subject%3D%22test%22%26body%3D%22test+paydirect+pay-alipay%22%26total_fee%3D%2299999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22JO2PNSRm5dqI0p4vg7GiC%252B4ueYF%252Bymha7qHhsaqlsbEQMFVEiLebi15eDI0G5u1QXFprdFr6yCw6iQOGdxxjWJFiTLLhK3Y6hblA9yfm1eBeJyXZNMl3vCu6QbK194ZfTGGi0PdAu4O7ACOQX4CHYcyEHW5dxHSDcdLWZQ2Ytl8%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM20210702205448208677696913841t\"}", "payRequestId": "RM20210702205448208677696913841t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM20210706211534208677696910047t%22%26subject%3D%22test%22%26body%3D%22test+paydirect+pay-alipay%22%26total_fee%3D%2299999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22rXPG7jH0ePg0FzX7uih%252Bil31JXiKa58H%252BAnOB4AZrdEgDGe%252FD9CeX1c3ZVHciDEFE3eZbA%252BnDLDRWUuaw8%252FOCxbzqAa2kkLWOxDsPtOr1FeUOAOkd0WUGbftMfZurwDOcuTTM%252Fbf9h44CPFGbmaTV0%252FTsR2crXYe%252FtJ0MrxcXIw%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM20210706211534208677696910047t\"}", "payRequestId": "RM20210706211534208677696910047t"}, "success": true}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="11" t="n">
         <v>9999999</v>
       </c>
     </row>
@@ -4580,7 +4577,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "iFLtXApmqIvc3wj4ET8Ok6r9hgxQ1nKU", "amount": 0, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 0, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "f04cbfa313966644210e1daaa0697a3f", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "PCbBVVDkGc6n4hhXGXLALp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "hpUf8rkQI97Z0JOmoTldaPB5xu1svtAX", "amount": 0, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 0, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "786bb0d9d0b8e48e5802b7652e6cdcab", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
@@ -4591,17 +4588,17 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,7 +4620,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "M0akV45rTEpBCW1HAl7u6gxZmdwJRsF9", "amount": 1.2, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1.2, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "78c221768835e62fa9fde091591e82d6", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "Sb6cfXdH9D7Hj6BYFSsT8T", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "biHNJs1dXjpDro6EFWvCOl8KRcSwz3BL", "amount": 1.2, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1.2, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "bccfc7158746ef73c61afeb74e1b61df", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
@@ -4634,17 +4631,17 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="17" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="11" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -4666,28 +4663,28 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "lvpogLUw9tyjXW2u6cGAh1K7e5SDsraN", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "appKey": "2033", "sign": "0d1ee0840b33c4100d64525a6075d6b1", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "CAj71XS1qB13Bc3DfG9VZC", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "zIS49DstoYvObG5flJ02RHrunhe3yTCj", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "appKey": "2033", "sign": "5ca40d8a7612268206017d71b8830028", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205448208677696967017t"}, "success": true}</t>
+          <t>{"data": {"payRequestId": "KB20210706211534208677696900883t"}, "success": true}</t>
         </is>
       </c>
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="17" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H11" s="17" t="inlineStr">
+      <c r="H11" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I11" s="17" t="inlineStr">
+      <c r="I11" s="11" t="inlineStr">
         <is>
           <t>1，标志是否允许用可币，不用也可以</t>
         </is>
@@ -4711,7 +4708,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "wSBhTMQlA0VceizKfmaJYudPXNF51L7n", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "4f880a3aa26f7f288db9c3c62f350774", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "2CKNFRGhNsoN4J9SdrjntM", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "HLph3GtQRVmr5B1bqnSZiwYux9gDTIaO", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "08a093ce128638ad78264b3cb03bf0b9", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
@@ -4722,17 +4719,17 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="17" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>{"success": false, "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}</t>
         </is>
       </c>
-      <c r="H12" s="17" t="inlineStr">
+      <c r="H12" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="17" t="n">
+      <c r="I12" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,7 +4751,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "zVU1j4mnel9oOx6ahirZLbRXPdkGKJBE", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935491", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "adce384236396917a7c5a6774665df71", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "GCh3JjD6djTsztwNZ4eri8", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "hQNKpsPVSz7l3W4a1EGjRkyAgfr0ib2m", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935540", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "270eabd792ebae5dcdaadebeb0e9c75e", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
@@ -4765,17 +4762,17 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="17" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>{"message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�","success":false}</t>
         </is>
       </c>
-      <c r="H13" s="17" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="11" t="n">
         <v>101</v>
       </c>
     </row>
@@ -4797,28 +4794,28 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "WMtCPSwp2EyuV0OYLxz1kDeAjKlBNTdv", "amount": 1, "productName": "test", "productDesc": "test pay only cocoin spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "bd8743b2196012e360fd041b62b8f11b", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "W7bBvvff8SDUQJnXky7hUZ", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "SerYW3TxlQZuyCgB9EI2UPjVcRdJLXmp", "amount": 1, "productName": "test", "productDesc": "test pay only cocoin spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "cd5dd11dc01be6e7c5dcdb2d8c5a7e08", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205448208677696943005t"}, "success": true}</t>
+          <t>{"data": {"payRequestId": "KB20210706211535208677696945544t"}, "success": true}</t>
         </is>
       </c>
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="17" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H14" s="17" t="inlineStr">
+      <c r="H14" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I14" s="17" t="n">
+      <c r="I14" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,28 +4837,28 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "7pHOQ5s6vtyJXG09WjTZSDBk1IVzneNw", "amount": 1, "productName": "test", "productDesc": "test pay only voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "c2cd5cf8604a4c9a318eff5e65972154", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "FiyjHMjwra4Zy3iyLT7rUs", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "el5iNnZ6m3czC2HAEyd1waIxGsvD8BqS", "amount": 1, "productName": "test", "productDesc": "test pay only voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "20647782e8b8abdbd8e7e5811e40c492", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205448208677696946761t"}, "success": true}</t>
+          <t>{"data": {"payRequestId": "KB20210706211535208677696912625t"}, "success": true}</t>
         </is>
       </c>
       <c r="F15" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="17" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H15" s="17" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,28 +4880,28 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "kB1Qbg4qfShjo3H5vLXpmIVTir6AEazF", "amount": 100, "productName": "test", "productDesc": "test pay only cocoin+voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935492", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "33d52de1037ea595f8ea3aa3829e7893", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "Eq73psPtibtN8MgHuTNvJH", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "MufN1oJ4chXPi0wYergjSTIpmElBzHVR", "amount": 100, "productName": "test", "productDesc": "test pay only cocoin+voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "36c0e92f9006205c335d7773110fb089", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205449208677696928662t"}, "success": true}</t>
+          <t>{"error": {"code": "222", "message": "鏀粯鏂瑰紡涓嶆敮鎸�:VIRTUAL_ASSETS"}, "success": false}</t>
         </is>
       </c>
       <c r="F16" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G16" s="17" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H16" s="17" t="inlineStr">
+      <c r="H16" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="I16" s="11" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4926,28 +4923,28 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "hLzsXZ6Vjtir0NaegSo3dyDAlm7WKGFu", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 2, "cocoinDeductAmount": 2, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9e730a43ab367525db75b74ab7288e53", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "WkH8JVrMwY7ZaZcJ8xJaSG", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "ltaOmRfUrxXyweqYC83iL2p4ASo9ZnPJ", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 2, "cocoinDeductAmount": 2, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "e5eecb0bc84b7af70fc59751868b7a08", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"d13d669525a649ea913fdf4c92097728\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx02205449384344beca01b273ee0bab0000\",\"sign\":\"0C0D93807F96E8ECD2C6F91196DF9859\",\"timestamp\":\"1625230489\"}", "payRequestId": "KB20210702205449208677696941717t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"318057d409be48068967196667914b3a\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211535756856c06fbfc17bec2f050000\",\"sign\":\"5600C2EA4B3CC751213902E672E31A6D\",\"timestamp\":\"1625577335\"}", "payRequestId": "KB20210706211535208677696903861t"}, "success": true}</t>
         </is>
       </c>
       <c r="F17" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G17" s="17" t="inlineStr">
+      <c r="G17" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "appid": "wx93eea96ecc33f168"}</t>
         </is>
       </c>
-      <c r="H17" s="17" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I17" s="17" t="n">
+      <c r="I17" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4969,28 +4966,28 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mUvyJCNR5QlTtES96gZn0P8sYLbrWzxj", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "0489a0e6742ae09d685403d113650313", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "Ef38eiaBwLPq4kuhGtZv97", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YKfnEDsvdCF2bzSgT1Lhm30HOai7uZ69", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "a891979ff555cb62596c20d8df42459f", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205449208677696952511t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"de9eadb2e8564c02b2e49c963f6621ab\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211536166251890a465b80e93d260000\",\"sign\":\"F650C2F058B745EA56A58EED85481CEA\",\"timestamp\":\"1625577336\"}", "payRequestId": "KB20210706211535208677696930522t"}, "success": true}</t>
         </is>
       </c>
       <c r="F18" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H18" s="17" t="inlineStr">
+      <c r="H18" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I18" s="17" t="n">
+      <c r="I18" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5012,28 +5009,28 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "qo6fxXWdRFQzlU2CakwuAjY9Hnyhr7G5", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935491", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "cf3e2cf1145623476cebeb6b0f47b666", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "3iJEmS84epThwsbv9E1hZw", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "Sfk1inxyU6NIGzOFCbPLeYsHTural3Qm", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935549", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9e243a5ed635a5c7e2b3406bc75b80aa", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205449208677696968085t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211536208677696947833t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22RcyonKKCn5n%252BAV7L5gBsJq7dr0%252BNf23IrIPOGO3fdDafRWXI%252BZ%252BSNpoCcuNzJX2seJCygykWoAOdGa7Z3BN5XDNNVVfD6PEeBP9IqzON%252BGnfryvT93K0N2qVc5%252FifzmaGagopCzDhwsskvysiFe1XPxtUynfvZDR8bUJmCE5PSA%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211536208677696947833t\"}", "payRequestId": "KB20210706211536208677696947833t"}, "success": true}</t>
         </is>
       </c>
       <c r="F19" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G19" s="17" t="inlineStr">
+      <c r="G19" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H19" s="17" t="inlineStr">
+      <c r="H19" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I19" s="17" t="n">
+      <c r="I19" s="11" t="n">
         <v>101</v>
       </c>
     </row>
@@ -5055,7 +5052,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "9GZCv16LYXApERUnTydhBoaPz3JN28cl", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935491", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "dfd764742829c6a3c94bcb0547482ff3", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "UxjgdSo2sRfazutNyEv5qE", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "fIBWa2dDHCJ1wsmkRp3X9luQg4N6ZYjS", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "99e33f200ea4a0781c8b16ea9f244939", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
@@ -5066,17 +5063,17 @@
       <c r="F20" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G20" s="17" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
         </is>
       </c>
-      <c r="H20" s="17" t="inlineStr">
+      <c r="H20" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I20" s="17" t="n">
+      <c r="I20" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5098,28 +5095,28 @@
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "uzFSKbhwCc7BHDYZrgmP3Mvtk4AQUiGW", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935492", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "949cb050af7ecf90356ffdbd6ddf6c50", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "146F2KETm8HWxoUA5F3b8X", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "BTQzv3UYjOGcoRlkJI7nbxZq8sE4wmgr", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9ecee89aee3993a501eadc43794e5bad", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210701174240208677696964084t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"679b3c802a5e4540959b92119d524a63\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx062115366900959fc845a5dc925fd50000\",\"sign\":\"5E3629AF56D440E67136DBF74FDF1012\",\"timestamp\":\"1625577336\"}", "payRequestId": "KB20210706211536208677696926731t"}, "success": true}</t>
         </is>
       </c>
       <c r="F21" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G21" s="17" t="inlineStr">
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H21" s="17" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I21" s="17" t="n">
+      <c r="I21" s="11" t="n">
         <v>101</v>
       </c>
     </row>
@@ -5141,7 +5138,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "DF1tvN3mOecousRWiI9EayMfjAKpS4Cl", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935492", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "412ec67cdd9eb2ab10a885938f0a88d3", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "bLRcEeJpEcJKUF9Vyngbt", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "HsS8aoIhCNLfykMZ6JU9bvPQxdTm1cB5", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935550", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "e4a998d199d6f1ab4e15cf4796bae24b", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
@@ -5152,17 +5149,17 @@
       <c r="F22" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G22" s="17" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
         </is>
       </c>
-      <c r="H22" s="17" t="inlineStr">
+      <c r="H22" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I22" s="17" t="n">
+      <c r="I22" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5184,28 +5181,28 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "J1lzVnbod5fXPCHKNtg3xMe0arRmUw6Z", "amount": 100, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935493", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "c70682806902a810a43485d733ebc9b4", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "LjHnC2PbeyDj4FLpk67bdp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YsOxSMByNUw6WDJkPpc0LEHGh7vdVo2R", "amount": 100, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935542", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "f769392c4216f6e6246cf113cb413ea0", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210702205449208677696907524t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211536208677696934054t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22F%252BUEgfNx2p0oENwZvWgKeNoN%252F6G2k7T%252FPwll5dDKWm%252BSRHvycFd7gNEiuGM1wem%252F2ioOKQ00LzdLtSQ8OG8eM0LkNG3iovnwUZr0nqJWnRsOST7XPw8EqqwUQh%252FOP7lMY8hxTs0Lcn2cPvlciXZcoZMwAbjLS4313CynGHrXQ6M%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211536208677696934054t\"}", "payRequestId": "KB20210706211536208677696934054t"}, "success": true}</t>
         </is>
       </c>
       <c r="F23" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G23" s="17" t="inlineStr">
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H23" s="17" t="inlineStr">
+      <c r="H23" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I23" s="17" t="n">
+      <c r="I23" s="11" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5227,7 +5224,7 @@
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "xd4qnrVe8a9jk3hCTJA0Rp2lXsfIPKgy", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935493", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "69500e58ddc428564e13d877df142149", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "U7jFf1G2qaXGHJxv7PEhZ1", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mSGJjUuD27cpABEfNH6nwykKi1dI9gzx", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935521", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "7d4a20d26855822dfdd5aa105c52ca8a", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
@@ -5238,17 +5235,17 @@
       <c r="F24" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G24" s="17" t="inlineStr">
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
         </is>
       </c>
-      <c r="H24" s="17" t="inlineStr">
+      <c r="H24" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I24" s="17" t="n">
+      <c r="I24" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5270,28 +5267,28 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "Y3xcoyplut7Cr4WG5HLDVQJk1TAf6N8a", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 0, "cocoinDeductAmount": 0, "voucherId": "100935494", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "88eeee6828e95e1491a12769be028849", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "Py7r8RgoyXZgJ6o1Zyg9Nu", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mxdE1VU6rbWBsQ35A7DNKC8pkc2aIuzl", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 0, "cocoinDeductAmount": 0, "voucherId": "100935552", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "1ab3c05c774e5d0be531bfcce49c9843", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"255fad84361b4da1849a22e948ee5266\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx022054501041211e55634d9a5091780000\",\"sign\":\"6F181BB00E5CEC493EECBE358779C2AD\",\"timestamp\":\"1625230490\"}", "payRequestId": "KB20210702205449208677696920556t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"4573b91866494d4b8aa80a0acc8077a2\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx062115371918181a460bf28588e7130000\",\"sign\":\"D5E821F8797785A4846CD98334FE6C45\",\"timestamp\":\"1625577337\"}", "payRequestId": "KB20210706211536208677696918374t"}, "success": true}</t>
         </is>
       </c>
       <c r="F25" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G25" s="17" t="inlineStr">
+      <c r="G25" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H25" s="17" t="inlineStr">
+      <c r="H25" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I25" s="17" t="n">
+      <c r="I25" s="11" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -5313,28 +5310,28 @@
       </c>
       <c r="D26" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "Wj9pzrkcNUCYMFn3LqvQ07R6whbZlXsa", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "8aaac2166abd8b327ed06e076ad334eb", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "PACxG51WiJSNnM7U3Usw7g", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "fGm6uLN91riVDwg7cUvHTO5KRb2ZCW0I", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "0e1d6e2b1138e6ad240116705b148c5d", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210701174241208677696961417t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"3ad9fa099ce84eb69c03f0b4b06a55b1\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211537593932dcc18082243f34cb0000\",\"sign\":\"685AE1BA108297933F802A6E7E43064A\",\"timestamp\":\"1625577337\"}", "payRequestId": "KB20210706211537208677696968722t"}, "success": true}</t>
         </is>
       </c>
       <c r="F26" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G26" s="17" t="inlineStr">
+      <c r="G26" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H26" s="17" t="inlineStr">
+      <c r="H26" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I26" s="17" t="n">
+      <c r="I26" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5356,28 +5353,28 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "wCO8DnrzQRUSdPHkK2El0f3Vxo4yWbMh", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "8aaac2166abd8b327ed06e076ad334eb", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "WGvWFZZZWz2LK5jAMCTGJ6", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "7Shr8THtcxZMn6kXF9CYafEUlgs0Kuvo", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "4681e7e24b4dc75389e4d2970dffedba", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210701174243208677696978577t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"11b3e3ecd71b4cc5bbd81fc6ab9334c9\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0621153800922369755faee96f0b790000\",\"sign\":\"1C9FDA07DCD8A10C686633E8254A92AF\",\"timestamp\":\"1625577338\"}", "payRequestId": "KB20210706211537208677696963876t"}, "success": true}</t>
         </is>
       </c>
       <c r="F27" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G27" s="17" t="inlineStr">
+      <c r="G27" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H27" s="17" t="inlineStr">
+      <c r="H27" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I27" s="17" t="inlineStr">
+      <c r="I27" s="11" t="inlineStr">
         <is>
           <t>10，券扣减金额字段会被服务端干掉</t>
         </is>
@@ -5401,28 +5398,28 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "7ZAdgFHSBKN9cmM8oyjUPeluGYT6Rtkn", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "8aaac2166abd8b327ed06e076ad334eb", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "Q6Sh3TyjRXbU6ziXE6nSgj", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YJzuAKl5sj3npfceBih7Fq0dHWMPV2mO", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "d02be9ff382fc2037d1bfea864eeb4d9", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210701174241208677696924666t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"593bc5d5381f436d89ac07cfae974a12\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211538384047cf7d6e3202158bb70000\",\"sign\":\"E487958CA3B0C15B9194FE4E8D720D7C\",\"timestamp\":\"1625577338\"}", "payRequestId": "KB20210706211538208677696930534t"}, "success": true}</t>
         </is>
       </c>
       <c r="F28" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G28" s="17" t="inlineStr">
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H28" s="17" t="inlineStr">
+      <c r="H28" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I28" s="17" t="n">
+      <c r="I28" s="11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5444,28 +5441,28 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "pfqAyVdEtY5czULaIrb1NKl80Cv67sGJ", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935491", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "d6b4df16302f11139178716d520ddbbd", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "3VWEn5heVPvUmLfeEsPwM5", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "DtSK6LICcJxhTF8Y3a9zM72fleopkwHj", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935549", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9ce1c14e9bf970140918499d9f2f81c8", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210702205450208677696957265t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22uJH%252F8YyZoa%252BJWoJa0a1jVSNJDkdGqsk5y1HHfoL46250lCwBZ7aKTqu7C%252F1wevvauXvrErNG3njPbH6k7QbAlIWZS6RRj2mzrOs5gO7DgiRZgRIsa%252Fw9kUIFZrLxEJOj0aktwtubK8KxGE1HxvpsR2v170nRoxpS%252FjcEhb%252FaZKc%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210702205450208677696957265t\"}", "payRequestId": "KB20210702205450208677696957265t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211538208677696948603t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22SLNtQvjRzienBJbyhJ%252BTrMDDiNy%252B4ZceTTxYDgzgvhYeQZOZBz4rtW7n8cXkRn0Z9%252FAU83sMDFyGxmfDkAC9ywt4g26%252BaM%252FIj95UFMFIdmRrY3orrvEwSi2ctRiL2f8q6jLiGgwb0anYQCJ6Qb5RDQt%252Bu%252B81Dyt9KcwMnKjxsfo%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211538208677696948603t\"}", "payRequestId": "KB20210706211538208677696948603t"}, "success": true}</t>
         </is>
       </c>
       <c r="F29" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G29" s="17" t="inlineStr">
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H29" s="17" t="inlineStr">
+      <c r="H29" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I29" s="17" t="n">
+      <c r="I29" s="11" t="n">
         <v>101</v>
       </c>
     </row>
@@ -5487,7 +5484,7 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "VXDKRTW1x92LrIlqvbwQytBM34fhSCak", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935491", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 10, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "4e8e0df15f200183449b4f80212e0e41", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "2wUMpNWaNEmVmHtDGSLLBD", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "zBMC8x6jyb7lrs4FZdL9cGHKJaPpXVvS", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 10, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "2a2f10ac280747eed4b49af07fd840d3", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
@@ -5498,17 +5495,17 @@
       <c r="F30" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G30" s="17" t="inlineStr">
+      <c r="G30" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H30" s="17" t="inlineStr">
+      <c r="H30" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I30" s="17" t="inlineStr">
+      <c r="I30" s="11" t="inlineStr">
         <is>
           <t>10，10-10-1=-1</t>
         </is>
@@ -5532,28 +5529,28 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "c1GFQ6EOgq7NITAxRe52SCsyKwzLtplr", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935492", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "65d0ea22b73d9d2a75fd86598e893116", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "qMDEihNgGRPLgFuovDbuw", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "uryV0W8aKBzgGdSERpfi6v25CI7TPQjF", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "3870b1e57f4b3205dce416fadfe8194b", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210701174241208677696955136t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211538208677696983242t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22HSDMP5OheGGYCB8ruNQM3QLR%252Bs9UeE7AuDsKwKPf%252Fmo6UNdk0Z3b71yjrMMUE6XpNndjia9FhB%252FqYpet6Zdq8jqmqK%252BPkiQOZfqGH2KBQHzS5C66k4SkFPVBDMPh98T1ZIVnqCn1ZyjuNN9RDgs4taJtbGYVoWY%252F1cNzavMn%252FU8%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211538208677696983242t\"}", "payRequestId": "KB20210706211538208677696983242t"}, "success": true}</t>
         </is>
       </c>
       <c r="F31" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G31" s="17" t="inlineStr">
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H31" s="17" t="inlineStr">
+      <c r="H31" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I31" s="17" t="n">
+      <c r="I31" s="11" t="n">
         <v>101</v>
       </c>
     </row>
@@ -5575,28 +5572,28 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "MLbIh4W0JQ1NpwCYk6VizetcXlHGsdKy", "amount": 1000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1000, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "100935493", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 990, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9b01ab91219c5dc31f85895e88581f51", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "VKUC3WijRphffxy1EGmGUX", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "AxnJ1CNdBhvOcQXjsHRkIE5og23uWLpG", "amount": 1000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1000, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "100935542", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 990, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "814fd31d72041084c65874c72f56d555", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"9d01aeab6e324272be5fdacfefabd574\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx02205450626060f0af9bc1b6188fa10000\",\"sign\":\"B5E7C0A8792B497AE0F6082563C76D9F\",\"timestamp\":\"1625230490\"}", "payRequestId": "KB20210702205450208677696955048t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"054a0f84f63d45fca6f5d71a156b8708\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx062115390626526dacd7501a821aac0000\",\"sign\":\"B5010F7EE5D14A98CFF88C454570BA95\",\"timestamp\":\"1625577339\"}", "payRequestId": "KB20210706211538208677696970880t"}, "success": true}</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G32" s="17" t="inlineStr">
+      <c r="G32" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H32" s="17" t="inlineStr">
+      <c r="H32" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I32" s="17" t="n">
+      <c r="I32" s="11" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -5618,28 +5615,28 @@
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "T6ABXZGs5eJF41CxhMfyqpwEDQWckmlK", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935494", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "38e441ab0afee16277cc3261f5168e1f", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "MSkTAaYJrgDymyFtqRLqhH", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YEGRd5NT6oCMxuU7Zs4ceJSw8PBVzt0g", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935522", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "b95e7c81959cf59cdf2a7baa57d31cb2", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"534edb664df749268ce1af3c3370c55b\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx022054509581532e0d33ff3cccacf30000\",\"sign\":\"47A52A244C4E117B1993FF89558121A1\",\"timestamp\":\"1625230491\"}", "payRequestId": "KB20210702205450208677696908304t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"ec456abc46db4134be6146741e59e164\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0621153950728835f835cfbffeae830000\",\"sign\":\"28B504CAF6093975336005AD40543BD9\",\"timestamp\":\"1625577339\"}", "payRequestId": "KB20210706211539208677696932041t"}, "success": true}</t>
         </is>
       </c>
       <c r="F33" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="17" t="inlineStr">
+      <c r="G33" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
-      <c r="H33" s="17" t="inlineStr">
+      <c r="H33" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I33" s="17" t="n">
+      <c r="I33" s="11" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -5661,28 +5658,28 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "vhxLjuB0AtmR9kiPrF3z1I6Y8O2c4e7T", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "01e85915d5e9433a582bb85796cb1aac", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "999b4e2147e613b66e4ba046b7df52ed", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "20007", "message": "娑撴艾濮熺拋銏犲礋閸欑兘銆忔稉铏光敄"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"b7420f45d22e4ace9231e4b0f0d0e5cf\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0621153983377663552a650cc108b30000\",\"sign\":\"CE5B7CAA39DEDBF4CD99B20058613711\",\"timestamp\":\"1625577339\"}", "payRequestId": "KB20210706211539208677696936718t"}, "success": true}</t>
         </is>
       </c>
       <c r="F34" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G34" s="17" t="inlineStr">
+      <c r="G34" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H34" s="17" t="inlineStr">
+      <c r="H34" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I34" s="17" t="n">
+      <c r="I34" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,28 +5701,28 @@
       </c>
       <c r="D35" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "06ishJM5DXmlbvCLngdxGoNRVTu3qAOI", "amount": 999999999, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 999999999, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "3942b1087a4b5c7dfd18d1fb958a6c6b", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 999999999, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 999999999, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "cae8ebdfb903cd5e0621c6d06706c71e", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "20007", "message": "娑撴艾濮熺拋銏犲礋閸欑兘銆忔稉铏光敄"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211539208677696901702t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%229999999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22OmvDzFhnXssyvViASiu9uU5s53hoky5%252F%252BMVwZZACzNtyW7vHqjVPZCZUOIOAYq4k9yHKjfjFl6m4dfOHOEGp%252B65upHU%252F7Lg2qIyW17N%252B3wZy7qR5omllxqC8bYQqwk4x%252FgEyTECTJ8PqW%252F%252BQk9VDAJlOo57Ef0z8%252B35ANsqV2B0%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211539208677696901702t\"}", "payRequestId": "KB20210706211539208677696901702t"}, "success": true}</t>
         </is>
       </c>
       <c r="F35" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G35" s="17" t="inlineStr">
+      <c r="G35" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H35" s="17" t="inlineStr">
+      <c r="H35" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I35" s="17" t="n">
+      <c r="I35" s="11" t="n">
         <v>999999999</v>
       </c>
     </row>
@@ -5747,7 +5744,7 @@
       </c>
       <c r="D36" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "7le6SznjOVvsYEmbMox5hFwJWZc2N49Q", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "3aa335245b0b950e054ab816a4ba1dae", "timestamp": "1625132556687", "nonce": "kfqdpeWE", "country": "CN"}</t>
+          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "f1724c3212012972f11ed81a6563c219", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E36" s="7" t="inlineStr">
@@ -5758,17 +5755,17 @@
       <c r="F36" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G36" s="17" t="inlineStr">
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H36" s="17" t="inlineStr">
+      <c r="H36" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I36" s="17" t="n">
+      <c r="I36" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5790,28 +5787,28 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "jhEtlIaBkXfuq3SvN2geVyGZbTFDnHQR", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "60079678eb88e4cc6fdb38609e87f3d7", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "5c17c21b4a91721db3800da6dbf87025", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "20007", "message": "娑撴艾濮熺拋銏犲礋閸欑兘銆忔稉铏光敄"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"6be48af89a214386b76eacccaa975eef\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211541302858c1a289b62d2d93ba0000\",\"sign\":\"34808CA618263054ADB989121692A635\",\"timestamp\":\"1625577341\"}", "payRequestId": "KB20210706211541208677696920676t"}, "success": true}</t>
         </is>
       </c>
       <c r="F37" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G37" s="17" t="inlineStr">
+      <c r="G37" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H37" s="17" t="inlineStr">
+      <c r="H37" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I37" s="17" t="n">
+      <c r="I37" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5833,28 +5830,28 @@
       </c>
       <c r="D38" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "G378DLx6DvhqFDsoms9Lqr", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "dq2VckG1nFbpIuUDhfgR0BPjtvXTaALK", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935123", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "c4f4c81fb86759cc3aff91c4862a2dff", "timestamp": "1625230484545", "nonce": "upeHz8y4", "country": "CN"}</t>
+          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935123", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "1963cdba33d9a466b77d805283224a12", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "20007", "message": "娑撴艾濮熺拋銏犲礋閸欑兘銆忔稉铏光敄"}, "success": false}</t>
+          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G38" s="17" t="inlineStr">
+      <c r="G38" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H38" s="17" t="inlineStr">
+      <c r="H38" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I38" s="17" t="n">
+      <c r="I38" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,17 +6013,17 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n">
+      <c r="I7" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6059,17 +6056,17 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,17 +6099,17 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="11" t="n">
         <v>999999999</v>
       </c>
     </row>
@@ -6145,17 +6142,17 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="17" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="11" t="n">
         <v>999999999</v>
       </c>
     </row>
@@ -6188,17 +6185,17 @@
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="17" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>{"message": "SYSTEM_ERROR", "success": false}</t>
         </is>
       </c>
-      <c r="H11" s="17" t="inlineStr">
+      <c r="H11" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I11" s="17" t="inlineStr">
+      <c r="I11" s="11" t="inlineStr">
         <is>
           <t>9999999999，超过int最大值</t>
         </is>
@@ -6233,17 +6230,17 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="17" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "channelData":"璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡"}</t>
         </is>
       </c>
-      <c r="H12" s="17" t="inlineStr">
+      <c r="H12" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="17" t="n">
+      <c r="I12" s="11" t="n">
         <v>2147483647</v>
       </c>
     </row>
@@ -6276,17 +6273,17 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="17" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "channelData": "璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡"}</t>
         </is>
       </c>
-      <c r="H13" s="17" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6319,17 +6316,17 @@
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="17" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "SN20"}</t>
         </is>
       </c>
-      <c r="H14" s="17" t="inlineStr">
+      <c r="H14" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I14" s="17" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
@@ -6360,17 +6357,17 @@
       <c r="F15" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="17" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "SN20"}</t>
         </is>
       </c>
-      <c r="H15" s="17" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I15" s="17" t="n"/>
+      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
@@ -6401,17 +6398,17 @@
       <c r="F16" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G16" s="17" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "SN20"}</t>
         </is>
       </c>
-      <c r="H16" s="17" t="inlineStr">
+      <c r="H16" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="I16" s="11" t="n">
         <v>99999999</v>
       </c>
     </row>
@@ -6444,17 +6441,17 @@
       <c r="F17" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G17" s="17" t="inlineStr">
+      <c r="G17" s="11" t="inlineStr">
         <is>
           <t>{"success": true, "payRequestId": "SN20"}</t>
         </is>
       </c>
-      <c r="H17" s="17" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I17" s="17" t="n">
+      <c r="I17" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,17 +6484,17 @@
       <c r="F18" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="11" t="inlineStr">
         <is>
           <t>{"success": false, "message":"autoRenewMerchantInfo is empty"}</t>
         </is>
       </c>
-      <c r="H18" s="17" t="inlineStr">
+      <c r="H18" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I18" s="17" t="n"/>
+      <c r="I18" s="11" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="1">
       <c r="A19" s="7" t="inlineStr">
@@ -6528,17 +6525,17 @@
       <c r="F19" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G19" s="17" t="inlineStr">
+      <c r="G19" s="11" t="inlineStr">
         <is>
           <t>{"message": "SYSTEM_ERROR", "success": false}</t>
         </is>
       </c>
-      <c r="H19" s="17" t="inlineStr">
+      <c r="H19" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I19" s="17" t="n"/>
+      <c r="I19" s="11" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="1">
       <c r="A20" s="7" t="inlineStr">
@@ -6569,17 +6566,17 @@
       <c r="F20" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G20" s="17" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>{"message": "参数异常", "success": false}</t>
         </is>
       </c>
-      <c r="H20" s="17" t="inlineStr">
+      <c r="H20" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I20" s="17" t="n"/>
+      <c r="I20" s="11" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="1">
       <c r="A21" s="7" t="inlineStr">
@@ -6610,17 +6607,17 @@
       <c r="F21" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G21" s="17" t="inlineStr">
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>{"message": "参数异常", "success": false}</t>
         </is>
       </c>
-      <c r="H21" s="17" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I21" s="17" t="n"/>
+      <c r="I21" s="11" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="1">
       <c r="A22" s="7" t="inlineStr">
@@ -6651,17 +6648,17 @@
       <c r="F22" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G22" s="17" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H22" s="17" t="inlineStr">
+      <c r="H22" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I22" s="17" t="n"/>
+      <c r="I22" s="11" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="1">
       <c r="A23" s="7" t="inlineStr">
@@ -6692,17 +6689,17 @@
       <c r="F23" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G23" s="17" t="inlineStr">
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H23" s="17" t="inlineStr">
+      <c r="H23" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I23" s="17" t="n"/>
+      <c r="I23" s="11" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="1">
       <c r="A24" s="7" t="inlineStr">
@@ -6733,17 +6730,17 @@
       <c r="F24" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G24" s="17" t="inlineStr">
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H24" s="17" t="inlineStr">
+      <c r="H24" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I24" s="17" t="n"/>
+      <c r="I24" s="11" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="1">
       <c r="A25" s="7" t="inlineStr">
@@ -6774,17 +6771,17 @@
       <c r="F25" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G25" s="17" t="inlineStr">
+      <c r="G25" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H25" s="17" t="inlineStr">
+      <c r="H25" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I25" s="17" t="n"/>
+      <c r="I25" s="11" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="1">
       <c r="A26" s="7" t="inlineStr">
@@ -6815,17 +6812,17 @@
       <c r="F26" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G26" s="17" t="inlineStr">
+      <c r="G26" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H26" s="17" t="inlineStr">
+      <c r="H26" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I26" s="17" t="n"/>
+      <c r="I26" s="11" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="1">
       <c r="A27" s="7" t="inlineStr">
@@ -6856,17 +6853,17 @@
       <c r="F27" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G27" s="17" t="inlineStr">
+      <c r="G27" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H27" s="17" t="inlineStr">
+      <c r="H27" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I27" s="17" t="n"/>
+      <c r="I27" s="11" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="1">
       <c r="A28" s="7" t="inlineStr">
@@ -6897,17 +6894,17 @@
       <c r="F28" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G28" s="17" t="inlineStr">
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H28" s="17" t="inlineStr">
+      <c r="H28" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I28" s="17" t="n"/>
+      <c r="I28" s="11" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="1">
       <c r="A29" s="7" t="inlineStr">
@@ -6938,17 +6935,17 @@
       <c r="F29" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G29" s="17" t="inlineStr">
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H29" s="17" t="inlineStr">
+      <c r="H29" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I29" s="17" t="n"/>
+      <c r="I29" s="11" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="1">
       <c r="A30" s="7" t="inlineStr">
@@ -6979,17 +6976,17 @@
       <c r="F30" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G30" s="17" t="inlineStr">
+      <c r="G30" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H30" s="17" t="inlineStr">
+      <c r="H30" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I30" s="17" t="n"/>
+      <c r="I30" s="11" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="1">
       <c r="A31" s="7" t="inlineStr">
@@ -7020,17 +7017,17 @@
       <c r="F31" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G31" s="17" t="inlineStr">
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H31" s="17" t="inlineStr">
+      <c r="H31" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I31" s="17" t="n"/>
+      <c r="I31" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7182,9 +7179,9 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="n"/>
-      <c r="H7" s="17" t="n"/>
-      <c r="I7" s="17" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -7207,9 +7204,9 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="n"/>
-      <c r="I8" s="17" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="n"/>
@@ -7218,9 +7215,9 @@
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="10" t="n"/>
-      <c r="G9" s="17" t="n"/>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="17" t="n"/>
+      <c r="G9" s="11" t="n"/>
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="n"/>
@@ -7229,9 +7226,9 @@
       <c r="D10" s="13" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="10" t="n"/>
-      <c r="G10" s="17" t="n"/>
-      <c r="H10" s="17" t="n"/>
-      <c r="I10" s="17" t="n"/>
+      <c r="G10" s="11" t="n"/>
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="1">
       <c r="A11" s="14" t="n"/>
@@ -7240,9 +7237,9 @@
       <c r="D11" s="13" t="n"/>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="10" t="n"/>
-      <c r="G11" s="17" t="n"/>
-      <c r="H11" s="17" t="n"/>
-      <c r="I11" s="17" t="n"/>
+      <c r="G11" s="11" t="n"/>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="1">
       <c r="A12" s="14" t="n"/>
@@ -7251,9 +7248,9 @@
       <c r="D12" s="13" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="10" t="n"/>
-      <c r="G12" s="17" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="17" t="n"/>
+      <c r="G12" s="11" t="n"/>
+      <c r="H12" s="11" t="n"/>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="1">
       <c r="A13" s="7" t="n"/>
@@ -7262,9 +7259,9 @@
       <c r="D13" s="13" t="n"/>
       <c r="E13" s="7" t="n"/>
       <c r="F13" s="10" t="n"/>
-      <c r="G13" s="17" t="n"/>
-      <c r="H13" s="17" t="n"/>
-      <c r="I13" s="17" t="n"/>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="1">
       <c r="A14" s="7" t="n"/>
@@ -7273,9 +7270,9 @@
       <c r="D14" s="13" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="10" t="n"/>
-      <c r="G14" s="17" t="n"/>
-      <c r="H14" s="17" t="n"/>
-      <c r="I14" s="17" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="1">
       <c r="A15" s="7" t="n"/>
@@ -7284,9 +7281,9 @@
       <c r="D15" s="13" t="n"/>
       <c r="E15" s="7" t="n"/>
       <c r="F15" s="10" t="n"/>
-      <c r="G15" s="17" t="n"/>
-      <c r="H15" s="17" t="n"/>
-      <c r="I15" s="17" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="1">
       <c r="A16" s="7" t="n"/>
@@ -7295,9 +7292,9 @@
       <c r="D16" s="13" t="n"/>
       <c r="E16" s="7" t="n"/>
       <c r="F16" s="10" t="n"/>
-      <c r="G16" s="17" t="n"/>
-      <c r="H16" s="17" t="n"/>
-      <c r="I16" s="17" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="1">
       <c r="A17" s="7" t="n"/>
@@ -7306,9 +7303,9 @@
       <c r="D17" s="13" t="n"/>
       <c r="E17" s="7" t="n"/>
       <c r="F17" s="10" t="n"/>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
-      <c r="I17" s="17" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="11" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="1">
       <c r="A18" s="7" t="n"/>
@@ -7317,9 +7314,9 @@
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="7" t="n"/>
       <c r="F18" s="10" t="n"/>
-      <c r="G18" s="17" t="n"/>
-      <c r="H18" s="17" t="n"/>
-      <c r="I18" s="17" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="11" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="1">
       <c r="A19" s="7" t="n"/>
@@ -7328,9 +7325,9 @@
       <c r="D19" s="13" t="n"/>
       <c r="E19" s="7" t="n"/>
       <c r="F19" s="10" t="n"/>
-      <c r="G19" s="17" t="n"/>
-      <c r="H19" s="17" t="n"/>
-      <c r="I19" s="17" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="11" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="1">
       <c r="A20" s="7" t="n"/>
@@ -7339,9 +7336,9 @@
       <c r="D20" s="13" t="n"/>
       <c r="E20" s="7" t="n"/>
       <c r="F20" s="10" t="n"/>
-      <c r="G20" s="17" t="n"/>
-      <c r="H20" s="17" t="n"/>
-      <c r="I20" s="17" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="11" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="1">
       <c r="A21" s="7" t="n"/>
@@ -7350,9 +7347,9 @@
       <c r="D21" s="13" t="n"/>
       <c r="E21" s="7" t="n"/>
       <c r="F21" s="10" t="n"/>
-      <c r="G21" s="17" t="n"/>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="17" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="11" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="1">
       <c r="A22" s="7" t="n"/>
@@ -7361,9 +7358,9 @@
       <c r="D22" s="13" t="n"/>
       <c r="E22" s="7" t="n"/>
       <c r="F22" s="10" t="n"/>
-      <c r="G22" s="17" t="n"/>
-      <c r="H22" s="17" t="n"/>
-      <c r="I22" s="17" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="1">
       <c r="A23" s="7" t="n"/>
@@ -7372,9 +7369,9 @@
       <c r="D23" s="13" t="n"/>
       <c r="E23" s="7" t="n"/>
       <c r="F23" s="10" t="n"/>
-      <c r="G23" s="17" t="n"/>
-      <c r="H23" s="17" t="n"/>
-      <c r="I23" s="17" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="11" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="1">
       <c r="A24" s="7" t="n"/>
@@ -7383,9 +7380,9 @@
       <c r="D24" s="13" t="n"/>
       <c r="E24" s="7" t="n"/>
       <c r="F24" s="10" t="n"/>
-      <c r="G24" s="17" t="n"/>
-      <c r="H24" s="17" t="n"/>
-      <c r="I24" s="17" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="1">
       <c r="A25" s="7" t="n"/>
@@ -7394,9 +7391,9 @@
       <c r="D25" s="13" t="n"/>
       <c r="E25" s="7" t="n"/>
       <c r="F25" s="10" t="n"/>
-      <c r="G25" s="17" t="n"/>
-      <c r="H25" s="17" t="n"/>
-      <c r="I25" s="17" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="1">
       <c r="A26" s="7" t="n"/>
@@ -7405,9 +7402,9 @@
       <c r="D26" s="13" t="n"/>
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="10" t="n"/>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="n"/>
-      <c r="I26" s="17" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="1">
       <c r="A27" s="7" t="n"/>
@@ -7416,9 +7413,9 @@
       <c r="D27" s="13" t="n"/>
       <c r="E27" s="7" t="n"/>
       <c r="F27" s="10" t="n"/>
-      <c r="G27" s="17" t="n"/>
-      <c r="H27" s="17" t="n"/>
-      <c r="I27" s="17" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="11" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="1">
       <c r="A28" s="7" t="n"/>
@@ -7427,9 +7424,9 @@
       <c r="D28" s="13" t="n"/>
       <c r="E28" s="7" t="n"/>
       <c r="F28" s="10" t="n"/>
-      <c r="G28" s="17" t="n"/>
-      <c r="H28" s="17" t="n"/>
-      <c r="I28" s="17" t="n"/>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="11" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="1">
       <c r="A29" s="7" t="n"/>
@@ -7438,9 +7435,9 @@
       <c r="D29" s="13" t="n"/>
       <c r="E29" s="7" t="n"/>
       <c r="F29" s="10" t="n"/>
-      <c r="G29" s="17" t="n"/>
-      <c r="H29" s="17" t="n"/>
-      <c r="I29" s="17" t="n"/>
+      <c r="G29" s="11" t="n"/>
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="11" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="1">
       <c r="A30" s="7" t="n"/>
@@ -7449,9 +7446,9 @@
       <c r="D30" s="13" t="n"/>
       <c r="E30" s="7" t="n"/>
       <c r="F30" s="10" t="n"/>
-      <c r="G30" s="17" t="n"/>
-      <c r="H30" s="17" t="n"/>
-      <c r="I30" s="17" t="n"/>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="11" t="n"/>
+      <c r="I30" s="11" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="1">
       <c r="A31" s="7" t="n"/>
@@ -7460,9 +7457,9 @@
       <c r="D31" s="13" t="n"/>
       <c r="E31" s="7" t="n"/>
       <c r="F31" s="10" t="n"/>
-      <c r="G31" s="17" t="n"/>
-      <c r="H31" s="17" t="n"/>
-      <c r="I31" s="17" t="n"/>
+      <c r="G31" s="11" t="n"/>
+      <c r="H31" s="11" t="n"/>
+      <c r="I31" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7615,7 +7612,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.query.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E7" s="31" t="inlineStr">
+      <c r="E7" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "W001"
@@ -7634,8 +7631,8 @@
           <t>{"code":"W001"}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="n"/>
-      <c r="I7" s="17" t="n"/>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -7658,7 +7655,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
+      <c r="E8" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -7677,8 +7674,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H8" s="17" t="n"/>
-      <c r="I8" s="17" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -7701,7 +7698,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.unsign.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E9" s="31" t="inlineStr">
+      <c r="E9" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "5003"
@@ -7720,8 +7717,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="17" t="n"/>
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -7744,7 +7741,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
+      <c r="E10" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -7763,8 +7760,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H10" s="17" t="n"/>
-      <c r="I10" s="17" t="n"/>
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -7787,7 +7784,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "wxpay","amount": "0.06","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "wxpay.avoid.sign.first.and.pay.server","isNeedExpend": "0","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
+      <c r="E11" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -7806,8 +7803,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H11" s="17" t="n"/>
-      <c r="I11" s="17" t="n"/>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -7830,7 +7827,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.query.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
+      <c r="E12" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "A001"
@@ -7849,8 +7846,8 @@
           <t>{"code":"A001"}</t>
         </is>
       </c>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="17" t="n"/>
+      <c r="H12" s="11" t="n"/>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
@@ -7873,7 +7870,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.judge.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E13" s="31" t="inlineStr">
+      <c r="E13" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: ""
@@ -7892,8 +7889,8 @@
           <t>{"code":""}</t>
         </is>
       </c>
-      <c r="H13" s="17" t="n"/>
-      <c r="I13" s="17" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
@@ -7916,7 +7913,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
+      <c r="E14" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -7935,8 +7932,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H14" s="17" t="n"/>
-      <c r="I14" s="17" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
@@ -7959,7 +7956,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.unsign.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
+      <c r="E15" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1100"
@@ -7978,8 +7975,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H15" s="17" t="n"/>
-      <c r="I15" s="17" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="11" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
@@ -8002,7 +7999,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E16" s="31" t="inlineStr">
+      <c r="E16" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -8021,8 +8018,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H16" s="17" t="n"/>
-      <c r="I16" s="17" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
@@ -8045,7 +8042,7 @@
           <t>{"header": {"version": "12.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.coloros.cloud","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"type": "alipay","amount": "0.06","cardno": "","cardpwd": "","ext": "","basepay": {"channelId": "00040001","notifyurl": "http://pay.album.ocloud-test.wanyol.com/pay/v2/payNotify.json","productName": "OPPO 云服务","productDesc": "OPPO 云服务","partnercode": "231810428","appversion": "210","currencyName": "人民币","rate": 1.0,"partnerorder": ""},"sign": "","ip": "113.102.137.199","ext1": "alipay.avoid.sign.first.and.pay.server","isNeedExpend": "0","appId": "","payTypeRMBType": "1","tradeType": "common"}</t>
         </is>
       </c>
-      <c r="E17" s="31" t="inlineStr">
+      <c r="E17" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -8064,8 +8061,8 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H17" s="17" t="n"/>
-      <c r="I17" s="17" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="11" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="1">
       <c r="A18" s="12" t="inlineStr">
@@ -8088,7 +8085,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "alipay","amount": "45.1","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""},"expendRequest": {"header": {"version": "5.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"price": 10000,"count": 1,"productname": "支付Demo测试商品","productdesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnerid": "2031","callBackUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","partnerOrder": "","channelId": "demo","ver": "3.1.5","source": "支付demo","attach": "","sign": "","appKey": "1234","voucherId": 52029740,"voucherType": 2,"voucherCount": 999,"order": "","factor": "sjh"}}</t>
         </is>
       </c>
-      <c r="E18" s="31" t="inlineStr">
+      <c r="E18" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -8108,8 +8105,8 @@
           <t>{"code":"0000","payrequestid":"KB20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H18" s="17" t="n"/>
-      <c r="I18" s="17" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="11" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="1">
       <c r="A19" s="5" t="inlineStr">
@@ -8152,8 +8149,8 @@
           <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H19" s="17" t="n"/>
-      <c r="I19" s="17" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="11" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="1">
       <c r="A20" s="5" t="inlineStr">
@@ -8176,7 +8173,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGN","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "0.0","oriAmount": "0.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E20" s="31" t="inlineStr">
+      <c r="E20" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -8196,8 +8193,8 @@
           <t>{"code":"0000","payrequestid":"SN20","transType":"SIGN","signType":"H5"}</t>
         </is>
       </c>
-      <c r="H20" s="17" t="n"/>
-      <c r="I20" s="17" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="11" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8240,8 +8237,8 @@
           <t>{"code":"5003","payrequestid":"","transType":"","signType":""}</t>
         </is>
       </c>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="17" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="11" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="1">
       <c r="A22" s="5" t="inlineStr">
@@ -8284,8 +8281,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H22" s="17" t="n"/>
-      <c r="I22" s="17" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="1">
       <c r="A23" s="5" t="inlineStr">
@@ -8308,7 +8305,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "0","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E23" s="31" t="inlineStr">
+      <c r="E23" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "0000"
@@ -8328,8 +8325,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H23" s="17" t="n"/>
-      <c r="I23" s="17" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="11" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="1">
       <c r="A24" s="12" t="inlineStr">
@@ -8361,8 +8358,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H24" s="17" t="n"/>
-      <c r="I24" s="17" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="1">
       <c r="A25" s="12" t="inlineStr">
@@ -8394,8 +8391,8 @@
           <t>{"code":"0000"}</t>
         </is>
       </c>
-      <c r="H25" s="17" t="n"/>
-      <c r="I25" s="17" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="1">
       <c r="A26" s="12" t="inlineStr">
@@ -8418,7 +8415,7 @@
           <t>{"header": {"version": "1.0","t_p": "","imei": "","model": "PBDM00","apntype": "1","package": "com.example.pay_demo","r_v": "","ext": "","sdkVer": 209,"country": "CN","currency": "CNY","brandType": "OPPO","mobileos": "11"},"transType": "SIGNANDPAY","renewProductCode": "20310001","signPartnerOrder": "","type": "wxpay","amount": "100.0","oriAmount": "100.0","ip": "113.102.136.208","sign": "","signAgreementNotifyUrl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","appId": "","isNeedExpend": "1","basepay": {"channelId": "demo","notifyurl": "http://pay.pay-test.wanyol.com/notify/notify/receiver","productName": "支付Demo测试商品","productDesc": "垚姦鱻羴犇猋麤骉毳蠱掱赑","partnercode": "2031","appversion": "209","currencyName": "CNY","rate": 1.0,"partnerorder": ""}}</t>
         </is>
       </c>
-      <c r="E26" s="31" t="inlineStr">
+      <c r="E26" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">baseresult': {
   code: "1200"
@@ -8436,8 +8433,8 @@
           <t>{"code":"1200"}</t>
         </is>
       </c>
-      <c r="H26" s="17" t="n"/>
-      <c r="I26" s="17" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="1">
       <c r="A27" s="12" t="inlineStr">
@@ -8469,8 +8466,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H27" s="17" t="n"/>
-      <c r="I27" s="17" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="11" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="1">
       <c r="A28" s="12" t="inlineStr">
@@ -8502,8 +8499,8 @@
           <t>{"code":"0000","payrequestid":"RM20","transType":"SIGNANDPAY","signType":"APP"}</t>
         </is>
       </c>
-      <c r="H28" s="17" t="n"/>
-      <c r="I28" s="17" t="n"/>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="11" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:I28"/>
@@ -8671,12 +8668,12 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -8712,12 +8709,12 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -8753,12 +8750,12 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -8794,12 +8791,12 @@
           <t>{"code":"0000","payrequestid":"RM20"}</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:I10"/>
@@ -9103,7 +9100,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>批量发放优惠券测试用例集</t>
         </is>
@@ -9115,7 +9112,7 @@
           <t>URL</t>
         </is>
       </c>
-      <c r="B2" s="25" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>/voucher/grantMultiVoucher</t>
         </is>
@@ -9127,7 +9124,7 @@
           <t>HTTP请求方式</t>
         </is>
       </c>
-      <c r="B3" s="25" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -9139,7 +9136,7 @@
           <t>前置条件</t>
         </is>
       </c>
-      <c r="B4" s="26" t="n"/>
+      <c r="B4" s="25" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1" s="1">
       <c r="A5" s="2" t="inlineStr">
@@ -9147,7 +9144,7 @@
           <t>环境恢复</t>
         </is>
       </c>
-      <c r="B5" s="26" t="n"/>
+      <c r="B5" s="25" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1" s="1">
       <c r="A6" s="6" t="inlineStr">
@@ -9222,67 +9219,67 @@
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="26" t="inlineStr">
         <is>
           <t>vouType</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>vouName</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="26" t="inlineStr">
         <is>
           <t>grantCount</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="26" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="26" t="inlineStr">
         <is>
           <t>maxAmount</t>
         </is>
       </c>
-      <c r="F7" s="27" t="inlineStr">
+      <c r="F7" s="26" t="inlineStr">
         <is>
           <t>ratio</t>
         </is>
       </c>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="G7" s="26" t="inlineStr">
         <is>
           <t>beginTime</t>
         </is>
       </c>
-      <c r="H7" s="27" t="inlineStr">
+      <c r="H7" s="26" t="inlineStr">
         <is>
           <t>expireTime</t>
         </is>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="26" t="inlineStr">
         <is>
           <t>scopeId</t>
         </is>
       </c>
-      <c r="J7" s="27" t="inlineStr">
+      <c r="J7" s="26" t="inlineStr">
         <is>
           <t>subScopeId</t>
         </is>
       </c>
-      <c r="K7" s="27" t="inlineStr">
+      <c r="K7" s="26" t="inlineStr">
         <is>
           <t>blackScopeId</t>
         </is>
       </c>
-      <c r="L7" s="27" t="inlineStr">
+      <c r="L7" s="26" t="inlineStr">
         <is>
           <t>settleType</t>
         </is>
       </c>
-      <c r="M7" s="27" t="inlineStr">
+      <c r="M7" s="26" t="inlineStr">
         <is>
           <t>configId</t>
         </is>
@@ -9294,7 +9291,7 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
-      <c r="A8" s="28" t="n">
+      <c r="A8" s="27" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -9302,32 +9299,32 @@
           <t>消费券</t>
         </is>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <f>RANDBETWEEN(1,5)</f>
         <v/>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <f>RANDBETWEEN(D8,9999)</f>
         <v/>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G8" s="33" t="n"/>
-      <c r="H8" s="29" t="n"/>
-      <c r="I8" s="29" t="n"/>
-      <c r="J8" s="29" t="n"/>
-      <c r="K8" s="29" t="n"/>
-      <c r="L8" s="29">
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="28" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="28">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M8" s="29" t="n"/>
+      <c r="M8" s="28" t="n"/>
       <c r="N8" s="0" t="inlineStr">
         <is>
           <t>消费券</t>
@@ -9335,7 +9332,7 @@
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
-      <c r="A9" s="28" t="n">
+      <c r="A9" s="27" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -9343,32 +9340,32 @@
           <t>抵扣券(满maxAmount，减amount)</t>
         </is>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <f>RANDBETWEEN(1,5)</f>
         <v/>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f>RANDBETWEEN(D9,20)</f>
         <v/>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G9" s="29" t="n"/>
-      <c r="H9" s="29" t="n"/>
-      <c r="I9" s="29" t="n"/>
-      <c r="J9" s="29" t="n"/>
-      <c r="K9" s="29" t="n"/>
-      <c r="L9" s="29">
+      <c r="G9" s="28" t="n"/>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="28" t="n"/>
+      <c r="K9" s="28" t="n"/>
+      <c r="L9" s="28">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M9" s="29" t="n"/>
+      <c r="M9" s="28" t="n"/>
       <c r="N9" s="0" t="inlineStr">
         <is>
           <t>抵扣券(满maxAmount，减amount)</t>
@@ -9376,7 +9373,7 @@
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
-      <c r="A10" s="28" t="n">
+      <c r="A10" s="27" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -9384,32 +9381,32 @@
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
         </is>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <f>RANDBETWEEN(1,5)</f>
         <v/>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <f>RANDBETWEEN(D10,9999)</f>
         <v/>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G10" s="29" t="n"/>
-      <c r="H10" s="29" t="n"/>
-      <c r="I10" s="29" t="n"/>
-      <c r="J10" s="29" t="n"/>
-      <c r="K10" s="29" t="n"/>
-      <c r="L10" s="29">
+      <c r="G10" s="28" t="n"/>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="28" t="n"/>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M10" s="29" t="n"/>
+      <c r="M10" s="28" t="n"/>
       <c r="N10" s="0" t="inlineStr">
         <is>
           <t>折扣券（最低消费amount，单笔最高减maxAmount）</t>
@@ -9417,7 +9414,7 @@
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
-      <c r="A11" s="28" t="n">
+      <c r="A11" s="27" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -9425,32 +9422,32 @@
           <t>消费折扣券</t>
         </is>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <f>RANDBETWEEN(1,5)</f>
         <v/>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f>RANDBETWEEN(D11,9999)</f>
         <v/>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G11" s="29" t="n"/>
-      <c r="H11" s="29" t="n"/>
-      <c r="I11" s="29" t="n"/>
-      <c r="J11" s="29" t="n"/>
-      <c r="K11" s="29" t="n"/>
-      <c r="L11" s="29">
+      <c r="G11" s="28" t="n"/>
+      <c r="H11" s="28" t="n"/>
+      <c r="I11" s="28" t="n"/>
+      <c r="J11" s="28" t="n"/>
+      <c r="K11" s="28" t="n"/>
+      <c r="L11" s="28">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M11" s="29" t="n"/>
+      <c r="M11" s="28" t="n"/>
       <c r="N11" s="0" t="inlineStr">
         <is>
           <t>消费折扣券，ratio&lt;1</t>
@@ -9458,7 +9455,7 @@
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
-      <c r="A12" s="28" t="n">
+      <c r="A12" s="27" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -9466,32 +9463,32 @@
           <t>\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\\用户红包券\</t>
         </is>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <f>RANDBETWEEN(1,5)</f>
         <v/>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f>RANDBETWEEN(1,10)</f>
         <v/>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f>RANDBETWEEN(D12,9999)</f>
         <v/>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <f>ROUND(RAND(),2)</f>
         <v/>
       </c>
-      <c r="G12" s="29" t="n"/>
-      <c r="H12" s="29" t="n"/>
-      <c r="I12" s="29" t="n"/>
-      <c r="J12" s="29" t="n"/>
-      <c r="K12" s="29" t="n"/>
-      <c r="L12" s="29">
+      <c r="G12" s="28" t="n"/>
+      <c r="H12" s="28" t="n"/>
+      <c r="I12" s="28" t="n"/>
+      <c r="J12" s="28" t="n"/>
+      <c r="K12" s="28" t="n"/>
+      <c r="L12" s="28">
         <f>RANDBETWEEN(0,1)</f>
         <v/>
       </c>
-      <c r="M12" s="29" t="n"/>
+      <c r="M12" s="28" t="n"/>
       <c r="N12" s="0" t="inlineStr">
         <is>
           <t>会员红包券</t>
@@ -9534,7 +9531,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="23" t="inlineStr">
         <is>
           <t>营销信息-获取跳转链接信息</t>
         </is>
@@ -9633,7 +9630,7 @@
           <t>配置信息有加购位</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -9643,7 +9640,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="22" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>{"partnerId": "5456925"}</t>
         </is>
@@ -9661,12 +9658,12 @@
           <t>{"success":"True"}</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="27" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -9674,7 +9671,7 @@
           <t>配置信息无加购位</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -9684,7 +9681,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="22" t="inlineStr">
+      <c r="D8" s="21" t="inlineStr">
         <is>
           <t>{"partnerId": "888888"}</t>
         </is>
@@ -9707,7 +9704,7 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="27" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -9715,7 +9712,7 @@
           <t>partnerId不传</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -9725,7 +9722,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="22" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>{"partnerId": ""}</t>
         </is>
@@ -9748,7 +9745,7 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -9786,7 +9783,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>营销信息-获取营销信息</t>
         </is>
@@ -9885,7 +9882,7 @@
           <t>正常拉取会员加购位</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -9895,12 +9892,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="21" t="inlineStr">
+      <c r="D7" s="20" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E7" s="21" t="inlineStr">
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -9913,12 +9910,12 @@
           <t>{"success":"True"}</t>
         </is>
       </c>
-      <c r="H7" s="23" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -9926,7 +9923,7 @@
           <t>金额传入负数</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -9936,12 +9933,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="21" t="inlineStr">
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "5456925","orderAmount": "-100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E8" s="21" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -9967,7 +9964,7 @@
           <t>金额传入-</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -9977,12 +9974,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="21" t="inlineStr">
+      <c r="D9" s="20" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "5456925","orderAmount": "0", "factor": ""}</t>
         </is>
       </c>
-      <c r="E9" s="21" t="inlineStr">
+      <c r="E9" s="20" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -10008,7 +10005,7 @@
           <t>passToken不正确</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10018,12 +10015,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="21" t="inlineStr">
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>{"processToken": "error_token","partnerId": "5456925","orderAmount": "100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E10" s="21" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "20004", "message": "娴佺▼鍑瘉澶辨晥"}, "success": false}</t>
         </is>
@@ -10049,7 +10046,7 @@
           <t>业务线不传</t>
         </is>
       </c>
-      <c r="B11" s="19" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10059,12 +10056,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="21" t="inlineStr">
+      <c r="D11" s="20" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "","orderAmount": "100", "factor": ""}</t>
         </is>
       </c>
-      <c r="E11" s="21" t="inlineStr">
+      <c r="E11" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "partnerId must not be empty"}, "success": false}</t>
         </is>
@@ -10090,7 +10087,7 @@
           <t>传入不支持的业务线</t>
         </is>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10100,12 +10097,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="21" t="inlineStr">
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>{"processToken": "","partnerId": "99999","orderAmount": "", "factor": ""}</t>
         </is>
       </c>
-      <c r="E12" s="21" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>{"data": {"buyPlaceList": []}, "success": true}</t>
         </is>
@@ -10161,7 +10158,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>支付流程-获取流程凭证</t>
         </is>
@@ -10260,7 +10257,7 @@
           <t>支付apk获取凭证</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10270,12 +10267,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="20" t="inlineStr">
+      <c r="D7" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E7" s="21" t="inlineStr">
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1621243514755, "processToken": "2nzYJhTZ6aQ3pC2b5xMUJm"}, "success": true}</t>
         </is>
@@ -10283,17 +10280,17 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H7" s="23" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -10301,7 +10298,7 @@
           <t>msp获取凭证</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10311,12 +10308,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E8" s="21" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1621243514887, "processToken": "CeLec6zAuJwa6TtuhYwUw1"}, "success": true}</t>
         </is>
@@ -10324,17 +10321,17 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H8" s="23" t="inlineStr">
+      <c r="H8" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -10342,7 +10339,7 @@
           <t>apk无账号获取凭证</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10352,12 +10349,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E9" s="21" t="inlineStr">
+      <c r="E9" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1621243515005, "processToken": "B3vBN2z8LXyM22fiwCqbEf"}, "success": true}</t>
         </is>
@@ -10365,17 +10362,17 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="22" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H9" s="23" t="inlineStr">
+      <c r="H9" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -10383,7 +10380,7 @@
           <t>msp无账号获取凭证</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10393,12 +10390,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="20" t="inlineStr">
+      <c r="D10" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E10" s="21" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1621243515122, "processToken": "8vuWJ1kgwcnM1cuq75bfM9"}, "success": true}</t>
         </is>
@@ -10406,17 +10403,17 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="22" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H10" s="23" t="inlineStr">
+      <c r="H10" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="50" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -10424,7 +10421,7 @@
           <t>msp获取凭证不传appId</t>
         </is>
       </c>
-      <c r="B11" s="19" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10434,12 +10431,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E11" s="21" t="inlineStr">
+      <c r="E11" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1621243515238, "processToken": "HabxCfQrgYtuYFeEKTAAJz"}, "success": true}</t>
         </is>
@@ -10447,17 +10444,17 @@
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>{"success": "True"}</t>
         </is>
       </c>
-      <c r="H11" s="23" t="inlineStr">
+      <c r="H11" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I11" s="17" t="n"/>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="50" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -10465,7 +10462,7 @@
           <t>token传入不正确</t>
         </is>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10475,12 +10472,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D12" s="20" t="inlineStr">
+      <c r="D12" s="19" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E12" s="21" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "20000", "message": "閴存潈澶辫触"}, "success": false}</t>
         </is>
@@ -10488,17 +10485,17 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="22" t="inlineStr">
+      <c r="G12" s="21" t="inlineStr">
         <is>
           <t>{"success": "False"}</t>
         </is>
       </c>
-      <c r="H12" s="23" t="inlineStr">
+      <c r="H12" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="17" t="n"/>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="50" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
@@ -10506,7 +10503,7 @@
           <t>partnerCode不传</t>
         </is>
       </c>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10516,12 +10513,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D13" s="20" t="inlineStr">
+      <c r="D13" s="19" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E13" s="21" t="inlineStr">
+      <c r="E13" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
@@ -10529,17 +10526,17 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>{"success": "False"}</t>
         </is>
       </c>
-      <c r="H13" s="23" t="inlineStr">
+      <c r="H13" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I13" s="17" t="n"/>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
@@ -10547,7 +10544,7 @@
           <t>appPackage不传</t>
         </is>
       </c>
-      <c r="B14" s="19" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10557,12 +10554,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D14" s="21" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E14" s="21" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
@@ -10570,17 +10567,17 @@
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="22" t="inlineStr">
+      <c r="G14" s="21" t="inlineStr">
         <is>
           <t>{"success": "False"}</t>
         </is>
       </c>
-      <c r="H14" s="23" t="inlineStr">
+      <c r="H14" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I14" s="17" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10618,7 +10615,7 @@
           <t>Test suite名称</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>支付流程-获取流程凭证</t>
         </is>
@@ -10717,7 +10714,7 @@
           <t>支付apk获取凭证</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10727,12 +10724,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D7" s="20" t="inlineStr">
+      <c r="D7" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E7" s="21" t="inlineStr">
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1622535182059, "processToken": "R8xpwHnvizRZwCMEZvtn8f"}, "success": true}</t>
         </is>
@@ -10740,17 +10737,17 @@
       <c r="F7" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H7" s="23" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="17" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
@@ -10758,7 +10755,7 @@
           <t>msp获取凭证</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10768,12 +10765,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E8" s="21" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1622535182343, "processToken": "6y3QWma3bUuysLdJy3tydC"}, "success": true}</t>
         </is>
@@ -10781,17 +10778,17 @@
       <c r="F8" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H8" s="23" t="inlineStr">
+      <c r="H8" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="17" t="n"/>
+      <c r="I8" s="11" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1" s="1">
       <c r="A9" s="7" t="inlineStr">
@@ -10799,7 +10796,7 @@
           <t>apk无账号获取凭证</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10809,12 +10806,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E9" s="21" t="inlineStr">
+      <c r="E9" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1622535182383, "processToken": "PQ81y37GJtXs7TzvY48Vr6"}, "success": true}</t>
         </is>
@@ -10822,17 +10819,17 @@
       <c r="F9" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="22" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H9" s="23" t="inlineStr">
+      <c r="H9" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="17" t="n"/>
+      <c r="I9" s="11" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1" s="1">
       <c r="A10" s="7" t="inlineStr">
@@ -10840,7 +10837,7 @@
           <t>msp无账号获取凭证</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10850,12 +10847,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D10" s="20" t="inlineStr">
+      <c r="D10" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E10" s="21" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1622535182420, "processToken": "KPEHTZjGfBUJcNzyAew8Lk"}, "success": true}</t>
         </is>
@@ -10863,17 +10860,17 @@
       <c r="F10" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="22" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H10" s="23" t="inlineStr">
+      <c r="H10" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="17" t="n"/>
+      <c r="I10" s="11" t="n"/>
     </row>
     <row r="11" ht="50" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
@@ -10881,7 +10878,7 @@
           <t>msp获取凭证不传appId</t>
         </is>
       </c>
-      <c r="B11" s="19" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
@@ -10891,12 +10888,12 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="19" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
-      <c r="E11" s="21" t="inlineStr">
+      <c r="E11" s="20" t="inlineStr">
         <is>
           <t>{"data": {"expireTime": 1622535182455, "processToken": "UWYXyAVCQPzJiK3YXMUhxr"}, "success": true}</t>
         </is>
@@ -10904,17 +10901,17 @@
       <c r="F11" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H11" s="23" t="inlineStr">
+      <c r="H11" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I11" s="17" t="n"/>
+      <c r="I11" s="11" t="n"/>
     </row>
     <row r="12" ht="50" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
@@ -10922,7 +10919,7 @@
           <t>token传入不正确</t>
         </is>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10932,12 +10929,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="20" t="inlineStr">
+      <c r="D12" s="19" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E12" s="21" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "20000", "message": "鉴权失败"}, "success": false}</t>
         </is>
@@ -10945,17 +10942,17 @@
       <c r="F12" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="22" t="inlineStr">
+      <c r="G12" s="21" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H12" s="23" t="inlineStr">
+      <c r="H12" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="17" t="n"/>
+      <c r="I12" s="11" t="n"/>
     </row>
     <row r="13" ht="50" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
@@ -10963,7 +10960,7 @@
           <t>partnerCode不传</t>
         </is>
       </c>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -10973,12 +10970,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="20" t="inlineStr">
+      <c r="D13" s="19" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E13" s="21" t="inlineStr">
+      <c r="E13" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
@@ -10986,17 +10983,17 @@
       <c r="F13" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H13" s="23" t="inlineStr">
+      <c r="H13" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I13" s="17" t="n"/>
+      <c r="I13" s="11" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
@@ -11004,7 +11001,7 @@
           <t>appPackage不传</t>
         </is>
       </c>
-      <c r="B14" s="19" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -11014,12 +11011,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="21" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E14" s="21" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
@@ -11027,17 +11024,17 @@
       <c r="F14" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="22" t="inlineStr">
+      <c r="G14" s="21" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H14" s="23" t="inlineStr">
+      <c r="H14" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I14" s="17" t="n"/>
+      <c r="I14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -123,14 +123,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -139,7 +131,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -153,16 +145,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,48 +181,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,9 +204,55 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -260,7 +260,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -286,13 +286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,13 +310,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,13 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,25 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,19 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,25 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,24 +491,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,18 +544,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +572,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -600,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -612,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4358,7 +4358,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4491,12 +4491,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "SWngK5Xd2Fv98jKt6sdBuN", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "PTsvpZ19BHF6ozS4mCWilRxE70gjd2nf", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "2069d49e01f9aadc611f8bb80bd249f5", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "GTysNSPeKBAV2tRk9Enr5X4lOHa8bgu3", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "a72ba1d3f1c036a3d4d0811d42f48b12", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"242f25b311b942ae87af5f0420378097\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211534428058e915a0599b17b5c10000\",\"sign\":\"05E9B1060897A84414E0E7AC77DFF40B\",\"timestamp\":\"1625577334\"}", "payRequestId": "RM20210706211534208677696912422t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"0a6fdbae25f14a24b008f0239eacb377\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx071453501846390efb906757bf73190000\",\"sign\":\"CD8D9229B9D79F9BDAF68547113E48EA\",\"timestamp\":\"1625640830\"}", "payRequestId": "RM20210707145349208677696982538t"}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -4512,8 +4512,10 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I7" s="11" t="n">
-        <v>1</v>
+      <c r="I7" s="11" t="inlineStr">
+        <is>
+          <t>1，currencySystem直扣必须填CASH</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
@@ -4534,12 +4536,12 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "GaGG6Ga8Mxt6X6Pcz8xioU", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "LXIQS6EqFROVciKpDBo1ZeawrAMst3Wn", "amount": 9999999, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 9999999, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "b7ac1958ea82a14add8e01dfbe81a1c0", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mpJU6YIu2kn8OqrNEHDobBtGjhyMse7w", "amount": 9999999, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 9999999, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "f21a267af9854ea0ce6d246a7f8f63f8", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM20210706211534208677696910047t%22%26subject%3D%22test%22%26body%3D%22test+paydirect+pay-alipay%22%26total_fee%3D%2299999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22rXPG7jH0ePg0FzX7uih%252Bil31JXiKa58H%252BAnOB4AZrdEgDGe%252FD9CeX1c3ZVHciDEFE3eZbA%252BnDLDRWUuaw8%252FOCxbzqAa2kkLWOxDsPtOr1FeUOAOkd0WUGbftMfZurwDOcuTTM%252Fbf9h44CPFGbmaTV0%252FTsR2crXYe%252FtJ0MrxcXIw%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM20210706211534208677696910047t\"}", "payRequestId": "RM20210706211534208677696910047t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22RM20210707145350208677696963552t%22%26subject%3D%22test%22%26body%3D%22test+paydirect+pay-alipay%22%26total_fee%3D%2299999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22F%252BoNACBeZ9TxuGTuMVNcnAgkQ5abBC7j1HjOgm8tyiHTROZM02%252BCHJfL4uYyobzIxsPBzqw0tSikuieLc4xjytNwTBJTdwqo6uF3e44dcwlzXrFbRv9q3TciBigQJWTVHF7Bb0M4iwe%252FprxSBWU%252Fizr9nRCB5ddOJ8%252Br04kTTuc%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"RM20210707145350208677696963552t\"}", "payRequestId": "RM20210707145350208677696963552t"}, "success": true}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
@@ -4555,8 +4557,10 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="11" t="n">
-        <v>9999999</v>
+      <c r="I8" s="11" t="inlineStr">
+        <is>
+          <t>9999999，currencySystem直扣必须填CASH</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
@@ -4577,7 +4581,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "PCbBVVDkGc6n4hhXGXLALp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "hpUf8rkQI97Z0JOmoTldaPB5xu1svtAX", "amount": 0, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 0, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "786bb0d9d0b8e48e5802b7652e6cdcab", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "r8a54YBOEmbwjDUC6KStsAfXIGF0TuJy", "amount": 0, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 0, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "926f50f42f8c4fa9e8a7f9e47dfef360", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
@@ -4598,8 +4602,10 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="11" t="n">
-        <v>0</v>
+      <c r="I9" s="11" t="inlineStr">
+        <is>
+          <t>0，currencySystem直扣必须填CASH</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
@@ -4620,7 +4626,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "Sb6cfXdH9D7Hj6BYFSsT8T", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "biHNJs1dXjpDro6EFWvCOl8KRcSwz3BL", "amount": 1.2, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1.2, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "bccfc7158746ef73c61afeb74e1b61df", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mGUxjv2s0e7hyocLW3DrIPHJ6AVMXZpF", "amount": 1.2, "productName": "test", "productDesc": "test paydirect pay-wxpay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1.2, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "d969070794e9d76792a2f250e0ad064a", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
@@ -4641,14 +4647,16 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="11" t="n">
-        <v>1.2</v>
+      <c r="I10" s="11" t="inlineStr">
+        <is>
+          <t>1.2，currencySystem直扣必须填CASH</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>直扣-支付宝，currencySystem=COCOIN_ALLOWED</t>
+          <t>直扣-微信，携带消费券</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -4658,17 +4666,17 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "CAj71XS1qB13Bc3DfG9VZC", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "zIS49DstoYvObG5flJ02RHrunhe3yTCj", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "appKey": "2033", "sign": "5ca40d8a7612268206017d71b8830028", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YNaRdW4VCp2J5Ffue9OAKq6sZmrtvXoD", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "1e932cd1a6656754bbc79a78cf11bc5a", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210706211534208677696900883t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}, "success": false}</t>
         </is>
       </c>
       <c r="F11" s="10" t="n">
@@ -4676,7 +4684,7 @@
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "RM20"}</t>
+          <t>{"success": false, "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
@@ -4686,14 +4694,14 @@
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>1，标志是否允许用可币，不用也可以</t>
+          <t>1，currencySystem直扣必须填CASH</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>直扣-微信，携带消费券</t>
+          <t>直扣-支付宝，携带可币券+可币</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -4708,7 +4716,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "2CKNFRGhNsoN4J9SdrjntM", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "HLph3GtQRVmr5B1bqnSZiwYux9gDTIaO", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "08a093ce128638ad78264b3cb03bf0b9", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "gkh9OMorvtlWD1cQXmA27biTzBd0uJ3y", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935506", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "1959a1d8ee7aef875d4886f8cb22dad8", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
@@ -4721,7 +4729,7 @@
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>{"success": false, "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}</t>
+          <t>{"message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�","success":false}</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
@@ -4729,34 +4737,36 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="11" t="n">
-        <v>1</v>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>101，currencySystem直扣必须填CASH</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>直扣-支付宝，携带可币券+可币</t>
+          <t>纯可币</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "GCh3JjD6djTsztwNZ4eri8", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "hQNKpsPVSz7l3W4a1EGjRkyAgfr0ib2m", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935540", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "270eabd792ebae5dcdaadebeb0e9c75e", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "ri25Y3VGqlbpj4Hu0R7OBmP8yFLNXkfa", "amount": 1, "productName": "test", "productDesc": "test pay only cocoin spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "a89589b684c530b29afc20dda5383917", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}, "success": false}</t>
+          <t>{"data": {"payRequestId": "KB20210707145350208677696925606t"}, "success": true}</t>
         </is>
       </c>
       <c r="F13" s="10" t="n">
@@ -4764,7 +4774,7 @@
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>{"message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�","success":false}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
@@ -4773,13 +4783,13 @@
         </is>
       </c>
       <c r="I13" s="11" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>纯可币</t>
+          <t>纯可币券</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -4794,12 +4804,12 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "W7bBvvff8SDUQJnXky7hUZ", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "SerYW3TxlQZuyCgB9EI2UPjVcRdJLXmp", "amount": 1, "productName": "test", "productDesc": "test pay only cocoin spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "cd5dd11dc01be6e7c5dcdb2d8c5a7e08", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "N1Zpfnr4Sckx37lXgbuqyJOtMAe28C0m", "amount": 1, "productName": "test", "productDesc": "test pay only voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "99181b1daa8eea028b6cacc442ef35aa", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210706211535208677696945544t"}, "success": true}</t>
+          <t>{"data": {"payRequestId": "KB20210707145351208677696977435t"}, "success": true}</t>
         </is>
       </c>
       <c r="F14" s="10" t="n">
@@ -4822,7 +4832,7 @@
     <row r="15" ht="15.75" customHeight="1" s="1">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>纯可币券</t>
+          <t>纯可币+可币券</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -4837,12 +4847,12 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "FiyjHMjwra4Zy3iyLT7rUs", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "el5iNnZ6m3czC2HAEyd1waIxGsvD8BqS", "amount": 1, "productName": "test", "productDesc": "test pay only voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "20647782e8b8abdbd8e7e5811e40c492", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "sVjT3UM6bEF47HDp9SqmhfOo0gJZ8LKQ", "amount": 100, "productName": "test", "productDesc": "test pay only cocoin+voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "45e412fa8fb9a0f76baf739d9abcf91b", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"payRequestId": "KB20210706211535208677696912625t"}, "success": true}</t>
+          <t>{"data": {"payRequestId": "KB20210707145351208677696953176t"}, "success": true}</t>
         </is>
       </c>
       <c r="F15" s="10" t="n">
@@ -4859,13 +4869,13 @@
         </is>
       </c>
       <c r="I15" s="11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="1">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>纯可币+可币券</t>
+          <t>可币+微信</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -4880,12 +4890,12 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "Eq73psPtibtN8MgHuTNvJH", "payType": "VIRTUAL_ASSETS", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "MufN1oJ4chXPi0wYergjSTIpmElBzHVR", "amount": 100, "productName": "test", "productDesc": "test pay only cocoin+voucher spend", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "36c0e92f9006205c335d7773110fb089", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "LiTkeGJx0mAbpotV6cQaBu8XjdDzZWvO", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 2, "cocoinDeductAmount": 2, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "967affcead901356cd50d092f2c4b9cc", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "222", "message": "鏀粯鏂瑰紡涓嶆敮鎸�:VIRTUAL_ASSETS"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"2c994dfa437143ce9bda0e4291bc6fed\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0714535190956452444a78b6396b1c0000\",\"sign\":\"77EB961CACEDB5E55A1EC1E70455DA2D\",\"timestamp\":\"1625640831\"}", "payRequestId": "KB20210707145351208677696926420t"}, "success": true}</t>
         </is>
       </c>
       <c r="F16" s="10" t="n">
@@ -4893,7 +4903,7 @@
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "KB20"}</t>
+          <t>{"success": true, "appid": "wx93eea96ecc33f168"}</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
@@ -4902,13 +4912,13 @@
         </is>
       </c>
       <c r="I16" s="11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>可币+微信</t>
+          <t>消费券+微信</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -4921,14 +4931,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
-        <is>
-          <t>{"processToken": "WkH8JVrMwY7ZaZcJ8xJaSG", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "ltaOmRfUrxXyweqYC83iL2p4ASo9ZnPJ", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 2, "cocoinDeductAmount": 2, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "e5eecb0bc84b7af70fc59751868b7a08", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "UOn7teAZKgJGwIF1Nr5CBV9WLy8mxsMv", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "bf5ad984a92cfe706b71cee0e6995c20", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"318057d409be48068967196667914b3a\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211535756856c06fbfc17bec2f050000\",\"sign\":\"5600C2EA4B3CC751213902E672E31A6D\",\"timestamp\":\"1625577335\"}", "payRequestId": "KB20210706211535208677696903861t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"ca6997809c1a4421b80280e518c00372\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145352694464cea7f1dd1a16753b0000\",\"sign\":\"296267CB77285DD2C0DFEA3CA7B99FCC\",\"timestamp\":\"1625640832\"}", "payRequestId": "KB20210707145352208677696904628t"}, "success": true}</t>
         </is>
       </c>
       <c r="F17" s="10" t="n">
@@ -4936,7 +4946,7 @@
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "appid": "wx93eea96ecc33f168"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
@@ -4951,7 +4961,7 @@
     <row r="18" ht="15.75" customHeight="1" s="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>消费券+微信</t>
+          <t>抵扣券+支付宝</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -4964,14 +4974,14 @@
           <t>+</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>{"processToken": "Ef38eiaBwLPq4kuhGtZv97", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YKfnEDsvdCF2bzSgT1Lhm30HOai7uZ69", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "a891979ff555cb62596c20d8df42459f", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "gJ3zjKvxN5MrZInXskmT9hWalO6qVFPL", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "8eb7f432847f79c9e2992116e13dc59b", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"de9eadb2e8564c02b2e49c963f6621ab\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211536166251890a465b80e93d260000\",\"sign\":\"F650C2F058B745EA56A58EED85481CEA\",\"timestamp\":\"1625577336\"}", "payRequestId": "KB20210706211535208677696930522t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210707145352208677696910178t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22Ct5h%252BrRKkdMW4XztfuY%252BUAEvpN7TdBYXxyF%252BsBc5WIMcXQLKx6ZI7dL71U2KE84KdSZZQpZLPL%252BUsVMbUXDvb8ZNhyn96lfPeA1%252BnYHuI9GjzaPIzAOiCv0bYb2BuXXFfiGC0vj3bi0UfG7P7QnlsStIFtW0sASFF5lV0BOGKbk%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210707145352208677696910178t\"}", "payRequestId": "KB20210707145352208677696910178t"}, "success": true}</t>
         </is>
       </c>
       <c r="F18" s="10" t="n">
@@ -4988,33 +4998,33 @@
         </is>
       </c>
       <c r="I18" s="11" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="1">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>抵扣券+支付宝</t>
+          <t>抵扣券+支付宝，未达到条件金额</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "3iJEmS84epThwsbv9E1hZw", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "Sfk1inxyU6NIGzOFCbPLeYsHTural3Qm", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935549", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9e243a5ed635a5c7e2b3406bc75b80aa", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "0QfhZ1E4CW5lUmdTHAD2e9JjYvXVtOxI", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "61d8cc0645e462eeafc5f8dd9da3aa0f", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211536208677696947833t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22RcyonKKCn5n%252BAV7L5gBsJq7dr0%252BNf23IrIPOGO3fdDafRWXI%252BZ%252BSNpoCcuNzJX2seJCygykWoAOdGa7Z3BN5XDNNVVfD6PEeBP9IqzON%252BGnfryvT93K0N2qVc5%252FifzmaGagopCzDhwsskvysiFe1XPxtUynfvZDR8bUJmCE5PSA%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211536208677696947833t\"}", "payRequestId": "KB20210706211536208677696947833t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
         </is>
       </c>
       <c r="F19" s="10" t="n">
@@ -5022,7 +5032,7 @@
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "KB20"}</t>
+          <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
@@ -5031,33 +5041,33 @@
         </is>
       </c>
       <c r="I19" s="11" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="1">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>抵扣券+支付宝，未达到条件金额</t>
+          <t>折扣券+微信</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "UxjgdSo2sRfazutNyEv5qE", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "fIBWa2dDHCJ1wsmkRp3X9luQg4N6ZYjS", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "99e33f200ea4a0781c8b16ea9f244939", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "B9EZVDMYeEWaFAHuyu7gzg", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "qFkx1woWSn7jhftAKaTpvcO6Eb0d5XCL", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "20d700b919204e334fdd67ad61851131", "timestamp": "1625640747576", "nonce": "AUjqM0EK", "country": "CN"}</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"37961f37fa49427abbf869c8b309281a\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145234521433b4dc43aa4210e9170000\",\"sign\":\"9DB109A6041484729D19DF6CE8C09D96\",\"timestamp\":\"1625640754\"}", "payRequestId": "KB20210707145234208677696901665t"}, "success": true}</t>
         </is>
       </c>
       <c r="F20" s="10" t="n">
@@ -5065,7 +5075,7 @@
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
@@ -5074,33 +5084,33 @@
         </is>
       </c>
       <c r="I20" s="11" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="1">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>折扣券+微信</t>
+          <t>折扣券+微信，未达到条件金额</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "146F2KETm8HWxoUA5F3b8X", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "BTQzv3UYjOGcoRlkJI7nbxZq8sE4wmgr", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9ecee89aee3993a501eadc43794e5bad", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "B9EZVDMYeEWaFAHuyu7gzg", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "Pvyogi4bhjWEf2FxU7HsYmMLR0qKn6De", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "d065f516be615579ab95da38b7bae6cc", "timestamp": "1625640747576", "nonce": "AUjqM0EK", "country": "CN"}</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"679b3c802a5e4540959b92119d524a63\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx062115366900959fc845a5dc925fd50000\",\"sign\":\"5E3629AF56D440E67136DBF74FDF1012\",\"timestamp\":\"1625577336\"}", "payRequestId": "KB20210706211536208677696926731t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
         </is>
       </c>
       <c r="F21" s="10" t="n">
@@ -5108,7 +5118,7 @@
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "KB20"}</t>
+          <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
@@ -5117,33 +5127,33 @@
         </is>
       </c>
       <c r="I21" s="11" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="1">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>折扣券+微信，未达到条件金额</t>
+          <t>消费折扣券+支付宝</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "bLRcEeJpEcJKUF9Vyngbt", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "HsS8aoIhCNLfykMZ6JU9bvPQxdTm1cB5", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935550", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "e4a998d199d6f1ab4e15cf4796bae24b", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "Fro9c846vdYIQuyhw5j7k0WpSKbHgNOn", "amount": 100, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935562", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "77107dd357454f608bc8db2da7b03599", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210707145353208677696984131t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22pe98gfLq%252FB29WAgbuNvi%252FeFohbzvVjqoxzpRM12spjqNcTnN1sj174jidxSP%252BAD0VoAoMY9zaeqMOkUnDg0JVsZ8TAM5O1lwHm3NqcFd7T%252BWgyqm61BttKnGkv7Az6KkGGF0Xru2b8asugmPPL22p0stbvAfV73%252BwQ%252FE7CbS61E%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210707145353208677696984131t\"}", "payRequestId": "KB20210707145353208677696984131t"}, "success": true}</t>
         </is>
       </c>
       <c r="F22" s="10" t="n">
@@ -5151,7 +5161,7 @@
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
@@ -5160,33 +5170,33 @@
         </is>
       </c>
       <c r="I22" s="11" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="1">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>消费折扣券+支付宝</t>
+          <t>消费折扣券+支付宝，未达到条件金额</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "LjHnC2PbeyDj4FLpk67bdp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YsOxSMByNUw6WDJkPpc0LEHGh7vdVo2R", "amount": 100, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 100, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935542", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "f769392c4216f6e6246cf113cb413ea0", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "caY5KdESZb4gF6t9HQOxyP0rlhW8NJTn", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935493", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "7b08498c64ef16f797c4ea9be4c27506", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211536208677696934054t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22F%252BUEgfNx2p0oENwZvWgKeNoN%252F6G2k7T%252FPwll5dDKWm%252BSRHvycFd7gNEiuGM1wem%252F2ioOKQ00LzdLtSQ8OG8eM0LkNG3iovnwUZr0nqJWnRsOST7XPw8EqqwUQh%252FOP7lMY8hxTs0Lcn2cPvlciXZcoZMwAbjLS4313CynGHrXQ6M%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211536208677696934054t\"}", "payRequestId": "KB20210706211536208677696934054t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
         </is>
       </c>
       <c r="F23" s="10" t="n">
@@ -5194,7 +5204,7 @@
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "KB20"}</t>
+          <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
@@ -5203,33 +5213,33 @@
         </is>
       </c>
       <c r="I23" s="11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="1">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>消费折扣券+支付宝，未达到条件金额</t>
+          <t>红包券+微信</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "U7jFf1G2qaXGHJxv7PEhZ1", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mSGJjUuD27cpABEfNH6nwykKi1dI9gzx", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935521", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 9, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "7d4a20d26855822dfdd5aa105c52ca8a", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "gohkQiRJrXb60wls4TaAEtM1CNzDPHO9", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 0, "cocoinDeductAmount": 0, "voucherId": "100935522", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "4d19cefc50ef705da0038b7e5cab7f16", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"4e1f242c7e5a4c2d87f1817a3ac7617c\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0714535415471083ae9ec1b7cbe8140000\",\"sign\":\"706A5DEEC2E16DA0FD6DEC4183366EA3\",\"timestamp\":\"1625640834\"}", "payRequestId": "KB20210707145353208677696962557t"}, "success": true}</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
@@ -5237,7 +5247,7 @@
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>{"success": false, "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
@@ -5246,13 +5256,13 @@
         </is>
       </c>
       <c r="I24" s="11" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="1">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>红包券+微信</t>
+          <t>可币+消费券(单张)+微信</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -5267,12 +5277,12 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "Py7r8RgoyXZgJ6o1Zyg9Nu", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "mxdE1VU6rbWBsQ35A7DNKC8pkc2aIuzl", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 0, "cocoinDeductAmount": 0, "voucherId": "100935552", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "1ab3c05c774e5d0be531bfcce49c9843", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "fqSmJyGD4Nz37VI1xlLHjPRXedptYMOE", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "71839aa10a41add3ed5db64abe802a99", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"4573b91866494d4b8aa80a0acc8077a2\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx062115371918181a460bf28588e7130000\",\"sign\":\"D5E821F8797785A4846CD98334FE6C45\",\"timestamp\":\"1625577337\"}", "payRequestId": "KB20210706211536208677696918374t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"d2201d126a0543afa7d2a94ecb6cf0df\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0714535464310221a33790ac606d670000\",\"sign\":\"3CF52C0B5EC1914076FA26385FA752BC\",\"timestamp\":\"1625640834\"}", "payRequestId": "KB20210707145354208677696974665t"}, "success": true}</t>
         </is>
       </c>
       <c r="F25" s="10" t="n">
@@ -5289,18 +5299,18 @@
         </is>
       </c>
       <c r="I25" s="11" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="1">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>可币+消费券(单张)+微信</t>
+          <t>可币+消费券(单张)+微信，券扣减金额大于券面额</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
@@ -5310,12 +5320,12 @@
       </c>
       <c r="D26" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "PACxG51WiJSNnM7U3Usw7g", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "fGm6uLN91riVDwg7cUvHTO5KRb2ZCW0I", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "0e1d6e2b1138e6ad240116705b148c5d", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "CLmdGqBipeDt9vHZK8Y746S2wVu3x50O", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "08634792a53d27acdead8c2e89ad3e13", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"3ad9fa099ce84eb69c03f0b4b06a55b1\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211537593932dcc18082243f34cb0000\",\"sign\":\"685AE1BA108297933F802A6E7E43064A\",\"timestamp\":\"1625577337\"}", "payRequestId": "KB20210706211537208677696968722t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"c900ba11eea449259eaebd909f682928\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145355261214649b79a91b8802810000\",\"sign\":\"44B8CD7D3A8FF3AB82EB24005E4DF1B3\",\"timestamp\":\"1625640835\"}", "payRequestId": "KB20210707145355208677696987176t"}, "success": true}</t>
         </is>
       </c>
       <c r="F26" s="10" t="n">
@@ -5331,19 +5341,21 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I26" s="11" t="n">
-        <v>10</v>
+      <c r="I26" s="11" t="inlineStr">
+        <is>
+          <t>10，券扣减金额字段会被服务端干掉</t>
+        </is>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="1">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>可币+消费券(单张)+微信，券扣减金额大于券面额</t>
+          <t>可币+消费券(多张)+微信</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C27" s="8" t="inlineStr">
@@ -5353,12 +5365,12 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "WGvWFZZZWz2LK5jAMCTGJ6", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "7Shr8THtcxZMn6kXF9CYafEUlgs0Kuvo", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "4681e7e24b4dc75389e4d2970dffedba", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "UBjZHDn9t1O2uP8rXwfGJeyiWdIK6com", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "16a6e156dd2146aea8e51bf696e1f0dd", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"11b3e3ecd71b4cc5bbd81fc6ab9334c9\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0621153800922369755faee96f0b790000\",\"sign\":\"1C9FDA07DCD8A10C686633E8254A92AF\",\"timestamp\":\"1625577338\"}", "payRequestId": "KB20210706211537208677696963876t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"2e15f14cbbe9480d8946c335f3ff7c49\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145355741984770f6a88619b6a150000\",\"sign\":\"55F0A5AEA43C103D790CB1F2AAFEAD70\",\"timestamp\":\"1625640835\"}", "payRequestId": "KB20210707145355208677696982066t"}, "success": true}</t>
         </is>
       </c>
       <c r="F27" s="10" t="n">
@@ -5374,16 +5386,14 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I27" s="11" t="inlineStr">
-        <is>
-          <t>10，券扣减金额字段会被服务端干掉</t>
-        </is>
+      <c r="I27" s="11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="1">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>可币+消费券(多张)+微信</t>
+          <t>可币+抵扣券+支付宝</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -5398,12 +5408,12 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "Q6Sh3TyjRXbU6ziXE6nSgj", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YJzuAKl5sj3npfceBih7Fq0dHWMPV2mO", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "0", "voucherCount": 5, "voucherType": "1", "voucherDeductAmount": 2, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "d02be9ff382fc2037d1bfea864eeb4d9", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "3Y0tTvW4iO29qkQAKlCcZexM1IrbhSzm", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935560", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "314ab022df90d97658387132998622f7", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"593bc5d5381f436d89ac07cfae974a12\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211538384047cf7d6e3202158bb70000\",\"sign\":\"E487958CA3B0C15B9194FE4E8D720D7C\",\"timestamp\":\"1625577338\"}", "payRequestId": "KB20210706211538208677696930534t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210707145357208677696923218t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22CtB4%252FQvo6SYovDbUPF8LSOIF4rPamFswPfdcj2FAc9T%252BGB97HzBM%252BmTuspUjSpqV5rAoupVvIodceudlCr%252FnXFghqh9zOB6XQZQwWCkhICXHqnMzulWaY3FwynAxDMMlLh2tRMMjYmZoCUFXe9JEsZxmLK1g8bAEav9HarGRpIU%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210707145357208677696923218t\"}", "payRequestId": "KB20210707145357208677696923218t"}, "success": true}</t>
         </is>
       </c>
       <c r="F28" s="10" t="n">
@@ -5420,33 +5430,33 @@
         </is>
       </c>
       <c r="I28" s="11" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="1">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>可币+抵扣券+支付宝</t>
+          <t>可币+抵扣券+微信，支付金额不能为负数</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "3VWEn5heVPvUmLfeEsPwM5", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "DtSK6LICcJxhTF8Y3a9zM72fleopkwHj", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935549", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9ce1c14e9bf970140918499d9f2f81c8", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "sKLlzS5pQgT83jtEhe9vdmMXiPOrq0HZ", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 10, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "3fe0edbd05d5e309ab582fdf3924af3f", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211538208677696948603t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22SLNtQvjRzienBJbyhJ%252BTrMDDiNy%252B4ZceTTxYDgzgvhYeQZOZBz4rtW7n8cXkRn0Z9%252FAU83sMDFyGxmfDkAC9ywt4g26%252BaM%252FIj95UFMFIdmRrY3orrvEwSi2ctRiL2f8q6jLiGgwb0anYQCJ6Qb5RDQt%252Bu%252B81Dyt9KcwMnKjxsfo%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211538208677696948603t\"}", "payRequestId": "KB20210706211538208677696948603t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}, "success": false}</t>
         </is>
       </c>
       <c r="F29" s="10" t="n">
@@ -5454,7 +5464,7 @@
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "KB20"}</t>
+          <t>{"success": false}</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
@@ -5462,34 +5472,36 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I29" s="11" t="n">
-        <v>101</v>
+      <c r="I29" s="11" t="inlineStr">
+        <is>
+          <t>10，10-10-1=-1</t>
+        </is>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="1">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>可币+抵扣券+微信，支付金额不能为负数</t>
+          <t>可币+折扣券+支付宝</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "2wUMpNWaNEmVmHtDGSLLBD", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "zBMC8x6jyb7lrs4FZdL9cGHKJaPpXVvS", "amount": 10, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 10, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935519", "voucherCount": 1, "voucherType": "2", "voucherDeductAmount": 10, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "2a2f10ac280747eed4b49af07fd840d3", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "B9EZVDMYeEWaFAHuyu7gzg", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "AJyXKgwPnVNZHF8DzvY3S46LihcCejGk", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "22c1d77681716249f4c647d2e3510800", "timestamp": "1625640747576", "nonce": "AUjqM0EK", "country": "CN"}</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "鐩村啿涓嶈兘鏈変紭鎯犲埜鍜屽彲甯侀噾棰�"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210707145237208677696952533t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22s92Gf3T0TvqNubOLc5ZtC3S5RhLlGUZYS0KjyDqzIJtX4bsYiZGjFK1J8omDUpnPCH0Kj7l20KyaRNgNWBLMuSYwFz%252F%252FFAVYub2J84MG2Due6LQfjIFJb7lcRUrvFatpb9WjSlcNuPSPxDAAqPmONuuhz%252BAoOZJLOTpxOeCPlB4%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210707145237208677696952533t\"}", "payRequestId": "KB20210707145237208677696952533t"}, "success": true}</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
@@ -5497,7 +5509,7 @@
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>{"success": false}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
@@ -5505,16 +5517,14 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I30" s="11" t="inlineStr">
-        <is>
-          <t>10，10-10-1=-1</t>
-        </is>
+      <c r="I30" s="11" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="1">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>可币+折扣券+支付宝</t>
+          <t>可币+消费折扣券+微信</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -5529,12 +5539,12 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "qMDEihNgGRPLgFuovDbuw", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "uryV0W8aKBzgGdSERpfi6v25CI7TPQjF", "amount": 101, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 101, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935507", "voucherCount": 1, "voucherType": "3", "voucherDeductAmount": 99, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "3870b1e57f4b3205dce416fadfe8194b", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "lez3ABDxKqLwOGMU0T1nZ6PHjigvNEFI", "amount": 1000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1000, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "100935493", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 990, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "9d863751e347c46e8b68ed2ad57e8b7c", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211538208677696983242t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%220.02%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22HSDMP5OheGGYCB8ruNQM3QLR%252Bs9UeE7AuDsKwKPf%252Fmo6UNdk0Z3b71yjrMMUE6XpNndjia9FhB%252FqYpet6Zdq8jqmqK%252BPkiQOZfqGH2KBQHzS5C66k4SkFPVBDMPh98T1ZIVnqCn1ZyjuNN9RDgs4taJtbGYVoWY%252F1cNzavMn%252FU8%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211538208677696983242t\"}", "payRequestId": "KB20210706211538208677696983242t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"6a26f606e7b640fa89a024cea64b23a3\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145358209303a8bef135aa7b861a0000\",\"sign\":\"1B4543D4AFE706137F5F39F601B58CF3\",\"timestamp\":\"1625640838\"}", "payRequestId": "KB20210707145357208677696925474t"}, "success": true}</t>
         </is>
       </c>
       <c r="F31" s="10" t="n">
@@ -5551,13 +5561,13 @@
         </is>
       </c>
       <c r="I31" s="11" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="1">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>可币+消费折扣券+微信</t>
+          <t>可币+红包券+支付宝</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -5572,12 +5582,12 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "VKUC3WijRphffxy1EGmGUX", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "AxnJ1CNdBhvOcQXjsHRkIE5og23uWLpG", "amount": 1000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1000, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 4, "cocoinDeductAmount": 4, "voucherId": "100935542", "voucherCount": 1, "voucherType": "4", "voucherDeductAmount": 990, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "814fd31d72041084c65874c72f56d555", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "dlyR6h21n59bIDEPJUBAGuTswM3H7X0S", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935509", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "a593a1a4c32d44d634c2b37d8d0e9b2e", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"054a0f84f63d45fca6f5d71a156b8708\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx062115390626526dacd7501a821aac0000\",\"sign\":\"B5010F7EE5D14A98CFF88C454570BA95\",\"timestamp\":\"1625577339\"}", "payRequestId": "KB20210706211538208677696970880t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"9f1736ed24d14db28663dc35ccba98f0\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145358642364cc944a30cb1768df0000\",\"sign\":\"7D35819D673A46032F46BBDB7BBDD234\",\"timestamp\":\"1625640838\"}", "payRequestId": "KB20210707145358208677696930417t"}, "success": true}</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
@@ -5594,13 +5604,13 @@
         </is>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="1">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>可币+红包券+支付宝</t>
+          <t>纯充值-微信</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -5615,12 +5625,12 @@
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "MSkTAaYJrgDymyFtqRLqhH", "payType": "wxpay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "YEGRd5NT6oCMxuU7Zs4ceJSw8PBVzt0g", "amount": 2000, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 2000, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "100935522", "voucherCount": 1, "voucherType": "8", "voucherDeductAmount": 1000, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "b95e7c81959cf59cdf2a7baa57d31cb2", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "9cf27658c997874228a50650895c6055", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"ec456abc46db4134be6146741e59e164\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0621153950728835f835cfbffeae830000\",\"sign\":\"28B504CAF6093975336005AD40543BD9\",\"timestamp\":\"1625577339\"}", "payRequestId": "KB20210706211539208677696932041t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"8c89c871fcb14b7b96204f1bf4b5f0e0\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx071453590065865111d62bec3e84e70000\",\"sign\":\"A98F5CB55C77F16C7DE351122108646C\",\"timestamp\":\"1625640839\"}", "payRequestId": "KB20210707145358208677696956536t"}, "success": true}</t>
         </is>
       </c>
       <c r="F33" s="10" t="n">
@@ -5628,7 +5638,7 @@
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "KB20"}</t>
+          <t>{"success": true, "payRequestId": "RM20"}</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
@@ -5637,13 +5647,13 @@
         </is>
       </c>
       <c r="I33" s="11" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="1">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>纯充值-微信</t>
+          <t>纯充值-支付宝</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -5658,12 +5668,12 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "999b4e2147e613b66e4ba046b7df52ed", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 999999999, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 999999999, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "58033fc2dcecfb06abb06b65701823d9", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"b7420f45d22e4ace9231e4b0f0d0e5cf\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx0621153983377663552a650cc108b30000\",\"sign\":\"CE5B7CAA39DEDBF4CD99B20058613711\",\"timestamp\":\"1625577339\"}", "payRequestId": "KB20210706211539208677696936718t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210707145359208677696944384t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%229999999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22SGYw5KMCoK1SYtyiqIV7%252FXINl1duuHqt3xvgBgL3Fz2Mjntzu%252BLDRYkKhJLwq2Bv9NM%252F3tLOF%252B6fJLqvSBqOJTecZ0BvCMo0EJq8Tyht9PWtpmYJXO1tEmrqc%252FRUUMdy0%252Fk5Jis84ZqWEl%252F4qgbFiG%252BwaYER7WLDsiJk%252B5ofchQ%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210707145359208677696944384t\"}", "payRequestId": "KB20210707145359208677696944384t"}, "success": true}</t>
         </is>
       </c>
       <c r="F34" s="10" t="n">
@@ -5680,33 +5690,33 @@
         </is>
       </c>
       <c r="I34" s="11" t="n">
-        <v>1</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="1">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>纯充值-支付宝</t>
+          <t>纯充值-微信，携带可币券</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C35" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D35" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 999999999, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 999999999, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "appKey": "2033", "sign": "cae8ebdfb903cd5e0621c6d06706c71e", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "7d8bc71ea04fa23d23742a43e793c3f4", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210706211539208677696901702t%22%26subject%3D%22test%22%26body%3D%22test+pay%22%26total_fee%3D%229999999.99%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22OmvDzFhnXssyvViASiu9uU5s53hoky5%252F%252BMVwZZACzNtyW7vHqjVPZCZUOIOAYq4k9yHKjfjFl6m4dfOHOEGp%252B65upHU%252F7Lg2qIyW17N%252B3wZy7qR5omllxqC8bYQqwk4x%252FgEyTECTJ8PqW%252F%252BQk9VDAJlOo57Ef0z8%252B35ANsqV2B0%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210706211539208677696901702t\"}", "payRequestId": "KB20210706211539208677696901702t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
         </is>
       </c>
       <c r="F35" s="10" t="n">
@@ -5714,7 +5724,7 @@
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "RM20"}</t>
+          <t>{"success": false}</t>
         </is>
       </c>
       <c r="H35" s="11" t="inlineStr">
@@ -5723,13 +5733,13 @@
         </is>
       </c>
       <c r="I35" s="11" t="n">
-        <v>999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="1">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>纯充值-微信，携带可币券</t>
+          <t>纯充值-支付宝，携带可币</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -5744,12 +5754,12 @@
       </c>
       <c r="D36" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "FULL", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.oppo.usercenter", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "0", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "f1724c3212012972f11ed81a6563c219", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "c772925bac153f403852c2a239f0e284", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E36" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"0cde86ce86a44f0c87abcc0bd96557d6\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx07145400972913a166a4e7695685400000\",\"sign\":\"911B6E916478E8F715E83211831B25AB\",\"timestamp\":\"1625640841\"}", "payRequestId": "KB20210707145400208677696936838t"}, "success": true}</t>
         </is>
       </c>
       <c r="F36" s="10" t="n">
@@ -5772,7 +5782,7 @@
     <row r="37" ht="15.75" customHeight="1" s="1">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>纯充值-支付宝，携带可币</t>
+          <t>纯充值-支付宝，currencySystem=COCOIN_ALLOWED</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -5787,12 +5797,12 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "wxpay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "CASH", "virtualAssets": {"cocoinCount": 1, "cocoinDeductAmount": 1, "voucherId": "", "voucherCount": "", "voucherType": 0, "voucherDeductAmount": 0, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "5c17c21b4a91721db3800da6dbf87025", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935123", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "393c13d959730e2dd5600a99e184f35d", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"6be48af89a214386b76eacccaa975eef\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1559247341\",\"prepayid\":\"wx06211541302858c1a289b62d2d93ba0000\",\"sign\":\"34808CA618263054ADB989121692A635\",\"timestamp\":\"1625577341\"}", "payRequestId": "KB20210706211541208677696920676t"}, "success": true}</t>
+          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
         </is>
       </c>
       <c r="F37" s="10" t="n">
@@ -5815,7 +5825,7 @@
     <row r="38" ht="15.75" customHeight="1" s="1">
       <c r="A38" s="7" t="inlineStr">
         <is>
-          <t>纯充值-支付宝，currencySystem=COCOIN_ALLOWED</t>
+          <t>直扣-支付宝，currencySystem=COCOIN_ALLOWED，无可币</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -5825,17 +5835,17 @@
       </c>
       <c r="C38" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D38" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "DJ9Y8TZ7uVaTVBm2XoxQvF", "payType": "alipay", "goodsType": "COCOIN", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "", "amount": 1, "productName": "test", "productDesc": "test pay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "HALF", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "virtualAssets": {"cocoinCount": "", "cocoinDeductAmount": 0, "voucherId": "100935123", "voucherCount": 1, "voucherType": "1", "voucherDeductAmount": 1, "virtualVoucher": "", "creditCount": 0, "creditDeductAmount": 0}, "appKey": "2033", "sign": "1963cdba33d9a466b77d805283224a12", "timestamp": "1625577285745", "nonce": "cnEeiq0O", "country": "CN"}</t>
+          <t>{"processToken": "V4GGAWpDZQdRLxBogAk2Bp", "payType": "alipay", "goodsType": "COMMON", "platform": "ATLAS", "partnerCode": "2031", "partnerOrder": "r170G3Ajnakxb5EUzoFhmIBLQKlC9gwT", "amount": 1, "productName": "test", "productDesc": "test paydirect pay-alipay", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "clientCallbackUrl": "", "price": 1, "count": 1, "screenInfo": "ACROSS", "currencyCode": "CNY", "currencyName": "", "source": "", "appPackage": "com.example.pay_demo", "appVersion": "", "appId": "", "partnerSign": "", "channelId": "", "factor": "", "discountCode": "", "acqAddnData": "", "attach": "", "ext": "", "token": "", "currencySystem": "COCOIN_ALLOWED", "appKey": "2033", "sign": "dea4a83028dfbe1f24eacbae7eee4fb8", "timestamp": "1625640824336", "nonce": "W1cROCSA", "country": "CN"}</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "浣跨敤浼樻儬鍒告椂, 浼樻儬閲戦涓嶈兘涓�0"}, "success": false}</t>
+          <t>{"data": {"channelData": "{\"payType\":\"AlipayPlugin\",\"mes\":\"partner%3D%222088311951685799%22%26seller_id%3D%22kekezhifu%40keke.cn%22%26out_trade_no%3D%22KB20210707145359208677696921456t%22%26subject%3D%22test%22%26body%3D%22test+paydirect+pay-alipay%22%26total_fee%3D%220.01%22%26notify_url%3D%22http%3A%2F%2Fopaycenter-secure-test3.wanyol.com%2Fopaycenter%2Fnotifypluginreader%22%26service%3D%22mobile.securitypay.pay%22%26payment_type%3D%221%22%26_input_charset%3D%22utf-8%22%26it_b_pay%3D%2230m%22%26sign%3D%22UnqnD3AXex7QeZsBZaZNfZh51nfrdGAteFPFFyyLidEbHabrci4X6J85jEdjeMCSDcVBl59LBYqWIJ%252FNXRFw5ITLWB%252BxDItd4wQY6lEXxyef9XxYnD0t3SvOgvUMDwVvFM%252FeAzTaXu05arz31%252BX1hqNZQzuzJl1YhzuyXcz4kIw%253D%22%26sign_type%3D%22RSA%22\",\"system_order\":\"KB20210707145359208677696921456t\"}", "payRequestId": "KB20210707145359208677696921456t"}, "success": true}</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
@@ -5843,7 +5853,7 @@
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
-          <t>{"success": false}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H38" s="11" t="inlineStr">
@@ -5851,8 +5861,10 @@
           <t>passed</t>
         </is>
       </c>
-      <c r="I38" s="11" t="n">
-        <v>1</v>
+      <c r="I38" s="11" t="inlineStr">
+        <is>
+          <t>1，标志是否允许用可币，将扣除可币余额</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28080" windowHeight="13065" tabRatio="913" firstSheet="2" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28080" windowHeight="13065" tabRatio="913" firstSheet="2" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simplepay_recharge_spend" sheetId="1" state="visible" r:id="rId1"/>
@@ -123,15 +123,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +167,47 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +222,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,75 +230,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -251,8 +245,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -261,6 +254,13 @@
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -286,7 +286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,19 +298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,19 +310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,31 +346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,13 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,13 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +495,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -525,26 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,15 +584,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -600,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -612,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4357,8 +4357,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "appid": "wx93eea96ecc33f168"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "RM20"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
-          <t>{"success": true, "payRequestId": "RM20"}</t>
+          <t>{"success": true, "payRequestId": "KB20"}</t>
         </is>
       </c>
       <c r="H34" s="11" t="inlineStr">
@@ -5880,8 +5880,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6014,12 +6014,12 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "HRrXS1dm5f6h4CgtPenLjDUMKAi0oYxl", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "TB5LBVoZ8Z3HMnnVi3LV4R", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "114cfc8da30a99b473252c8e1dd3b461", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "dsz7iPu2mOlHBEh0GNRx31WA6JogS5MI", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "GojHtWALFU1iDiVycUGdc6", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "cddfe74d7eb4ebdcdff270a8dd1f3818", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "NsMJDUYy80BgZbkW9VCaihXfFQpxcmv7"}</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"d113713eec8c4f878ffb0d3118c0a440\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx17101504578033ffe26fdcad24a9960000\",\"sign\":\"72752199DE9B9C5D3B09376F9773F87B\",\"timestamp\":\"1623896104\"}", "payRequestId": "RM20210617095156208677696917142t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"7e8cfb1101d24d798e523da8b4e25474\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx07203648489071b330b53c1903be500000\",\"sign\":\"3997AFAC5806C947B65D131317CF738E\",\"timestamp\":\"1625661408\"}", "payRequestId": "RM20210707203648208677696951771t"}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "HRrXS1dm5f6h4CgtPenLjDUMKAi0oYxl", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "N3wawcWCZS1NokvqibHXch", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "b345218d9712eb0ceff02b914d8998f5", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "7Qusy0AeiU68vSR4mcYbktEIo5nxHJBD", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "Gdnj3fQn5K4Cw9vBs3Z1zL", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "5f098e37fc23766938c8a65c9a94486d", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "Oo7LFnmZDrzVtG2bJK1EBkA4ciWpd8as"}</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202106171015041381633876730528%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210617095156208677696951284t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.01%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DYjnEfwbaGIpat7zPEKYUQUwfKLJjPBhOAsQ6%252BopUMbZiwOc95wDViI0vqgna5KaUtAqctnSQwkq4T6k50FWoTxMXN8BRMateNcUP3EjNrT%252BTHLhIbv8VVr%252Ff5S7q0kHIXularN8UsqteJUqkRuV5uvehibfUYXzgKPDyX%252FYeBL05LiNqieD2Us2dG8LkUsdQw3AY7%252BfRbzGqmFl%252FbO8wrWP7xmQITubJCRckcwdAGvg7GIsY4Ajp2kenMJEhtqDgDi%252Bzu1ZdhsynYYR02Cu8SbJWh%252FlWru56AHGPHhWMfEqVEcmqA6%252BNb3urFTV4eY8uTjXOEgVWgxBgxaB%252BE%252BCckQ%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-06-17%2B10%253A15%253A04%26version%3D1.0", "payRequestId": "RM20210617095156208677696951284t"}, "success": true}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202107072036481326274008126254%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210707203648208677696905325t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.01%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DpkEfFWoyaAKYvd4p1sywGduTuk0kX1tmTKVHUP1Qnb6D%252FuNxSF%252B3%252B9q3GZdEVef1%252BfEYAzZNlvyQbYMkAoUSMhW407tBAK3RPFAQtLU23BdDZLMAQRGt6S5kSQFwgjuRs3sNPRGpu2Y0XUJIOTlB1Zx6cWWz4yGCeHYJni1AuXbG3PfOm9i7oJxQs9Fwe0nwivoluCzZTIsu%252BbO%252BbVY72hCZvgef2Eo%252FjEJOjL%252Fgtdw4mnnaCSHqsCdv9PxqTpqHN0syPMPbyPdTxPZ4xdz%252BsaxEtGjNKeudgfY0ak0h6EafmQL0AJkeGiac9ZMNQvVhztVu%252FrBz3ugJzzqQ2hhyfg%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A48%26version%3D1.0", "payRequestId": "RM20210707203648208677696905325t"}, "success": true}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "HRrXS1dm5f6h4CgtPenLjDUMKAi0oYxl", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "EwDh9akcBnAkcQHmAokeDT", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 99999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "bb28f5c8a8e50c14ea14583491a609d9", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "oWnblthfesrHE7FO5j6xQIRGDJaMVwAC", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "6nwy5BL1owFTAneVQdEdhu", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 99999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "4fd5e2c058c24e2129e858fe3df61f4a", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "k2uJBWl6P8s1frA4F5gMoQnGpUHNXqex"}</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"177bde355050415aadd13756ac9d2b3c\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx1710150501168770d6b5c4f3b9b9ec0000\",\"sign\":\"A10CAEAFBF9DAD8D1B63AF8D7EF9D5F8\",\"timestamp\":\"1623896105\"}", "payRequestId": "RM20210617101418208677696923552t"}, "success": true}</t>
+          <t>{"data": {"channelData": "{\"appid\":\"wx93eea96ecc33f168\",\"noncestr\":\"a16dbd275119427b878ce5134ba0d998\",\"packageNm\":\"Sign=WXPay\",\"partnerid\":\"1259634601\",\"prepayid\":\"wx07203649089276696b194a1de4854e0000\",\"sign\":\"7D407762BDA9C0682158D1777FE0667C\",\"timestamp\":\"1625661409\"}", "payRequestId": "RM20210707203648208677696977806t"}, "success": true}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "HRrXS1dm5f6h4CgtPenLjDUMKAi0oYxl", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "54zCYTtHnftRGdVEh1dYSW", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 999999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "7003aaf4ebd247dd32c2381295b4dcc8", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "ePsoyfLwAOMKQiD7rjgWkuUZc8bhaHmV", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "ToHCgSQ4tNAmfC6fjZqtcT", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 999999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "de467731f3c5be4f408c160bb04118c0", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "UJ50W49ly7j8HtkKpZA2zmhw31fDSM6n"}</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202106171015056726718106782271%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210617095157208677696920006t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25229999999.99%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DeBqBWA%252B0Byf6cv3BC91uM%252FiYFVNON%252FbjRbP2X0k3%252FaUDAE4PL9bq0qrohaMmqqdEa3jgKa1YzM1mdK6%252FcN2PjZcGG7hOkEaNRHIz75wA%252BWBcxMryRKzcz7sy4FGq8NN%252BwOxaz5hIVv6BnN4cHO7vFFAFF2hSz9jpNuGatL0BvNZF4KnaVcwP%252FQpJ%252FN2lcYz8cPRChTgZxXzCXIIl0cHOlEUN%252FaR7%252BH6n0qH%252F%252FcyO6c1lem7jFtmAB4M0O9Esfp%252B7YrY7qZ3kI3mLL%252FpbJ2Bl3LwCY1j3XI44BG0Sl9foCiORUv2%252FNvOh9XOmGbuMJ1OjkPvs50jspOhUUZ%252F4TJ4hjg%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-06-17%2B10%253A15%253A05%26version%3D1.0", "payRequestId": "RM20210617095157208677696920006t"}, "success": true}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202107072036492681454521883681%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210707203649208677696957738t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25229999999.99%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DMs9C76hgGhJVl2BOi6LlBAjK9KwjiTwF1T7fp9FGnoFuzJufnibuZ0g9R%252BYZ1K%252F9flRUObO99I8033XIjvzP6M%252B9xlb3DUEe6SSfSa10czYHGQsC1LW88jr8kw2%252BAGkZ4tCADNHadaF8J9CFeEoUvpqTZtjkM3dHp9dZZZa9l05Z9WpQTsSKp%252BnaJf6%252F2%252BEMLyT5sthn0p1V4VdZlqmP%252FJuBrXmmQXRg%252BYzpUdaObMz0VLvn96FAwbQ4BVClofQcdaRpJy82V6jC6UXvohqYYKV2AT5f4IyFB3ot%252B8hZQiZFm2G3z2PBb52YZ%252BQ%252FjDa692M2u7gsXzmslqm3PDnHzQ%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A49%26version%3D1.0", "payRequestId": "RM20210707203649208677696957738t"}, "success": true}</t>
         </is>
       </c>
       <c r="F10" s="10" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "HRrXS1dm5f6h4CgtPenLjDUMKAi0oYxl", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "EwDh9akcBnAkcQHmAokeDT", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 9999999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "6a5d717a82c697c8ce7d8f865372f046", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "zfRyW4UQBAc7lDPXmw9ohraGdVNEHKY2", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "9mgnxajoYqFDcBqxFt2kah", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 9999999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "9008e7035bb0c008702daa73bea60ece", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "Fn4o2kmUypgTq6Js0Pa1XcuBS3VRz9Ax"}</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -6231,12 +6231,12 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "HRrXS1dm5f6h4CgtPenLjDUMKAi0oYxl", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "EwDh9akcBnAkcQHmAokeDT", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 2147483647, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "6a5d717a82c697c8ce7d8f865372f046", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "70pbh26a1jdNLSFtYguzeyGJXmMr4qsK", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "7gQ2SnnfGXBabbE7SnMwb2", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 2147483647, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "cbfc6054b2408e33cd8d73db0dfe1352", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "hiE91otUAs8WDnpPBSJuqaVzRIg5fHMN"}</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "100", "message": "SYSTEM_ERROR"}, "success": false}</t>
+          <t>{"data": {"channelData": "璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡", "payRequestId": "RM20210707203647208677696967108t"}, "success": true}</t>
         </is>
       </c>
       <c r="F12" s="10" t="n">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "1yguL58RprMaYmzfJHESPsFiblw97kDX", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "9MdfqCU1bfkSa65C1aaCUE", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "df33ace2b27b541ae361846708428166", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "UeEKQbno2ZYwgdqA7jxa3R51PGpCvuiW", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "L5WAER6vfT2QZxQB2NTtvc", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "576d04808cf28754cd4ed4fb1d958d11", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "e1lR3fVF4WhgNbnaLSvI7ErzAx6jCoyK"}</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡", "payRequestId": "RM20210617095352208677696902625t"}, "success": true}</t>
+          <t>{"data": {"channelData": "璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡", "payRequestId": "RM20210707203651208677696974062t"}, "success": true}</t>
         </is>
       </c>
       <c r="F13" s="10" t="n">
@@ -6317,12 +6317,12 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "M12IxbL5ZGm3VBtKN098eac4QzAuElkq", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "wxpay", "processToken": "TWp7bmug8eQ8bLg6VA6HH7", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "dfe58eab629b526558800d552d5b89ed", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "L6slha09TAk5tKpyeNHQ12EBgvGJ7PrO", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "wxpay", "processToken": "F3CiwWb3ZusWFYXKgUBeor", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "614a410176d7f9eeb60b3fa435a521a7", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "rLMOV7RlQnYhXibpkdJPZcfqCTej1Ew6"}</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "5b78394918f6940f0febc1f2c0270ac36c2f2a8d65104bb0b3bc03c6c3b712eb1623896105Qx5JCNU1JDs7IoN8x1E1aaTDp7tR9SP3", "payRequestId": "SN202106171015056314800726472770"}, "success": true}</t>
+          <t>{"data": {"channelData": "dbd5edafe410f34e7b027d43fca9d83e8007ea4e5ec5fc4b97c74e7a364d8c481625661409XFjKGCWp9Ni8GYnFBuGlZFmQl1kRLUAp", "payRequestId": "SN202107072036495405581016457805"}, "success": true}</t>
         </is>
       </c>
       <c r="F14" s="10" t="n">
@@ -6358,12 +6358,12 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "M12IxbL5ZGm3VBtKN098eac4QzAuElkq", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "alipay", "processToken": "5NNAC5ufFogMSRvwg1jLHu", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "0c1df6ecad5c55b1dcb58ee7ff8b276f", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "0PjZaYHVqgXT6dlchtzO5SRJ3rQLAIUm", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "alipay", "processToken": "CuYXrqLnkxVR5K6tKnCcEA", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "13dacb2333dd852978a45b6d860f94d2", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "d13aepFIsRChjiJDkwtXyNrcE8Bz92lu"}</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202106171015052123824386020105%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DlxgA1bYg8vSFGdXtKRyE3og6zK6Upq3KUlAh42QRaEZoyx%252BwTpA71zbJXnzBQlZCikoupraA0v%252FvKsVM2H%252BTKVLe3B7x1QSNtwV6T%252Boso%252B5Bb%252F9qJ9%252BJ%252B5lNoWh4otIKhJk4vEP9H0wNutiyGIDII%252Bjbrg9vwLe5LksEnsazla1aiQzoMWcx0exwml%252ByHzI22peamn0o0zkSaRGDvj1XHDlBulF5fTyNe3Rgc%252Byh83CaZ%252B1czpB0yOEQm60SlT0IPBMkLmim7hcCl4kEwfrGSWl4qLNgd14DSeqPoJrELTsmvQoiEragNJuxWyH2y4gyeQAGP%252B5SsI2oGrIFO6R6Qw%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-06-17%2B10%253A15%253A05%26version%3D1.0", "payRequestId": "SN202106171015055807817251150378"}, "success": true}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202107072036493282238526380844%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3Dh0Pk0F372Gl%252Fmwchl4IQu4M248jTFNfTEFwfb9YHmJfWD%252F1Gtc%252FqVQeCIQd9EgVP%252BmGG3tx6QE4Iw9jyJg9ilCvm5bVFgTExpDAuez1cOwYSMEc9BVU%252BSgCw7mQvabOOvQZ61aaj1cla31uCQC6CPNhFQLey791dDGZDy9e3RoMxFyvpF3P8XM5YKjsYy29oHwnYsuyoOdaZ3AVEmUdmVt9gXKB7ucTxkroEv0mLRAvTzlqnmVtf0nxOhJUINqku9bpe4QjK36g58qStVc7mMq6T1VnIqueouMBQ1wYHrIqR7GzfdSyGezP8HCa9JXWQX%252FNmR4vo%252BO01LRMJXt8glw%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A49%26version%3D1.0", "payRequestId": "SN202107072036496283745335188044"}, "success": true}</t>
         </is>
       </c>
       <c r="F15" s="10" t="n">
@@ -6399,12 +6399,12 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "M12IxbL5ZGm3VBtKN098eac4QzAuElkq", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "wxpay", "processToken": "HwGxyPHpfQCj4ApdChPiAT", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 99999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "2759c974ccd652e944914f6ce16f910d", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "kw5N3jiXahcy2PBtrm0SuDxqUIfvoYdO", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "wxpay", "processToken": "QfKcTYkUkTLfHSn6z6468B", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 99999999, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "cca6b79e207c337737f8971d9a8724bb", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "0MkvNzVRUJhqCL67lPmdo12O4nSKZTpw"}</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "282cc7b30b00d08dec9869fabb6790d3117be73f3bd60e123d473bac21a0fde51623896105YD2WAajVQo6Z6cj95A0rbxTgPMA4dDxm", "payRequestId": "SN202106171015057111362128624121"}, "success": true}</t>
+          <t>{"data": {"channelData": "5d44005d063acac96638d3a3e55b320755daf6637bd7f2e9a214d188ecf40dd116256614107kJZVzQlOQ8FpwW8DMghOwOhA85N3U3a", "payRequestId": "SN202107072036503311415428240533"}, "success": true}</t>
         </is>
       </c>
       <c r="F16" s="10" t="n">
@@ -6442,12 +6442,12 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "M12IxbL5ZGm3VBtKN098eac4QzAuElkq", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "alipay", "processToken": "5tyqPsYX5i6MNXX4Mvnwhf", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "37aff68fda1aab354cf1bde1adcb9519", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "vFtVXQ6rxMSuNR25CqnhW9g8lPmOeGAE", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGN", "payType": "alipay", "processToken": "DqDxn1mpio6qTvrV7bifCw", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "a1c7b3b301025e25af0577d09e4acce6", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "maUeGYQ7rHTtsBF6Mx8WnyCRfVPE1kpL"}</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202106171015050101404686282887%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DKEkoy8Zu243K%252BZoxaTYHGO0mzhGU0sUTdkeldTFFTE4hRsoOwuXG4A8KN3jmNcSsbWHNqz29byR8QHnfHib%252F1PGTeYegQ2wYGC%252BQ%252FsX83IWw8fhrp2%252FuJlcxoE6B3Ljau%252F%252BOIZY9e3KGbqevjQRwTLLSeXtNfwvDTNheXaf2pV3VcGME1P%252Ffu7BfWuKQS0h7ZS%252BeGYzgU2pmTHhQCIEEpSPf4q2XUyAQU44s7hceufm7YP6FNcuv%252FXQO%252FnaqoYkDDHiDK2xEdVE4HSgF6Dqygh1OgBjpB15p7dEA4Wx8G52YI9SpBsWRCt9KeNuXQh8ImEN3upo3S8JOAnJuKNDf2g%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-06-17%2B10%253A15%253A05%26version%3D1.0", "payRequestId": "SN202106171015050622465326102816"}, "success": true}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=60000157&amp;appClearTop=false&amp;startMultApp=YES&amp;sign_params=alipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522access_params%2522%253A%257B%2522channel%2522%253A%2522ALIPAYAPP%2522%257D%252C%2522external_agreement_no%2522%253A%2522SN202107072036503421706758688208%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.user.agreement.page.sign%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidnotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3Detj4oTyRE%252F%252FIL2du3XToKuS2xjVLaCwciNZr821a%252FoSDcp35%252BKaF6nqcYulbQ%252BHtqLG8VY%252FbJ%252FCPV%252Fg3MhGVXvdmbNu4Gihj5%252BgUyYl6%252F4v8m%252FOG%252BPQ%252F0mQ3unxF8IXg6Wow23hbcI8btqJkfrm6rs0%252FFr5D4bWeHKwoTl488YNSW9ExwwJPnFCmzMJICD1IbrNfB6UWWmbQ9GuU598qVMF0HJEV%252BvH701JmITNuW7LoREUfMXWmwi3Bd%252BzHVCCvym1F9ZHMWhx9y4FRqPYDaexS26fcBjFhWXEWq6%252B8nun%252F32g1SFlkD2QJR%252B4tkqlcVUorKl37EbUBIrT1olhlnA%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A50%26version%3D1.0", "payRequestId": "SN202107072036506703572587554548"}, "success": true}</t>
         </is>
       </c>
       <c r="F17" s="10" t="n">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "TeCQziMm54vbRwyfVXo0DdGN92SEKIJY", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "1", "processToken": "S7QGbhTsg5VzKdGS2yAE6D", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "fa2de70ee5a0cfc4e615bc0ce869250f", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "q9jZsikfDGJ0UaXmHb37KcLtuTg1NMYo", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "1", "processToken": "UwH9nHZkrMKT6GxfUgYGs9", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "ACROSS", "appKey": "2033", "sign": "1714070d27c3003710f7024644dd525a", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "HtqKwYWjASGdI5C84eZx9RvLEkToi6bB"}</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "IG9LkhcoizPCbZWj1MOg4w38BmV5SHt6", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "UzkBJ2bByNyWf4JGfLEzVv", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "HALF", "appKey": "2033", "sign": "1a4481d43bb450d7fcbcf4b8ac87dadd", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "RkP1XVox9ArQ2w6aEudfCOqYG43jNzDc", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "BhQW9LA54rAC95aBhRZXQA", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "HALF", "appKey": "2033", "sign": "2398814bec9845e2cb14ed6fc5d7448f", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "xBAHN2zOe0ZrS1dnJMEFipKu5YgLDaTQ"}</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡", "payRequestId": "RM20210617101506208677696951007t"}, "success": true}</t>
+          <t>{"data": {"channelData": "璇锋眰澶辫触,璇锋崲鍏朵粬鏀粯鏂瑰紡", "payRequestId": "RM20210707203651208677696935842t"}, "success": true}</t>
         </is>
       </c>
       <c r="F19" s="10" t="n">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "IWPyz5oOCixtg3lDuAH4h2nXLNBradcv", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "Vhr4hSV8mcrJ4Gd8rjR7kV", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "", "desc": "test product description", "screenInfo": "HALF", "appKey": "2033", "sign": "7254e893060e368f61f31731e1437fe2", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "wSlodHtRVI0DK6Uc1ANC3MBhmbea2EGz", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "9tLRjmADNfQMpaYhXsTW9f", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "", "desc": "test product description", "screenInfo": "HALF", "appKey": "2033", "sign": "d2b1937feeb0e3aba755546231a330a4", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "WcxZ34oliFqO9Pg2wSYf7zLQbMXDe5It"}</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "IWPyz5oOCixtg3lDuAH4h2nXLNBradcv", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "2mqyUDfvEZyRrDcEJn4Tyh", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "", "desc": "test product description", "screenInfo": "HALF", "appKey": "2033", "sign": "a155f0cc90ea386d19351290a6d9af66", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Jeho45cWqPS8f2Tyk3BlKdY9vQrtxMHs", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "wxpay", "processToken": "ViR6oZcc9bzeXT8WEq5vAA", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "", "desc": "test product description", "screenInfo": "HALF", "appKey": "2033", "sign": "1e00b9a8d1cc1dfab703734bad86cca5", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "G9lX46Egqj1WAxF3PUboeHwsLBQ7yTiZ"}</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
@@ -6649,12 +6649,12 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "3cYSNVxDgUdJ9WvXQfhs72PiM4A5Baty", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "GidkE39pXiu6thH1iCv6Do", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "aaaaaaaaaa", "appKey": "2033", "sign": "bddc681430957278cc533032188520be", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "PAVhI6psLeg53c4CQ1OZykGvqwfrHSBX", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "NfAu9ThuZ1HkDEUmmyGz4G", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "aaaaaaaaaa", "appKey": "2033", "sign": "074e314206d7ac555b9b26d6b33135e3", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "7w9mdNc2PWv5QgLx3nA0XhUEf8GeVTFq"}</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202106171015075006470184483761%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210617094331208677696970708t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.01%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DHhEq9fCYXp4bkwy1AMEirr4infq65IgCS2wyCBs%252FWN%252FujtEQk%252F%252FTA29L5iTDaYbunoYSTY%252Bv5as1MDjFqy3O08HXk74XEneatSZNPfsulyLqB28Cg6o4CvJIb%252Bo9M4Lw8myad4U9CcR814UoCltnPTajOqI6HTQkW5COKcyzqIo1DwMnL2xTZnuwihC5muvsfjVBurfb2zLyDv5GpBZMCq8UwpKurnMFyZ7%252B9pS%252FUED24i8y8LNdy5xxh9T%252Bp9VyRa8qr2Oa2DI4JOMF2EUUTwZoWulOBzrV7jlHpMXViB6Q4ApFZDKO3ZPylUPQ1doDjb6lIzrBlRwilqbAMUwe6g%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-06-17%2B10%253A15%253A07%26version%3D1.0", "payRequestId": "RM20210617094331208677696970708t"}, "success": true}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202107072036526422158053676615%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210707203652208677696983686t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.01%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DCBICW%252FBQN4t73EHbGcnP4lgmastmXIBxUaumXT%252FQ8Va8J9%252B%252Bt17fRGdWPXaO2ur5V45vtGio6bILNC3N%252FENs0ikVqnoUKpfL6fEwUhfHSFtWQU8lGEa374NVdU5BAzO9W9dg%252FAqaBWWzje9CObTIB6i7vM%252Fj4V%252BJ3MfZvKm0CM859ul4Gl14cCtcUE%252BEer8UwgGwogN4%252FIiNAbO3cVP3rlzlNf%252FloX%252BB6p1E%252FMARMIyQ13YHjQ36cFwE1neGQ5J85XlpxoLXjIRe55sUj%252Bp%252Fxmh%252FNCXj7sRlE8%252BpZUikGeEQk1HEhydX%252BA0D8qCIlxtu8GaHssCcktt4hDYSOw3Q%252BA%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A52%26version%3D1.0", "payRequestId": "RM20210707203652208677696983686t"}, "success": true}</t>
         </is>
       </c>
       <c r="F22" s="10" t="n">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "", "partnerCode": "2031", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "6sZotJEuq9GFapHZVmkgYb", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "585160377187360a418651303d65d441", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "", "partnerCode": "2031", "signPartnerOrder": "YuwArj2WctN5FapQ0TgoGl6UdBKPOfZ7", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "T2hN4ihb4VsGbb2wnSkvgL", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "9aaae6023486a640113e19541b6f51d1", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "o3RNO5zSJriKAML2lQ76enHY8hUqak4C"}</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "4nJ4FBj5Bj5oDTiBHPb8fV", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "b9363b1f379abe84d3a719070e714229", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "", "signPartnerOrder": "I1WPOeRyht2MFSrJVGzbXBCilu3wdE7Z", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "2usBf8UyvdXLRf2k1R4q2k", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "b70399ecf86d960b5d2d995a058dc5c2", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "ako0Vv5m4NEcUAQCp6LtXSTM8D7y9RWs"}</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
@@ -6772,12 +6772,12 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "Tpq6BtKp2NvtGtMxwWiqoW", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "b30433acc6b68228a1836d3bf4be1c76", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "ZM5Hf2XVQGT8ayqwdkDImKUpPRovAWS9", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "PdaJ7wsH2u4wbsn5SNQVTf", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "16e34a17b757098e8000428506f1c576", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "IJnychtSOXxda5CHRwBU9AYFozG2e14W"}</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "signPartnerOrder must not be empty"}, "success": false}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202107072036526084360765018406%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210707203652208677696936835t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.00%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DhdMFK49CViZ%252F%252FmrpkPoL%252B%252Bqovt9Bx%252F%252Fa%252BJgsKGxQoRz%252B5jdYGpP%252FPQ2kOTKsG3jlO%252B0SCWgGmOl6Lgv7cS0n7Y3DEtlVZR43sWCNNDiZyH3juJmcOgyTMebUxL%252FOVIgErSm8QoHk0qFwEcn5%252BKMVC00gTPFOD1oPvP7jsBzAC%252FouK1KxEr8LhW4X8BG1V2h0VleK9vNWHCndbZgNs68wlfG54Im3U0we1kHe1KHibElNe6o5LoV83oNJ3FhYkUIv3m5LZV%252FQ%252Fx9eM9m2L1o34rzFM7YB2u6Uq91M4cS8ym06T5fleSNSVm9DPK%252FmYHJhvGZUceQgP8aJd3zRuIwsSA%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A52%26version%3D1.0", "payRequestId": "RM20210707203652208677696936835t"}, "success": true}</t>
         </is>
       </c>
       <c r="F25" s="10" t="n">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="D26" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "LR9M4Pq1BvkTFM9JgkuJsy", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "dd850253ad2e423c4019043461f1b0a8", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "sn4LC8uzfErbO1FyBoaN3iMIe7jmchQg", "appPackage": "", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "XgqCLRBNXt11rFiwCWeqbk", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "726e57201cd7b131ec9206a7e0f542e6", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "gh7v2njUpLxNXAkwCdeZfcW6Hmor1OqM"}</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "com.example.pay_demo", "notifyUrl": "", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "U22pY9ZL69KM5P85m31MSt", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "a435977a110f3d8a1d5e3df04cd4a798", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "TaDV1RO2hJoGywlZvzLcPSt6u079B8M3", "appPackage": "com.example.pay_demo", "notifyUrl": "", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "HXLhmt1jCrjsBYiDxa22Sk", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "64bab175f8f2b4a4c0892466315d56b4", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "G6itrVOMCqzwfSvnW4Fu9y2eYU1DAlgb"}</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "RLXEURnM7LzuVnkCYaCbQP", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "13dbdbc47fd6b19875a05e90d5aaab7d", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Jk0s4l6KBz1DZFGc5r3NbtYnpLQSa2my", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "E3NgJKQ8oXcvtVb8i91ASt", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "33c429c79c955924cfdf4b883d8b6570", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "x3kGFsplD5nOQrzRPgd8T2ucaSwqCIN4"}</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "8SDL647kfzth4YX7tYtuf3", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "b38c4f87f8b2a3a56e90fc8cc8793409", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "P0X2SF8xtHnQyfIWdKeVbwiazugrJ5h6", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "L15ReCSanWiafXXJ62tFj4", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "137129617f024a005874775a09653f06", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "3HFYetmcX9pS7hQIJsC2O4blxyvawVBP"}</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
@@ -6977,12 +6977,12 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "Xe6t4HxyAgQ2dPwCJoaFuS1pT0biVlrn", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "1", "payType": "alipay", "processToken": "KULyWS5WjHBfNndthtzrsm", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "4ae4640286fa68fbc8b634469ce36a57", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "G7U3SZ9MpFt1IfJ4niDLTBbuaxAkPdyK", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "1", "payType": "alipay", "processToken": "HRmav8Wr8NV5GoGF34GkRM", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 0, "subject": "test product subject", "desc": "test product description", "screenInfo": "FULL", "appKey": "2033", "sign": "4e7c74434c9412dd4fb84c0e97b2eff6", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "WnrSK1ysd3kA4MjOVl8JiT9B6qoQNu7m"}</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>{"error": {"code": "101", "message": "PARAM_ERROR:%s"}, "success": false}</t>
+          <t>{"error": {"code": "101", "message": "PARAM_ERROR:invalid transtype"}, "success": false}</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
@@ -7018,12 +7018,12 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "3cYSNVxDgUdJ9WvXQfhs72PiM4A5Baty", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "YGwTFjYDuruPSsmgvFdmJ7", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "aaaaaaaaaa", "appKey": "2033", "sign": "c4b761e963ca4d5d83ef068a01118904", "timestamp": "1623896102036", "nonce": "eAXREQjL"}</t>
+          <t>{"renewProductCode": "20310001", "partnerCode": "2031", "signPartnerOrder": "8PiaLyEGNXUz3bj0dkBqu7QoZxfO261T", "appPackage": "com.example.pay_demo", "notifyUrl": "http://secure.pay-test3.wanyol.com/notify/receiver", "country": "CN", "currency": "CNY", "transType": "SIGNANDPAY", "payType": "alipay", "processToken": "QBJ4LRo3pP7hDExza4FLnd", "thirdPartId": "", "appVersion": "", "subUserId": "", "subUserName": "", "amount": 1, "subject": "test product subject", "desc": "test product description", "screenInfo": "aaaaaaaaaa", "appKey": "2033", "sign": "d0100298002204d545862d34960cfd44", "timestamp": "1625661404973", "nonce": "tDkOPzwV", "partnerOrder": "leDSNTbhguvPYwXqKBc324mVAZyRrL9Q"}</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202106171015057347631760868882%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210617094331208677696970708t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.01%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DdHP0iSdAL%252FgyGeuOZPTPhqBFlg9NhJLfkhsd7itTQCxDZ3rPQs%252F1rsxzqcUz25Ei2H8QWJc2UBBck2SChtZjFC%252FRWQZZcE23u2RbdVr%252F5finK12SnbTJnlFWQI1i0YbU%252BUxL%252FmaEr3u67ZgAgIl5ZTN%252F8ZS6hJJf0k93NZS7UVFbFxJ0rHekRHpeQlomUiL9kEW9P83hPyLUxJYpzqZmaw1nr3imuECZCK5AxLr8XUe3%252FiTMx8Yuf0bIwdNSsjU4J3emtqkol4e6F5Ue97Jk7v2RCDtrt0MKifMY86ezcTZHVCKEA2aAAaANUTYwZDiioU2o5WdBNdPn8VvsR6GNog%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-06-17%2B10%253A15%253A05%26version%3D1.0", "payRequestId": "RM20210617094331208677696970708t"}, "success": true}</t>
+          <t>{"data": {"channelData": "alipays://platformapi/startapp?appId=20000067&amp;url=https%3A%2F%2Fopenapi.alipay.com%2Fgateway.do%3Falipay_sdk%3Dalipay-sdk-java-dynamicVersionNo%26app_id%3D2016120904060189%26biz_content%3D%257B%2522agreement_sign_params%2522%253A%257B%2522external_agreement_no%2522%253A%2522SN202107072036503215860113231512%2522%252C%2522personal_product_code%2522%253A%2522GENERAL_WITHHOLDING_P%2522%252C%2522sign_scene%2522%253A%2522INDUSTRY%257CGAME_CHARGE%2522%257D%252C%2522body%2522%253A%2522test%2Bproduct%2Bdescription%2522%252C%2522integration_type%2522%253A%2522ALIAPP%2522%252C%2522out_trade_no%2522%253A%2522RM20210707203650208677696934474t%2522%252C%2522product_code%2522%253A%2522GENERAL_WITHHOLDING%2522%252C%2522subject%2522%253A%2522test%2Bproduct%2Bsubject%2522%252C%2522total_amount%2522%253A%25220.01%2522%257D%26charset%3DUTF-8%26format%3Djson%26method%3Dalipay.trade.page.pay%26notify_url%3Dhttp%253A%252F%252Fopaycenter-secure-test3.wanyol.com%252Fopaycenter%252Falipayavoidpaynotifynew%26return_url%3Dkekepay%253A%252F%252Fcallback%252Faliautorenew%26sign%3DOar5XKsebbt7QlYRO4wppoCYkKGvmfv5H3lE7A2k%252Bkj2ojzJ0sOKSN42b1wKQbYjrHLKefGwN%252FUSaw27fgOuAHXgGlCi6HTeVSI6z7xLvq9j%252BxkBulHVy53QP7y%252B9yyNBWMh3kMLx9LGTtYnrAY6dYSxDRb8xxVMPa2FV%252FVSgMFVJY0m193CviWezAG3o4lfSbUh%252BFSSuuZqKiqpRwmWX9yL%252BJ%252F130knCMZPtQREkPdV8kisS%252FDzK7K4jtqNcBEWaE%252BJe%252Bo5i%252BNAYQW4S0Pkdog1px1gUnq12RjiHKSRxm%252B2pURZw7N4RZwlme%252BMf4FSJFz93DVZtAk4M%252Bc5lrnArA%253D%253D%26sign_type%3DRSA2%26timestamp%3D2021-07-07%2B20%253A36%253A50%26version%3D1.0", "payRequestId": "RM20210707203650208677696934474t"}, "success": true}</t>
         </is>
       </c>
       <c r="F31" s="10" t="n">
@@ -10602,21 +10602,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="20.5" customWidth="1" style="1" min="1" max="1"/>
-    <col width="19" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13.4416666666667" customWidth="1" style="1" min="3" max="3"/>
-    <col width="50" customWidth="1" style="1" min="4" max="4"/>
-    <col width="45.6666666666667" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13.775" customWidth="1" style="1" min="6" max="6"/>
-    <col width="25.375" customWidth="1" style="1" min="7" max="7"/>
+    <col width="33.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="63.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="43.375" customWidth="1" style="1" min="5" max="5"/>
+    <col width="11.875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="18.625" customWidth="1" style="1" min="7" max="7"/>
     <col width="15.6666666666667" customWidth="1" style="1" min="8" max="8"/>
     <col width="21.1083333333333" customWidth="1" style="1" min="9" max="9"/>
   </cols>
@@ -10720,10 +10720,10 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" s="1">
+    <row r="7" ht="54" customHeight="1" s="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>支付apk获取凭证</t>
+          <t>有账号支付apk获取凭证</t>
         </is>
       </c>
       <c r="B7" s="18" t="inlineStr">
@@ -10738,12 +10738,12 @@
       </c>
       <c r="D7" s="19" t="inlineStr">
         <is>
-          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
+          <t>{"token": "TOKEN_7t5kusT0owaYVytvYSs24PqfTvPRfYTSqbeurVd0X+rI8Kyt08nE1Ih5lgZHhNtr","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
       <c r="E7" s="20" t="inlineStr">
         <is>
-          <t>{"data": {"expireTime": 1622535182059, "processToken": "R8xpwHnvizRZwCMEZvtn8f"}, "success": true}</t>
+          <t>{"data": {"expireTime": 1625741400336, "processToken": "SzyEphsdNHSRKWbaRUcPH7"}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -10761,10 +10761,10 @@
       </c>
       <c r="I7" s="11" t="n"/>
     </row>
-    <row r="8" ht="50" customHeight="1" s="1">
+    <row r="8" ht="54" customHeight="1" s="1">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>msp获取凭证</t>
+          <t>有账号msp获取凭证</t>
         </is>
       </c>
       <c r="B8" s="18" t="inlineStr">
@@ -10779,12 +10779,12 @@
       </c>
       <c r="D8" s="19" t="inlineStr">
         <is>
-          <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+          <t>{"token": "TOKEN_7t5kusT0owaYVytvYSs24PqfTvPRfYTSqbeurVd0X+rI8Kyt08nE1Ih5lgZHhNtr","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
         </is>
       </c>
       <c r="E8" s="20" t="inlineStr">
         <is>
-          <t>{"data": {"expireTime": 1622535182343, "processToken": "6y3QWma3bUuysLdJy3tydC"}, "success": true}</t>
+          <t>{"error": {"code": "100", "message": "SYSTEM_ERROR"}, "success": false}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
@@ -10797,256 +10797,338 @@
       </c>
       <c r="H8" s="22" t="inlineStr">
         <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="n"/>
+    </row>
+    <row r="9" ht="40.5" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>掌阅无账号获取凭证</t>
+        </is>
+      </c>
+      <c r="B9" s="18" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D9" s="19" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "20242209","platform": "ATLAS"}</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1625741400394, "processToken": "CcwDZshqdPt97Dbtt8YWUa"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>{"success": true}</t>
+        </is>
+      </c>
+      <c r="H9" s="22" t="inlineStr">
+        <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I8" s="11" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1" s="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>apk无账号获取凭证</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="I9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="40.5" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>单机游戏无账号获取凭证</t>
+        </is>
+      </c>
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D9" s="19" t="inlineStr">
-        <is>
-          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
-        </is>
-      </c>
-      <c r="E9" s="20" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1622535182383, "processToken": "PQ81y37GJtXs7TzvY48Vr6"}, "success": true}</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G9" s="21" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" s="19" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "5456937","platform": "ALTAS"}</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1625741400436, "processToken": "5ugy8QLaH5urxcuLQUQarc"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H9" s="22" t="inlineStr">
+      <c r="H10" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1" s="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>msp无账号获取凭证</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="I10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="40.5" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>MSP-TVPay 无账号获取凭证</t>
+        </is>
+      </c>
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D10" s="19" t="inlineStr">
-        <is>
-          <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
-        </is>
-      </c>
-      <c r="E10" s="20" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1622535182420, "processToken": "KPEHTZjGfBUJcNzyAew8Lk"}, "success": true}</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" s="21" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D11" s="19" t="inlineStr">
+        <is>
+          <t>{"token": "","appId": "2031","appPackage": "com.oppo.usercenter", "partnerCode": "2032","platform": "MSP"}</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "100", "message": "SYSTEM_ERROR"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H10" s="22" t="inlineStr">
+      <c r="H11" s="22" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="n"/>
+    </row>
+    <row r="12" ht="54" customHeight="1" s="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>msp获取凭证不传appId</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="19" t="inlineStr">
+        <is>
+          <t>{"token": "TOKEN_7t5kusT0owaYVytvYSs24PqfTvPRfYTSqbeurVd0X+rI8Kyt08nE1Ih5lgZHhNtr","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>{"error": {"code": "100", "message": "SYSTEM_ERROR"}, "success": false}</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G12" s="21" t="inlineStr">
+        <is>
+          <t>{"success": true}</t>
+        </is>
+      </c>
+      <c r="H12" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I10" s="11" t="n"/>
-    </row>
-    <row r="11" ht="50" customHeight="1" s="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>msp获取凭证不传appId</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="inlineStr">
-        <is>
-          <t>smoke</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D11" s="19" t="inlineStr">
-        <is>
-          <t>{"token": "","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "MSP"}</t>
-        </is>
-      </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>{"data": {"expireTime": 1622535182455, "processToken": "UWYXyAVCQPzJiK3YXMUhxr"}, "success": true}</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G11" s="21" t="inlineStr">
+      <c r="I12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="54" customHeight="1" s="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>MSP_测试获取凭证，platform=ALTAS</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="19" t="inlineStr">
+        <is>
+          <t>{"token": "TOKEN_7t5kusT0owaYVytvYSs24PqfTvPRfYTSqbeurVd0X+rI8Kyt08nE1Ih5lgZHhNtr","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "72724322","platform": "ALTAS"}</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>{"data": {"expireTime": 1625741402742, "processToken": "SZ2UL6t8m2ur2LjRZmqbvr"}, "success": true}</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>{"success": true}</t>
         </is>
       </c>
-      <c r="H11" s="22" t="inlineStr">
+      <c r="H13" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="50" customHeight="1" s="1">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="I13" s="11" t="n"/>
+    </row>
+    <row r="14" ht="40.5" customHeight="1" s="1">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>token传入不正确</t>
         </is>
       </c>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="19" t="inlineStr">
+      <c r="D14" s="19" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "20000", "message": "鉴权失败"}, "success": false}</t>
         </is>
       </c>
-      <c r="F12" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G12" s="21" t="inlineStr">
+      <c r="F14" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G14" s="21" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H12" s="22" t="inlineStr">
+      <c r="H14" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I12" s="11" t="n"/>
-    </row>
-    <row r="13" ht="50" customHeight="1" s="1">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="I14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="27" customHeight="1" s="1">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>partnerCode不传</t>
         </is>
       </c>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="19" t="inlineStr">
+      <c r="D15" s="19" t="inlineStr">
         <is>
           <t>{"token": "error_token","appId": "","appPackage": "com.oppo.usercenter", "partnerCode": "","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E13" s="20" t="inlineStr">
+      <c r="E15" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
       </c>
-      <c r="F13" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G13" s="21" t="inlineStr">
+      <c r="F15" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H13" s="22" t="inlineStr">
+      <c r="H15" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1" s="1">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="I15" s="11" t="n"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" s="1">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>appPackage不传</t>
         </is>
       </c>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="20" t="inlineStr">
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>{"token": "","appId": "","appPackage": "", "partnerCode": "2031","platform": "ATLAS"}</t>
         </is>
       </c>
-      <c r="E14" s="20" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>{"error": {"code": "101", "message": "must not be blank"}, "success": false}</t>
         </is>
       </c>
-      <c r="F14" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" s="21" t="inlineStr">
+      <c r="F16" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G16" s="21" t="inlineStr">
         <is>
           <t>{"success": false}</t>
         </is>
       </c>
-      <c r="H14" s="22" t="inlineStr">
+      <c r="H16" s="22" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I14" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -4050,12 +4050,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "FBPeGRjBZ3VigrF1SZVJts", "partnerCode": "2031", "orderAmount": "1", "factor": "", "partnerAppKey": "1234", "appKey": "2033", "sign": "8f1483dc420be399f7042c650d8f88f8", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "AUXt6TnKveMTw8nMeGFDbp", "partnerCode": "2031", "orderAmount": "1", "factor": "", "partnerAppKey": "1234", "appKey": "2033", "sign": "5500892b0286c7d457afe93645cd40b3", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935715", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "100935705", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "14"}, {"discount": "0", "id": "100935707", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "0", "usableAmt": "0", "vouCount": "99"}, {"discount": "0", "id": "100935702", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "0", "usableAmt": "0", "vouCount": "99"}, {"discount": "68", "id": "100935713", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "0", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935703", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "0", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935714", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "0", "usableAmt": "1000", "vouCount": "0"}, {"discount": "1", "id": "100935706", "maxConsume": "1000", "minConsume": "200", "type": "4", "usable": "0", "usableAmt": "1000", "vouCount": "0"}, {"discount": "1", "id": "100935704", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "0", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
+          <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935782", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "4"}, {"discount": "1", "id": "100935781", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "0", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
         </is>
       </c>
       <c r="F7" s="10" t="n">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "QKXdqUWAcQoFvHRYbba4pm", "partnerCode": "2031", "orderAmount": "100", "factor": "", "partnerAppKey": "1", "appKey": "2033", "sign": "20c0a1fe271bba10b429bd4a21c754b4", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "EERV3sNDsaypZpEcmAFbFi", "partnerCode": "2031", "orderAmount": "100", "factor": "", "partnerAppKey": "1", "appKey": "2033", "sign": "500ebe902fb8102aca72645a302cf5b9", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935715", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "100935705", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "14"}, {"discount": "0", "id": "100935707", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "1", "usableAmt": "0", "vouCount": "99"}, {"discount": "0", "id": "100935702", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "1", "usableAmt": "0", "vouCount": "99"}, {"discount": "68", "id": "100935713", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "1", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935703", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "1", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935714", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}, {"discount": "1", "id": "100935704", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}, {"discount": "1", "id": "100935706", "maxConsume": "1000", "minConsume": "200", "type": "4", "usable": "0", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
+          <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935782", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "4"}, {"discount": "1", "id": "100935781", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
         </is>
       </c>
       <c r="F8" s="10" t="n">
@@ -4132,12 +4132,12 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "CmCH7ULUzVmiCiFcRbjeJS", "partnerCode": "2031", "orderAmount": "201", "factor": "", "partnerAppKey": "2", "appKey": "2033", "sign": "c76a7e9c64d07e71b757dc08c0a02355", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "CAzsD7AdpK8aC5PmHuA3hN", "partnerCode": "2031", "orderAmount": "201", "factor": "", "partnerAppKey": "2", "appKey": "2033", "sign": "0718d7c3549450ebc7ae1ce645f78bd9", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935715", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "100935705", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "14"}, {"discount": "0", "id": "100935707", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "1", "usableAmt": "0", "vouCount": "99"}, {"discount": "0", "id": "100935702", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "1", "usableAmt": "0", "vouCount": "99"}, {"discount": "68", "id": "100935713", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "1", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935703", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "1", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935714", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}, {"discount": "1", "id": "100935706", "maxConsume": "1000", "minConsume": "200", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}, {"discount": "1", "id": "100935704", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
+          <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935782", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "4"}, {"discount": "1", "id": "100935781", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
         </is>
       </c>
       <c r="F9" s="10" t="n">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "526aDSD7TmRGxJEHTfrJMX", "partnerCode": "2031", "orderAmount": "4", "factor": "", "partnerAppKey": "a", "appKey": "2033", "sign": "c84b21dcdd5fb0e8e7b7149ecbf55a95", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": ""}</t>
+          <t>{"processToken": "9MsYJib1ZgBuvEzYwsUHrV", "partnerCode": "2031", "orderAmount": "4", "factor": "", "partnerAppKey": "a", "appKey": "2033", "sign": "d13ff126a44ae7f9e7b626edd5598f0c", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": ""}</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "X1YqXJ6fjsMiwPfE2f6wus", "partnerCode": "", "orderAmount": "4", "factor": "", "partnerAppKey": "b", "appKey": "2033", "sign": "aef489c3ffb702d27646ac6bc2909228", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "S73m3v8bBxHJbEGVA6URsH", "partnerCode": "", "orderAmount": "4", "factor": "", "partnerAppKey": "b", "appKey": "2033", "sign": "3728a6844a8962b5e0a024adbaae00eb", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "6S9fBiYo7a3n39x5Fqn9pj", "partnerCode": "1", "orderAmount": "4", "factor": "", "partnerAppKey": "b", "appKey": "2033", "sign": "d39fed6068fe19ef1c348b713a24fc02", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "51Fc6zXU4xVSz1QxXz3AVK", "partnerCode": "1", "orderAmount": "4", "factor": "", "partnerAppKey": "b", "appKey": "2033", "sign": "44eaa608214978afa273f09d5d5a61b3", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "Fgfmf5o9xtv6kYPns8dWQk", "partnerCode": "2031", "orderAmount": "", "factor": "", "partnerAppKey": "1", "appKey": "2033", "sign": "d61c10824d369566657fe5f22e192346", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "8EL7ND4brf2WxxvNNoRyqL", "partnerCode": "2031", "orderAmount": "", "factor": "", "partnerAppKey": "1", "appKey": "2033", "sign": "45ce480ad65f0317bc0679efb3145e0c", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "XqdCQfeF9ka5AmjNe679FK", "partnerCode": "2031", "orderAmount": 99999999999999999999, "factor": "", "partnerAppKey": "1", "appKey": "2033", "sign": "fdec8842fd75a486107a0ff467368bc0", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "246z6LneRY25brzD7s2Ryd", "partnerCode": "2031", "orderAmount": 99999999999999999999, "factor": "", "partnerAppKey": "1", "appKey": "2033", "sign": "0df6c3671c028f9ac32efa7ea1e89244", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "UgodEWwHYz2xXWsDcr3FPY", "partnerCode": "2031", "orderAmount": 1, "factor": "", "partnerAppKey": "", "appKey": "2033", "sign": "5cf89442f2d7651eabc5f1acd1824c83", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "VQBozbDH7sSamNaCz4UugW", "partnerCode": "2031", "orderAmount": 1, "factor": "", "partnerAppKey": "", "appKey": "2033", "sign": "31f63e5fe8abaeb7c5d61e79b4b7217a", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>{"processToken": "MAGSQ9DESq1QcgTPJzFep1", "partnerCode": "5456925", "orderAmount": 1000, "factor": "", "partnerAppKey": "fk", "appKey": "2033", "sign": "909d1b73a53c8e4459de84be6a2a14c9", "timestamp": "1625831697323", "nonce": "GoUge2QF", "appPackage": "com.example.pay_demo"}</t>
+          <t>{"processToken": "FQ66PiE8uhLG1faoqJfwnd", "partnerCode": "5456925", "orderAmount": 1000, "factor": "", "partnerAppKey": "fk", "appKey": "2033", "sign": "1d15ada792b86b3eeac10a9f417dfd1a", "timestamp": "1626071010898", "nonce": "3NgbmXRU", "appPackage": "com.example.pay_demo"}</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">

--- a/case/src/http/inland.xlsx
+++ b/case/src/http/inland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="913" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="913" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="simplepay_recharge_spend" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,22 @@
     <sheet name="pay" sheetId="14" r:id="rId14"/>
     <sheet name="sign_pay" sheetId="15" r:id="rId15"/>
     <sheet name="autopay" sheetId="16" r:id="rId16"/>
-    <sheet name="simplepay_autosign" sheetId="17" state="hidden" r:id="rId17"/>
+    <sheet name="get_speaker_info" sheetId="17" r:id="rId17"/>
+    <sheet name="simplepay_autosign" sheetId="18" state="hidden" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">simplepay_recharge_spend!$A$6:$I$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">simplepay_direct!$A$6:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplepay_recharge!$A$6:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">simplepay_no_login!$A$6:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">simplepay_autosign!$A$6:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">simplepay_autosign!$A$6:$I$28</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568">
   <si>
     <t>Test suite名称</t>
   </si>
@@ -1221,7 +1222,64 @@
     <t>{"data": {"balance": "0.02", "voucherList": [{"discount": "0", "id": "100935692", "maxConsume": "0", "minConsume": "0", "type": "8", "usable": "1", "usableAmt": "0", "vouCount": "100"}, {"discount": "0", "id": "0", "maxConsume": "0", "minConsume": "0", "type": "1", "usable": "1", "usableAmt": "0", "vouCount": "6"}, {"discount": "0", "id": "100935689", "maxConsume": "0", "minConsume": "100", "type": "2", "usable": "1", "usableAmt": "0", "vouCount": "99"}, {"discount": "1", "id": "100935690", "maxConsume": "100", "minConsume": "100", "type": "3", "usable": "1", "usableAmt": "0", "vouCount": "0"}, {"discount": "1", "id": "100935691", "maxConsume": "1000", "minConsume": "100", "type": "4", "usable": "1", "usableAmt": "1000", "vouCount": "0"}]}, "success": true}</t>
   </si>
   <si>
-    <t>/api/biz-config/v290/get-biz-config</t>
+    <t>/api/conf/v290/get-biz-config</t>
+  </si>
+  <si>
+    <t>获取2031配置信息</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "2031", "appKey": "2033", "sign": "e364be640c95f8f344959314005e8657", "timestamp": "1627383958147", "nonce": "5uf2xAjp"}</t>
+  </si>
+  <si>
+    <t>{"data": {"acrossScreen": "Y", "autoUpdateInfo": {"forceUpdate": true, "fromAppVersion": "201", "needUpdate": true, "prompt": "提示", "toAppVersion": "202"}, "contactInfo": {}, "needLogin": "Y", "screenInfo": "FULL", "userGuideInfo": {"userGuideAppId": "100001", "userGuideAppKey": "e3bf9782ef8c4706bf3ccaa5eea908da", "userGuideFlag": true, "userGuideUrl": "http://rwallet-test.wanyol.com/platform-front/wallet_pay/qa/"}}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success": true, "acrossScreen": "Y", "needLogin": "Y", "screenInfo": "FULL"}</t>
+  </si>
+  <si>
+    <t>获取游戏配置信息</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "5456925", "appKey": "2033", "sign": "341243e9ddc2196e0941f5921700dd3b", "timestamp": "1627383958147", "nonce": "5uf2xAjp"}</t>
+  </si>
+  <si>
+    <t>{"data": {"acrossScreen": "Y", "autoUpdateInfo": {"forceUpdate": true, "fromAppVersion": "201", "needUpdate": true, "prompt": "提示", "toAppVersion": "202"}, "contactInfo": {}, "needLogin": "Y", "screenInfo": "FULL"}, "success": true}</t>
+  </si>
+  <si>
+    <t>获取无账号（掌阅）配置信息</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "20242209", "appKey": "2033", "sign": "754641152e1184947f2a8ae877375f38", "timestamp": "1627383958147", "nonce": "5uf2xAjp"}</t>
+  </si>
+  <si>
+    <t>{"data": {"acrossScreen": "", "autoUpdateInfo": {"forceUpdate": true, "fromAppVersion": "201", "needUpdate": true, "prompt": "提示", "toAppVersion": "202"}, "contactInfo": {}, "needLogin": "N", "screenInfo": "HALF"}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success": true, "acrossScreen": "", "needLogin": "N", "screenInfo": "HALF"}</t>
+  </si>
+  <si>
+    <t>不传partnerCode</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "", "appKey": "2033", "sign": "47e8b4397c76ba97be06e45b11a2464a", "timestamp": "1627383958147", "nonce": "5uf2xAjp"}</t>
+  </si>
+  <si>
+    <t>{"data": {"autoUpdateInfo": {"forceUpdate": true, "fromAppVersion": "201", "needUpdate": true, "prompt": "提示", "toAppVersion": "202"}, "contactInfo": {}}, "success": true}</t>
+  </si>
+  <si>
+    <t>跟partnerCode相关的字段：userGuideInfo、screenInfo、acrossScreen、needLogin</t>
+  </si>
+  <si>
+    <t>不存在的partnerCode</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "abcd", "appKey": "2033", "sign": "3cda6732b64dd6da3f697af52fae3914", "timestamp": "1627383958147", "nonce": "5uf2xAjp"}</t>
+  </si>
+  <si>
+    <t>{"data": {"autoUpdateInfo": {"forceUpdate": true, "fromAppVersion": "201", "needUpdate": true, "prompt": "提示", "toAppVersion": "202"}, "contactInfo": {}, "screenInfo": "FULL"}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success": true, "screenInfo": "FULL"}</t>
   </si>
   <si>
     <t>下单支付-接口测试用例集</t>
@@ -1780,6 +1838,294 @@
   </si>
   <si>
     <t>自动续费-支付宝</t>
+  </si>
+  <si>
+    <t>获取小喇叭-接口测试用例集</t>
+  </si>
+  <si>
+    <t>/api/conf/v290/get-speaker-info</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先从数据库中匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platform_opay.speaker_info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fromTime&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;=toTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>partnerCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bizId
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">all &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>partnerCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，同一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>partnerCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bizId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从小到大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排序返回</t>
+    </r>
+  </si>
+  <si>
+    <t>获取2031小喇叭</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "2031", "bizId": "", "country": "CN", "appKey": "2033", "sign": "fb2c63a2cf4b9bf147c0424cf16b94ae", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>{"data": {"speakerList": [{"content": "杩欐槸涓�涓病鏈夎繑鍒╃殑娲诲姩", "fromTime": "2021-01-13 00:00:00", "page": "speaker_buy", "speakerVersion": 99, "toTime": "2022-01-28 23:59:59"}]}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success": true, "content": "杩欐槸涓�涓病鏈夎繑鍒╃殑娲诲姩"}</t>
+  </si>
+  <si>
+    <t>获取游戏小喇叭</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "5456925", "bizId": "SK1003", "country": "CN", "appKey": "2033", "sign": "70758fb8bea50d7630d3a927ff85bb41", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>获取无账号（掌阅）小喇叭</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "20242209", "bizId": "", "country": "CN", "appKey": "2033", "sign": "5694a01675603943307858466b577c00", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "", "bizId": "", "country": "CN", "appKey": "2033", "sign": "3b7af941fd036436235ad6d1f6c3c203", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>partnerCode不存在，返回partnerCode=ALL的记录</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "2032abc", "bizId": "", "country": "CN", "appKey": "2033", "sign": "2f787604c416c4b34841f23d23cd5aa6", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>country为空</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "2031", "bizId": "", "country": "", "appKey": "2033", "sign": "abee3084e3c34c0f2d524682fd022ad5", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>country非CN，返回空</t>
+  </si>
+  <si>
+    <t>{"partnerCode": "2031", "bizId": "", "country": "CNY", "appKey": "2033", "sign": "54f5930bb5c8bcf20b08673147f7711f", "timestamp": "1627556504884", "nonce": "4hwMtOjd"}</t>
+  </si>
+  <si>
+    <t>{"data": {"speakerList": []}, "success": true}</t>
+  </si>
+  <si>
+    <t>{"success": true, "speakerList": []}</t>
   </si>
 </sst>
 </file>
@@ -1787,13 +2133,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,6 +2180,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1846,12 +2205,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1874,8 +2227,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,38 +2311,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1940,24 +2341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,33 +2350,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2004,15 +2365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2039,13 +2392,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,7 +2434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,19 +2446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,7 +2476,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,49 +2548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,61 +2572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2248,60 +2601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2322,15 +2621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2345,6 +2635,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2353,10 +2706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2365,137 +2718,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="9">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2531,20 +2884,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2561,13 +2947,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3016,7 +3402,7 @@
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="10">
@@ -3075,7 +3461,7 @@
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="41" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="10">
@@ -3100,7 +3486,7 @@
       <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="41" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10">
@@ -3125,7 +3511,7 @@
       <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="41" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="10">
@@ -3150,7 +3536,7 @@
       <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="41" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="10">
@@ -3175,7 +3561,7 @@
       <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="41" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="10">
@@ -3200,7 +3586,7 @@
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="10">
@@ -3225,7 +3611,7 @@
       <c r="D17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="10">
@@ -3250,7 +3636,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="41" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="10">
@@ -3297,7 +3683,7 @@
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="5"/>
@@ -3320,7 +3706,7 @@
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="5"/>
@@ -3343,7 +3729,7 @@
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="5"/>
@@ -3394,7 +3780,7 @@
       <c r="D24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="10">
@@ -3590,7 +3976,7 @@
       <c r="D32" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="41" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="10">
@@ -3615,7 +4001,7 @@
       <c r="D33" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="41" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="10">
@@ -3640,7 +4026,7 @@
       <c r="D34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="41" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="10">
@@ -3665,7 +4051,7 @@
       <c r="D35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="41" t="s">
         <v>97</v>
       </c>
       <c r="F35" s="10">
@@ -3690,7 +4076,7 @@
       <c r="D36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="41" t="s">
         <v>101</v>
       </c>
       <c r="F36" s="10">
@@ -3715,7 +4101,7 @@
       <c r="D37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="41" t="s">
         <v>104</v>
       </c>
       <c r="F37" s="10">
@@ -3740,7 +4126,7 @@
       <c r="D38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="41" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="10">
@@ -3765,7 +4151,7 @@
       <c r="D39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="41" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="10">
@@ -3790,7 +4176,7 @@
       <c r="D40" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="41" t="s">
         <v>113</v>
       </c>
       <c r="F40" s="10">
@@ -3815,7 +4201,7 @@
       <c r="D41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="41" t="s">
         <v>116</v>
       </c>
       <c r="F41" s="10">
@@ -3840,7 +4226,7 @@
       <c r="D42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="41" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="10">
@@ -3865,7 +4251,7 @@
       <c r="D43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="41" t="s">
         <v>122</v>
       </c>
       <c r="F43" s="10">
@@ -3915,7 +4301,7 @@
       <c r="D45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="41" t="s">
         <v>130</v>
       </c>
       <c r="F45" s="10">
@@ -3990,7 +4376,7 @@
       <c r="D48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="41" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="10">
@@ -4065,7 +4451,7 @@
       <c r="D51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="41" t="s">
         <v>148</v>
       </c>
       <c r="F51" s="10">
@@ -4135,8 +4521,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4156,7 +4542,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4221,25 +4607,25 @@
       <c r="A7" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
         <v>282</v>
       </c>
       <c r="F7" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="11"/>
@@ -4248,25 +4634,25 @@
       <c r="A8" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="30" t="s">
         <v>285</v>
       </c>
       <c r="F8" s="10">
         <v>200</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I8" s="11"/>
@@ -4275,25 +4661,25 @@
       <c r="A9" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="30" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="10">
         <v>200</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I9" s="11"/>
@@ -4302,25 +4688,25 @@
       <c r="A10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>291</v>
       </c>
       <c r="F10" s="10">
         <v>200</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I10" s="11"/>
@@ -4329,25 +4715,25 @@
       <c r="A11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="10">
         <v>200</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="11"/>
@@ -4356,25 +4742,25 @@
       <c r="A12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>291</v>
       </c>
       <c r="F12" s="10">
         <v>200</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="11"/>
@@ -4383,25 +4769,25 @@
       <c r="A13" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="30" t="s">
         <v>282</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I13" s="11"/>
@@ -4410,25 +4796,25 @@
       <c r="A14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="30" t="s">
         <v>285</v>
       </c>
       <c r="F14" s="10">
         <v>200</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I14" s="11"/>
@@ -4437,25 +4823,25 @@
       <c r="A15" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="30" t="s">
         <v>302</v>
       </c>
       <c r="F15" s="10">
         <v>200</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I15" s="11"/>
@@ -4464,25 +4850,25 @@
       <c r="A16" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="30" t="s">
         <v>304</v>
       </c>
       <c r="F16" s="10">
         <v>200</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="11"/>
@@ -4491,25 +4877,25 @@
       <c r="A17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="30" t="s">
         <v>285</v>
       </c>
       <c r="F17" s="10">
         <v>200</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="15" t="s">
         <v>156</v>
       </c>
       <c r="I17" s="11"/>
@@ -4617,7 +5003,7 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>310</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -4739,7 +5125,7 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>315</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -4766,7 +5152,7 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>319</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -4793,7 +5179,7 @@
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>322</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -4820,7 +5206,7 @@
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>324</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -4847,7 +5233,7 @@
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>327</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4874,7 +5260,7 @@
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>329</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -4901,7 +5287,7 @@
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>333</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -4928,7 +5314,7 @@
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>336</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4955,7 +5341,7 @@
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>338</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -4982,7 +5368,7 @@
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -5008,23 +5394,23 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.275" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7166666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6083333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
@@ -5090,6 +5476,145 @@
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A9" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A10" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A11" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5104,7 +5629,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5125,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
@@ -5133,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:2">
@@ -5182,7 +5707,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:9">
@@ -5195,23 +5720,23 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>346</v>
+      <c r="D7" s="15" t="s">
+        <v>365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F7" s="10">
         <v>200</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:9">
@@ -5224,28 +5749,28 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>350</v>
+      <c r="D8" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F8" s="10">
         <v>200</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -5253,11 +5778,11 @@
       <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>354</v>
+      <c r="D9" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="F9" s="10">
         <v>200</v>
@@ -5269,12 +5794,12 @@
         <v>156</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -5282,11 +5807,11 @@
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>358</v>
+      <c r="D10" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F10" s="10">
         <v>200</v>
@@ -5298,12 +5823,12 @@
         <v>156</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
@@ -5311,28 +5836,28 @@
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>362</v>
+      <c r="D11" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F11" s="10">
         <v>200</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
@@ -5340,28 +5865,28 @@
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>366</v>
+      <c r="D12" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F12" s="10">
         <v>200</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -5369,17 +5894,17 @@
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>370</v>
+      <c r="D13" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>156</v>
@@ -5390,7 +5915,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -5398,17 +5923,17 @@
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>374</v>
+      <c r="D14" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="F14" s="10">
         <v>200</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>156</v>
@@ -5419,7 +5944,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -5427,17 +5952,17 @@
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>377</v>
+      <c r="D15" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F15" s="10">
         <v>200</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>156</v>
@@ -5448,7 +5973,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -5456,17 +5981,17 @@
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>380</v>
+      <c r="D16" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="F16" s="10">
         <v>200</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>156</v>
@@ -5477,7 +6002,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -5486,16 +6011,16 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="F17" s="10">
         <v>200</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>156</v>
@@ -5506,7 +6031,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -5514,17 +6039,17 @@
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>386</v>
+      <c r="D18" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="F18" s="10">
         <v>200</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>156</v>
@@ -5535,7 +6060,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -5543,17 +6068,17 @@
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>389</v>
+      <c r="D19" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F19" s="10">
         <v>200</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>156</v>
@@ -5564,7 +6089,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
@@ -5572,17 +6097,17 @@
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>393</v>
+      <c r="D20" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="F20" s="10">
         <v>200</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>156</v>
@@ -5593,7 +6118,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
@@ -5601,17 +6126,17 @@
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>396</v>
+      <c r="D21" s="15" t="s">
+        <v>415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F21" s="10">
         <v>200</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>156</v>
@@ -5622,7 +6147,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>18</v>
@@ -5630,17 +6155,17 @@
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>398</v>
+      <c r="D22" s="15" t="s">
+        <v>417</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="F22" s="10">
         <v>200</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>156</v>
@@ -5651,7 +6176,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>27</v>
@@ -5659,17 +6184,17 @@
       <c r="C23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>401</v>
+      <c r="D23" s="15" t="s">
+        <v>420</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F23" s="10">
         <v>200</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>156</v>
@@ -5680,7 +6205,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -5688,17 +6213,17 @@
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>403</v>
+      <c r="D24" s="15" t="s">
+        <v>422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F24" s="10">
         <v>200</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>156</v>
@@ -5709,7 +6234,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>18</v>
@@ -5717,17 +6242,17 @@
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>406</v>
+      <c r="D25" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F25" s="10">
         <v>200</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>156</v>
@@ -5738,7 +6263,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
@@ -5746,28 +6271,28 @@
       <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>409</v>
+      <c r="D26" s="15" t="s">
+        <v>428</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="F26" s="10">
         <v>200</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>18</v>
@@ -5775,17 +6300,17 @@
       <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>413</v>
+      <c r="D27" s="15" t="s">
+        <v>432</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="F27" s="10">
         <v>200</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>156</v>
@@ -5796,7 +6321,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>18</v>
@@ -5804,17 +6329,17 @@
       <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>416</v>
+      <c r="D28" s="15" t="s">
+        <v>435</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F28" s="10">
         <v>200</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>156</v>
@@ -5825,7 +6350,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
@@ -5833,11 +6358,11 @@
       <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>419</v>
+      <c r="D29" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F29" s="10">
         <v>200</v>
@@ -5849,12 +6374,12 @@
         <v>156</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>18</v>
@@ -5862,17 +6387,17 @@
       <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>422</v>
+      <c r="D30" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="F30" s="10">
         <v>200</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>156</v>
@@ -5883,7 +6408,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>18</v>
@@ -5891,17 +6416,17 @@
       <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>425</v>
+      <c r="D31" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F31" s="10">
         <v>200</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>156</v>
@@ -5912,7 +6437,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>18</v>
@@ -5920,17 +6445,17 @@
       <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>428</v>
+      <c r="D32" s="15" t="s">
+        <v>447</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="F32" s="10">
         <v>200</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>156</v>
@@ -5941,7 +6466,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>18</v>
@@ -5949,17 +6474,17 @@
       <c r="C33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>431</v>
+      <c r="D33" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F33" s="10">
         <v>200</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>156</v>
@@ -5970,7 +6495,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>18</v>
@@ -5978,17 +6503,17 @@
       <c r="C34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>434</v>
+      <c r="D34" s="15" t="s">
+        <v>453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="F34" s="10">
         <v>200</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>156</v>
@@ -5999,7 +6524,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>27</v>
@@ -6007,11 +6532,11 @@
       <c r="C35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>437</v>
+      <c r="D35" s="15" t="s">
+        <v>456</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F35" s="10">
         <v>200</v>
@@ -6028,7 +6553,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
@@ -6036,11 +6561,11 @@
       <c r="C36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>439</v>
+      <c r="D36" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F36" s="10">
         <v>200</v>
@@ -6057,7 +6582,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
@@ -6065,11 +6590,11 @@
       <c r="C37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>442</v>
+      <c r="D37" s="15" t="s">
+        <v>461</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F37" s="10">
         <v>200</v>
@@ -6086,7 +6611,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
@@ -6094,23 +6619,23 @@
       <c r="C38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>444</v>
+      <c r="D38" s="15" t="s">
+        <v>463</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="F38" s="10">
         <v>200</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6146,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
@@ -6154,7 +6679,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:2">
@@ -6203,12 +6728,12 @@
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -6217,16 +6742,16 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="F7" s="10">
         <v>200</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>156</v>
@@ -6237,7 +6762,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6245,17 +6770,17 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>452</v>
+      <c r="D8" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="F8" s="10">
         <v>200</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>156</v>
@@ -6266,7 +6791,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -6274,17 +6799,17 @@
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>455</v>
+      <c r="D9" s="15" t="s">
+        <v>474</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="F9" s="10">
         <v>200</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>156</v>
@@ -6295,7 +6820,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -6303,17 +6828,17 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>458</v>
+      <c r="D10" s="15" t="s">
+        <v>477</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="F10" s="10">
         <v>200</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>156</v>
@@ -6323,17 +6848,17 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A11" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>461</v>
+      <c r="D11" s="15" t="s">
+        <v>480</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>262</v>
@@ -6342,36 +6867,36 @@
         <v>200</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A12" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>465</v>
+      <c r="D12" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="F12" s="10">
         <v>200</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>156</v>
@@ -6382,7 +6907,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
@@ -6390,17 +6915,17 @@
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>469</v>
+      <c r="D13" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>156</v>
@@ -6411,7 +6936,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -6419,17 +6944,17 @@
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>473</v>
+      <c r="D14" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F14" s="10">
         <v>200</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>156</v>
@@ -6438,7 +6963,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -6446,17 +6971,17 @@
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>477</v>
+      <c r="D15" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="F15" s="10">
         <v>200</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>156</v>
@@ -6465,7 +6990,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -6473,17 +6998,17 @@
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>480</v>
+      <c r="D16" s="15" t="s">
+        <v>499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="F16" s="10">
         <v>200</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>156</v>
@@ -6494,7 +7019,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -6502,17 +7027,17 @@
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>483</v>
+      <c r="D17" s="15" t="s">
+        <v>502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="F17" s="10">
         <v>200</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>156</v>
@@ -6523,7 +7048,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
@@ -6531,17 +7056,17 @@
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>486</v>
+      <c r="D18" s="15" t="s">
+        <v>505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F18" s="10">
         <v>200</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>156</v>
@@ -6550,7 +7075,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -6558,17 +7083,17 @@
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>490</v>
+      <c r="D19" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="F19" s="10">
         <v>200</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>156</v>
@@ -6577,7 +7102,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -6585,17 +7110,17 @@
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>493</v>
+      <c r="D20" s="15" t="s">
+        <v>512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F20" s="10">
         <v>200</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>156</v>
@@ -6604,7 +7129,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
@@ -6612,17 +7137,17 @@
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>497</v>
+      <c r="D21" s="15" t="s">
+        <v>516</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F21" s="10">
         <v>200</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>156</v>
@@ -6631,7 +7156,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
@@ -6639,11 +7164,11 @@
       <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>499</v>
+      <c r="D22" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F22" s="10">
         <v>200</v>
@@ -6658,7 +7183,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>27</v>
@@ -6666,11 +7191,11 @@
       <c r="C23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>502</v>
+      <c r="D23" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="F23" s="10">
         <v>200</v>
@@ -6685,7 +7210,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>27</v>
@@ -6693,8 +7218,8 @@
       <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>505</v>
+      <c r="D24" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>304</v>
@@ -6712,7 +7237,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>27</v>
@@ -6720,11 +7245,11 @@
       <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>507</v>
+      <c r="D25" s="15" t="s">
+        <v>526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="F25" s="10">
         <v>200</v>
@@ -6739,7 +7264,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
@@ -6747,8 +7272,8 @@
       <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>510</v>
+      <c r="D26" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>325</v>
@@ -6766,7 +7291,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -6774,11 +7299,11 @@
       <c r="C27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>512</v>
+      <c r="D27" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F27" s="10">
         <v>200</v>
@@ -6793,7 +7318,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
@@ -6801,11 +7326,11 @@
       <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>515</v>
+      <c r="D28" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="F28" s="10">
         <v>200</v>
@@ -6820,7 +7345,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
@@ -6828,11 +7353,11 @@
       <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>518</v>
+      <c r="D29" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="F29" s="10">
         <v>200</v>
@@ -6847,7 +7372,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
@@ -6855,11 +7380,11 @@
       <c r="C30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>521</v>
+      <c r="D30" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="F30" s="10">
         <v>200</v>
@@ -6874,7 +7399,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>27</v>
@@ -6882,11 +7407,11 @@
       <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>524</v>
+      <c r="D31" s="15" t="s">
+        <v>543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="F31" s="10">
         <v>200</v>
@@ -6932,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
@@ -6940,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:2">
@@ -6989,12 +7514,12 @@
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -7013,7 +7538,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7021,7 +7546,7 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
         <v>200</v>
@@ -7034,7 +7559,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
@@ -7045,7 +7570,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="7"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
@@ -7053,10 +7578,10 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="7"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
@@ -7064,10 +7589,10 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
@@ -7078,7 +7603,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
@@ -7089,7 +7614,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="7"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
@@ -7100,7 +7625,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
@@ -7111,7 +7636,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="7"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
@@ -7122,7 +7647,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="7"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
@@ -7133,7 +7658,7 @@
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
@@ -7144,7 +7669,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
@@ -7155,7 +7680,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="7"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
@@ -7166,7 +7691,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
@@ -7177,7 +7702,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="7"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
@@ -7188,7 +7713,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="7"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
@@ -7199,7 +7724,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="7"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
@@ -7210,7 +7735,7 @@
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="7"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
@@ -7221,7 +7746,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="7"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
@@ -7232,7 +7757,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="7"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
@@ -7243,7 +7768,7 @@
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
@@ -7254,7 +7779,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="7"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
@@ -7265,7 +7790,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="7"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
@@ -7276,7 +7801,7 @@
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="7"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
@@ -7290,6 +7815,346 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.525" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.275" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.025" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A8" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A9" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A10" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:9">
+      <c r="A11" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A12" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A13" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="7:7">
+      <c r="G34" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I28"/>
@@ -7390,7 +8255,7 @@
       <c r="D7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="41" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="10">
@@ -7415,7 +8280,7 @@
       <c r="D8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="41" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="10">
@@ -7440,7 +8305,7 @@
       <c r="D9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="41" t="s">
         <v>94</v>
       </c>
       <c r="F9" s="10">
@@ -7465,7 +8330,7 @@
       <c r="D10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="41" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="10">
@@ -7490,7 +8355,7 @@
       <c r="D11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="41" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="10">
@@ -7515,7 +8380,7 @@
       <c r="D12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="41" t="s">
         <v>104</v>
       </c>
       <c r="F12" s="10">
@@ -7540,7 +8405,7 @@
       <c r="D13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="41" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="10">
@@ -7565,7 +8430,7 @@
       <c r="D14" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="41" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="10">
@@ -7590,7 +8455,7 @@
       <c r="D15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="41" t="s">
         <v>113</v>
       </c>
       <c r="F15" s="10">
@@ -7615,7 +8480,7 @@
       <c r="D16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="41" t="s">
         <v>116</v>
       </c>
       <c r="F16" s="10">
@@ -7640,7 +8505,7 @@
       <c r="D17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="41" t="s">
         <v>119</v>
       </c>
       <c r="F17" s="10">
@@ -7665,7 +8530,7 @@
       <c r="D18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="41" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="10">
@@ -7715,7 +8580,7 @@
       <c r="D20" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="41" t="s">
         <v>130</v>
       </c>
       <c r="F20" s="10">
@@ -7790,7 +8655,7 @@
       <c r="D23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="41" t="s">
         <v>141</v>
       </c>
       <c r="F23" s="10">
@@ -7865,7 +8730,7 @@
       <c r="D26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="41" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="10">
@@ -8029,7 +8894,7 @@
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>154</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -8056,7 +8921,7 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>158</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -8083,7 +8948,7 @@
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -8110,7 +8975,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -8353,7 +9218,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="35" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8361,7 +9226,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8369,7 +9234,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8377,13 +9242,13 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:14">
       <c r="A6" s="6" t="s">
@@ -8430,43 +9295,43 @@
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="37" t="s">
         <v>192</v>
       </c>
       <c r="N7" t="s">
@@ -8474,186 +9339,186 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A8" s="27">
+      <c r="A8" s="38">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="39">
         <f ca="1" t="shared" ref="C8:C12" si="0">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="28">
+        <v>2</v>
+      </c>
+      <c r="D8" s="39">
         <f ca="1" t="shared" ref="D8:D12" si="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
-      </c>
-      <c r="E8" s="28">
+        <v>8</v>
+      </c>
+      <c r="E8" s="39">
         <f ca="1" t="shared" ref="E8:E12" si="2">RANDBETWEEN(D8,9999)</f>
-        <v>6392</v>
-      </c>
-      <c r="F8" s="28">
+        <v>8202</v>
+      </c>
+      <c r="F8" s="39">
         <f ca="1" t="shared" ref="F8:F12" si="3">ROUND(RAND(),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39">
         <f ca="1" t="shared" ref="L8:L12" si="4">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="39"/>
       <c r="N8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A9" s="27">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="39">
+        <f ca="1" t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="39">
+        <f ca="1" t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="39">
+        <f ca="1">RANDBETWEEN(D9,20)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="39">
+        <f ca="1" t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39">
+        <f ca="1" t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" customHeight="1" spans="1:14">
+      <c r="A10" s="38">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="39">
         <f ca="1" t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D10" s="39">
         <f ca="1" t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E9" s="28">
-        <f ca="1">RANDBETWEEN(D9,20)</f>
-        <v>11</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="E10" s="39">
+        <f ca="1" t="shared" si="2"/>
+        <v>1064</v>
+      </c>
+      <c r="F10" s="39">
         <f ca="1" t="shared" si="3"/>
-        <v>0.44</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39">
         <f ca="1" t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A10" s="27">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="M10" s="39"/>
+      <c r="N10" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="28">
+    </row>
+    <row r="11" ht="15.6" customHeight="1" spans="1:14">
+      <c r="A11" s="38">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="39">
         <f ca="1" t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D11" s="39">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E10" s="28">
+        <v>7</v>
+      </c>
+      <c r="E11" s="39">
         <f ca="1" t="shared" si="2"/>
-        <v>7452</v>
-      </c>
-      <c r="F10" s="28">
+        <v>2854</v>
+      </c>
+      <c r="F11" s="39">
         <f ca="1" t="shared" si="3"/>
-        <v>0.87</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39">
         <f ca="1" t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A11" s="27">
+      <c r="M11" s="39"/>
+      <c r="N11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" spans="1:14">
+      <c r="A12" s="38">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="39">
+        <f ca="1" t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="39">
+        <f ca="1" t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="28">
-        <f ca="1" t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D11" s="28">
-        <f ca="1" t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="E12" s="39">
         <f ca="1" t="shared" si="2"/>
-        <v>7252</v>
-      </c>
-      <c r="F11" s="28">
+        <v>5536</v>
+      </c>
+      <c r="F12" s="39">
         <f ca="1" t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39">
         <f ca="1" t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" spans="1:14">
-      <c r="A12" s="27">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="28">
-        <f ca="1" t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="28">
-        <f ca="1" t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="28">
-        <f ca="1" t="shared" si="2"/>
-        <v>6577</v>
-      </c>
-      <c r="F12" s="28">
-        <f ca="1" t="shared" si="3"/>
-        <v>0.22</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28">
-        <f ca="1" t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="39"/>
       <c r="N12" t="s">
         <v>200</v>
       </c>
@@ -8690,7 +9555,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="34" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8755,13 +9620,13 @@
       <c r="A7" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="32" t="s">
         <v>204</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -8782,13 +9647,13 @@
       <c r="A8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="32" t="s">
         <v>208</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -8809,13 +9674,13 @@
       <c r="A9" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="32" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -8864,7 +9729,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8929,16 +9794,16 @@
       <c r="A7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
         <v>218</v>
       </c>
       <c r="F7" s="10">
@@ -8947,7 +9812,7 @@
       <c r="G7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="11"/>
@@ -8956,16 +9821,16 @@
       <c r="A8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="30" t="s">
         <v>218</v>
       </c>
       <c r="F8" s="10">
@@ -8983,16 +9848,16 @@
       <c r="A9" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="30" t="s">
         <v>218</v>
       </c>
       <c r="F9" s="10">
@@ -9010,16 +9875,16 @@
       <c r="A10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>225</v>
       </c>
       <c r="F10" s="10">
@@ -9037,16 +9902,16 @@
       <c r="A11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>212</v>
       </c>
       <c r="F11" s="10">
@@ -9064,16 +9929,16 @@
       <c r="A12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>218</v>
       </c>
       <c r="F12" s="10">
@@ -9119,7 +9984,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9184,25 +10049,25 @@
       <c r="A7" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F7" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="11"/>
@@ -9211,25 +10076,25 @@
       <c r="A8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="30" t="s">
         <v>238</v>
       </c>
       <c r="F8" s="10">
         <v>200</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I8" s="11"/>
@@ -9238,25 +10103,25 @@
       <c r="A9" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="30" t="s">
         <v>240</v>
       </c>
       <c r="F9" s="10">
         <v>200</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I9" s="11"/>
@@ -9265,25 +10130,25 @@
       <c r="A10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>242</v>
       </c>
       <c r="F10" s="10">
         <v>200</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I10" s="11"/>
@@ -9292,25 +10157,25 @@
       <c r="A11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>245</v>
       </c>
       <c r="F11" s="10">
         <v>200</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="11"/>
@@ -9319,25 +10184,25 @@
       <c r="A12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>248</v>
       </c>
       <c r="F12" s="10">
         <v>200</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="11"/>
@@ -9346,25 +10211,25 @@
       <c r="A13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="30" t="s">
         <v>252</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I13" s="11"/>
@@ -9373,25 +10238,25 @@
       <c r="A14" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="30" t="s">
         <v>252</v>
       </c>
       <c r="F14" s="10">
         <v>200</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I14" s="11"/>
@@ -9428,7 +10293,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9493,25 +10358,25 @@
       <c r="A7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
         <v>258</v>
       </c>
       <c r="F7" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="11"/>
@@ -9520,52 +10385,52 @@
       <c r="A8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="30" t="s">
         <v>262</v>
       </c>
       <c r="F8" s="10">
         <v>200</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="33" t="s">
         <v>263</v>
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" ht="40.5" spans="1:9">
+    <row r="9" ht="40.5" customHeight="1" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="30" t="s">
         <v>266</v>
       </c>
       <c r="F9" s="10">
         <v>200</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I9" s="11"/>
@@ -9574,52 +10439,52 @@
       <c r="A10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>269</v>
       </c>
       <c r="F10" s="10">
         <v>200</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" ht="27" spans="1:9">
+    <row r="11" ht="27" customHeight="1" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>262</v>
       </c>
       <c r="F11" s="10">
         <v>200</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="33" t="s">
         <v>263</v>
       </c>
       <c r="I11" s="11"/>
@@ -9628,25 +10493,25 @@
       <c r="A12" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>262</v>
       </c>
       <c r="F12" s="10">
         <v>200</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="11"/>
@@ -9655,25 +10520,25 @@
       <c r="A13" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="30" t="s">
         <v>275</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I13" s="11"/>
@@ -9682,25 +10547,25 @@
       <c r="A14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="30" t="s">
         <v>276</v>
       </c>
       <c r="F14" s="10">
         <v>200</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I14" s="11"/>
@@ -9709,25 +10574,25 @@
       <c r="A15" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="30" t="s">
         <v>252</v>
       </c>
       <c r="F15" s="10">
         <v>200</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I15" s="11"/>
@@ -9736,25 +10601,25 @@
       <c r="A16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="30" t="s">
         <v>252</v>
       </c>
       <c r="F16" s="10">
         <v>200</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="11"/>
